--- a/helpfiles/tentamenuitslag_R.xlsx
+++ b/helpfiles/tentamenuitslag_R.xlsx
@@ -525,12 +525,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad2"/>
-  <dimension ref="A1:G600"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A960" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K991" sqref="K991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7102,6 +7102,4006 @@
       </c>
       <c r="F600" s="3" t="str">
         <f>IF(D600 &lt;&gt; "", (D600 * transformatie!$M$2 + E600 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="601" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D601" s="3" t="str">
+        <f>VLOOKUP(C601,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F601" s="3" t="str">
+        <f>IF(D601 &lt;&gt; "", (D601 * transformatie!$M$2 + E601 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="602" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D602" s="3" t="str">
+        <f>VLOOKUP(C602,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F602" s="3" t="str">
+        <f>IF(D602 &lt;&gt; "", (D602 * transformatie!$M$2 + E602 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="603" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D603" s="3" t="str">
+        <f>VLOOKUP(C603,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F603" s="3" t="str">
+        <f>IF(D603 &lt;&gt; "", (D603 * transformatie!$M$2 + E603 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="604" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D604" s="3" t="str">
+        <f>VLOOKUP(C604,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F604" s="3" t="str">
+        <f>IF(D604 &lt;&gt; "", (D604 * transformatie!$M$2 + E604 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="605" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D605" s="3" t="str">
+        <f>VLOOKUP(C605,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F605" s="3" t="str">
+        <f>IF(D605 &lt;&gt; "", (D605 * transformatie!$M$2 + E605 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="606" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D606" s="3" t="str">
+        <f>VLOOKUP(C606,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F606" s="3" t="str">
+        <f>IF(D606 &lt;&gt; "", (D606 * transformatie!$M$2 + E606 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="607" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D607" s="3" t="str">
+        <f>VLOOKUP(C607,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F607" s="3" t="str">
+        <f>IF(D607 &lt;&gt; "", (D607 * transformatie!$M$2 + E607 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="608" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D608" s="3" t="str">
+        <f>VLOOKUP(C608,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F608" s="3" t="str">
+        <f>IF(D608 &lt;&gt; "", (D608 * transformatie!$M$2 + E608 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="609" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D609" s="3" t="str">
+        <f>VLOOKUP(C609,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F609" s="3" t="str">
+        <f>IF(D609 &lt;&gt; "", (D609 * transformatie!$M$2 + E609 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="610" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D610" s="3" t="str">
+        <f>VLOOKUP(C610,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F610" s="3" t="str">
+        <f>IF(D610 &lt;&gt; "", (D610 * transformatie!$M$2 + E610 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="611" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D611" s="3" t="str">
+        <f>VLOOKUP(C611,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F611" s="3" t="str">
+        <f>IF(D611 &lt;&gt; "", (D611 * transformatie!$M$2 + E611 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="612" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D612" s="3" t="str">
+        <f>VLOOKUP(C612,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F612" s="3" t="str">
+        <f>IF(D612 &lt;&gt; "", (D612 * transformatie!$M$2 + E612 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="613" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D613" s="3" t="str">
+        <f>VLOOKUP(C613,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F613" s="3" t="str">
+        <f>IF(D613 &lt;&gt; "", (D613 * transformatie!$M$2 + E613 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="614" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D614" s="3" t="str">
+        <f>VLOOKUP(C614,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F614" s="3" t="str">
+        <f>IF(D614 &lt;&gt; "", (D614 * transformatie!$M$2 + E614 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="615" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D615" s="3" t="str">
+        <f>VLOOKUP(C615,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F615" s="3" t="str">
+        <f>IF(D615 &lt;&gt; "", (D615 * transformatie!$M$2 + E615 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="616" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D616" s="3" t="str">
+        <f>VLOOKUP(C616,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F616" s="3" t="str">
+        <f>IF(D616 &lt;&gt; "", (D616 * transformatie!$M$2 + E616 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="617" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D617" s="3" t="str">
+        <f>VLOOKUP(C617,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F617" s="3" t="str">
+        <f>IF(D617 &lt;&gt; "", (D617 * transformatie!$M$2 + E617 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="618" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D618" s="3" t="str">
+        <f>VLOOKUP(C618,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F618" s="3" t="str">
+        <f>IF(D618 &lt;&gt; "", (D618 * transformatie!$M$2 + E618 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="619" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D619" s="3" t="str">
+        <f>VLOOKUP(C619,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F619" s="3" t="str">
+        <f>IF(D619 &lt;&gt; "", (D619 * transformatie!$M$2 + E619 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="620" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D620" s="3" t="str">
+        <f>VLOOKUP(C620,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F620" s="3" t="str">
+        <f>IF(D620 &lt;&gt; "", (D620 * transformatie!$M$2 + E620 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="621" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D621" s="3" t="str">
+        <f>VLOOKUP(C621,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F621" s="3" t="str">
+        <f>IF(D621 &lt;&gt; "", (D621 * transformatie!$M$2 + E621 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="622" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D622" s="3" t="str">
+        <f>VLOOKUP(C622,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F622" s="3" t="str">
+        <f>IF(D622 &lt;&gt; "", (D622 * transformatie!$M$2 + E622 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="623" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D623" s="3" t="str">
+        <f>VLOOKUP(C623,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F623" s="3" t="str">
+        <f>IF(D623 &lt;&gt; "", (D623 * transformatie!$M$2 + E623 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="624" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D624" s="3" t="str">
+        <f>VLOOKUP(C624,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F624" s="3" t="str">
+        <f>IF(D624 &lt;&gt; "", (D624 * transformatie!$M$2 + E624 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="625" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D625" s="3" t="str">
+        <f>VLOOKUP(C625,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F625" s="3" t="str">
+        <f>IF(D625 &lt;&gt; "", (D625 * transformatie!$M$2 + E625 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="626" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D626" s="3" t="str">
+        <f>VLOOKUP(C626,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F626" s="3" t="str">
+        <f>IF(D626 &lt;&gt; "", (D626 * transformatie!$M$2 + E626 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="627" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D627" s="3" t="str">
+        <f>VLOOKUP(C627,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F627" s="3" t="str">
+        <f>IF(D627 &lt;&gt; "", (D627 * transformatie!$M$2 + E627 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="628" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D628" s="3" t="str">
+        <f>VLOOKUP(C628,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F628" s="3" t="str">
+        <f>IF(D628 &lt;&gt; "", (D628 * transformatie!$M$2 + E628 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="629" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D629" s="3" t="str">
+        <f>VLOOKUP(C629,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F629" s="3" t="str">
+        <f>IF(D629 &lt;&gt; "", (D629 * transformatie!$M$2 + E629 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="630" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D630" s="3" t="str">
+        <f>VLOOKUP(C630,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F630" s="3" t="str">
+        <f>IF(D630 &lt;&gt; "", (D630 * transformatie!$M$2 + E630 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="631" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D631" s="3" t="str">
+        <f>VLOOKUP(C631,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F631" s="3" t="str">
+        <f>IF(D631 &lt;&gt; "", (D631 * transformatie!$M$2 + E631 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="632" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D632" s="3" t="str">
+        <f>VLOOKUP(C632,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F632" s="3" t="str">
+        <f>IF(D632 &lt;&gt; "", (D632 * transformatie!$M$2 + E632 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="633" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D633" s="3" t="str">
+        <f>VLOOKUP(C633,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F633" s="3" t="str">
+        <f>IF(D633 &lt;&gt; "", (D633 * transformatie!$M$2 + E633 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="634" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D634" s="3" t="str">
+        <f>VLOOKUP(C634,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F634" s="3" t="str">
+        <f>IF(D634 &lt;&gt; "", (D634 * transformatie!$M$2 + E634 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="635" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D635" s="3" t="str">
+        <f>VLOOKUP(C635,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F635" s="3" t="str">
+        <f>IF(D635 &lt;&gt; "", (D635 * transformatie!$M$2 + E635 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="636" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D636" s="3" t="str">
+        <f>VLOOKUP(C636,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F636" s="3" t="str">
+        <f>IF(D636 &lt;&gt; "", (D636 * transformatie!$M$2 + E636 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="637" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D637" s="3" t="str">
+        <f>VLOOKUP(C637,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F637" s="3" t="str">
+        <f>IF(D637 &lt;&gt; "", (D637 * transformatie!$M$2 + E637 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="638" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D638" s="3" t="str">
+        <f>VLOOKUP(C638,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F638" s="3" t="str">
+        <f>IF(D638 &lt;&gt; "", (D638 * transformatie!$M$2 + E638 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="639" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D639" s="3" t="str">
+        <f>VLOOKUP(C639,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F639" s="3" t="str">
+        <f>IF(D639 &lt;&gt; "", (D639 * transformatie!$M$2 + E639 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="640" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D640" s="3" t="str">
+        <f>VLOOKUP(C640,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F640" s="3" t="str">
+        <f>IF(D640 &lt;&gt; "", (D640 * transformatie!$M$2 + E640 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="641" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D641" s="3" t="str">
+        <f>VLOOKUP(C641,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F641" s="3" t="str">
+        <f>IF(D641 &lt;&gt; "", (D641 * transformatie!$M$2 + E641 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="642" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D642" s="3" t="str">
+        <f>VLOOKUP(C642,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F642" s="3" t="str">
+        <f>IF(D642 &lt;&gt; "", (D642 * transformatie!$M$2 + E642 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="643" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D643" s="3" t="str">
+        <f>VLOOKUP(C643,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F643" s="3" t="str">
+        <f>IF(D643 &lt;&gt; "", (D643 * transformatie!$M$2 + E643 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="644" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D644" s="3" t="str">
+        <f>VLOOKUP(C644,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F644" s="3" t="str">
+        <f>IF(D644 &lt;&gt; "", (D644 * transformatie!$M$2 + E644 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="645" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D645" s="3" t="str">
+        <f>VLOOKUP(C645,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F645" s="3" t="str">
+        <f>IF(D645 &lt;&gt; "", (D645 * transformatie!$M$2 + E645 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="646" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D646" s="3" t="str">
+        <f>VLOOKUP(C646,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F646" s="3" t="str">
+        <f>IF(D646 &lt;&gt; "", (D646 * transformatie!$M$2 + E646 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="647" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D647" s="3" t="str">
+        <f>VLOOKUP(C647,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F647" s="3" t="str">
+        <f>IF(D647 &lt;&gt; "", (D647 * transformatie!$M$2 + E647 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="648" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D648" s="3" t="str">
+        <f>VLOOKUP(C648,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F648" s="3" t="str">
+        <f>IF(D648 &lt;&gt; "", (D648 * transformatie!$M$2 + E648 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="649" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D649" s="3" t="str">
+        <f>VLOOKUP(C649,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F649" s="3" t="str">
+        <f>IF(D649 &lt;&gt; "", (D649 * transformatie!$M$2 + E649 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="650" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D650" s="3" t="str">
+        <f>VLOOKUP(C650,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F650" s="3" t="str">
+        <f>IF(D650 &lt;&gt; "", (D650 * transformatie!$M$2 + E650 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="651" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D651" s="3" t="str">
+        <f>VLOOKUP(C651,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F651" s="3" t="str">
+        <f>IF(D651 &lt;&gt; "", (D651 * transformatie!$M$2 + E651 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="652" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D652" s="3" t="str">
+        <f>VLOOKUP(C652,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F652" s="3" t="str">
+        <f>IF(D652 &lt;&gt; "", (D652 * transformatie!$M$2 + E652 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="653" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D653" s="3" t="str">
+        <f>VLOOKUP(C653,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F653" s="3" t="str">
+        <f>IF(D653 &lt;&gt; "", (D653 * transformatie!$M$2 + E653 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="654" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D654" s="3" t="str">
+        <f>VLOOKUP(C654,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F654" s="3" t="str">
+        <f>IF(D654 &lt;&gt; "", (D654 * transformatie!$M$2 + E654 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="655" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D655" s="3" t="str">
+        <f>VLOOKUP(C655,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F655" s="3" t="str">
+        <f>IF(D655 &lt;&gt; "", (D655 * transformatie!$M$2 + E655 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="656" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D656" s="3" t="str">
+        <f>VLOOKUP(C656,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F656" s="3" t="str">
+        <f>IF(D656 &lt;&gt; "", (D656 * transformatie!$M$2 + E656 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="657" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D657" s="3" t="str">
+        <f>VLOOKUP(C657,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F657" s="3" t="str">
+        <f>IF(D657 &lt;&gt; "", (D657 * transformatie!$M$2 + E657 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="658" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D658" s="3" t="str">
+        <f>VLOOKUP(C658,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F658" s="3" t="str">
+        <f>IF(D658 &lt;&gt; "", (D658 * transformatie!$M$2 + E658 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="659" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D659" s="3" t="str">
+        <f>VLOOKUP(C659,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F659" s="3" t="str">
+        <f>IF(D659 &lt;&gt; "", (D659 * transformatie!$M$2 + E659 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="660" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D660" s="3" t="str">
+        <f>VLOOKUP(C660,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F660" s="3" t="str">
+        <f>IF(D660 &lt;&gt; "", (D660 * transformatie!$M$2 + E660 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="661" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D661" s="3" t="str">
+        <f>VLOOKUP(C661,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F661" s="3" t="str">
+        <f>IF(D661 &lt;&gt; "", (D661 * transformatie!$M$2 + E661 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="662" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D662" s="3" t="str">
+        <f>VLOOKUP(C662,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F662" s="3" t="str">
+        <f>IF(D662 &lt;&gt; "", (D662 * transformatie!$M$2 + E662 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="663" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D663" s="3" t="str">
+        <f>VLOOKUP(C663,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F663" s="3" t="str">
+        <f>IF(D663 &lt;&gt; "", (D663 * transformatie!$M$2 + E663 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="664" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D664" s="3" t="str">
+        <f>VLOOKUP(C664,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F664" s="3" t="str">
+        <f>IF(D664 &lt;&gt; "", (D664 * transformatie!$M$2 + E664 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="665" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D665" s="3" t="str">
+        <f>VLOOKUP(C665,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F665" s="3" t="str">
+        <f>IF(D665 &lt;&gt; "", (D665 * transformatie!$M$2 + E665 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="666" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D666" s="3" t="str">
+        <f>VLOOKUP(C666,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F666" s="3" t="str">
+        <f>IF(D666 &lt;&gt; "", (D666 * transformatie!$M$2 + E666 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="667" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D667" s="3" t="str">
+        <f>VLOOKUP(C667,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F667" s="3" t="str">
+        <f>IF(D667 &lt;&gt; "", (D667 * transformatie!$M$2 + E667 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="668" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D668" s="3" t="str">
+        <f>VLOOKUP(C668,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F668" s="3" t="str">
+        <f>IF(D668 &lt;&gt; "", (D668 * transformatie!$M$2 + E668 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="669" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D669" s="3" t="str">
+        <f>VLOOKUP(C669,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F669" s="3" t="str">
+        <f>IF(D669 &lt;&gt; "", (D669 * transformatie!$M$2 + E669 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="670" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D670" s="3" t="str">
+        <f>VLOOKUP(C670,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F670" s="3" t="str">
+        <f>IF(D670 &lt;&gt; "", (D670 * transformatie!$M$2 + E670 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="671" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D671" s="3" t="str">
+        <f>VLOOKUP(C671,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F671" s="3" t="str">
+        <f>IF(D671 &lt;&gt; "", (D671 * transformatie!$M$2 + E671 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="672" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D672" s="3" t="str">
+        <f>VLOOKUP(C672,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F672" s="3" t="str">
+        <f>IF(D672 &lt;&gt; "", (D672 * transformatie!$M$2 + E672 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="673" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D673" s="3" t="str">
+        <f>VLOOKUP(C673,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F673" s="3" t="str">
+        <f>IF(D673 &lt;&gt; "", (D673 * transformatie!$M$2 + E673 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="674" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D674" s="3" t="str">
+        <f>VLOOKUP(C674,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F674" s="3" t="str">
+        <f>IF(D674 &lt;&gt; "", (D674 * transformatie!$M$2 + E674 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="675" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D675" s="3" t="str">
+        <f>VLOOKUP(C675,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F675" s="3" t="str">
+        <f>IF(D675 &lt;&gt; "", (D675 * transformatie!$M$2 + E675 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="676" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D676" s="3" t="str">
+        <f>VLOOKUP(C676,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F676" s="3" t="str">
+        <f>IF(D676 &lt;&gt; "", (D676 * transformatie!$M$2 + E676 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="677" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D677" s="3" t="str">
+        <f>VLOOKUP(C677,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F677" s="3" t="str">
+        <f>IF(D677 &lt;&gt; "", (D677 * transformatie!$M$2 + E677 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="678" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D678" s="3" t="str">
+        <f>VLOOKUP(C678,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F678" s="3" t="str">
+        <f>IF(D678 &lt;&gt; "", (D678 * transformatie!$M$2 + E678 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="679" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D679" s="3" t="str">
+        <f>VLOOKUP(C679,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F679" s="3" t="str">
+        <f>IF(D679 &lt;&gt; "", (D679 * transformatie!$M$2 + E679 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="680" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D680" s="3" t="str">
+        <f>VLOOKUP(C680,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F680" s="3" t="str">
+        <f>IF(D680 &lt;&gt; "", (D680 * transformatie!$M$2 + E680 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="681" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D681" s="3" t="str">
+        <f>VLOOKUP(C681,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F681" s="3" t="str">
+        <f>IF(D681 &lt;&gt; "", (D681 * transformatie!$M$2 + E681 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="682" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D682" s="3" t="str">
+        <f>VLOOKUP(C682,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F682" s="3" t="str">
+        <f>IF(D682 &lt;&gt; "", (D682 * transformatie!$M$2 + E682 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="683" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D683" s="3" t="str">
+        <f>VLOOKUP(C683,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F683" s="3" t="str">
+        <f>IF(D683 &lt;&gt; "", (D683 * transformatie!$M$2 + E683 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="684" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D684" s="3" t="str">
+        <f>VLOOKUP(C684,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F684" s="3" t="str">
+        <f>IF(D684 &lt;&gt; "", (D684 * transformatie!$M$2 + E684 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="685" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D685" s="3" t="str">
+        <f>VLOOKUP(C685,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F685" s="3" t="str">
+        <f>IF(D685 &lt;&gt; "", (D685 * transformatie!$M$2 + E685 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="686" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D686" s="3" t="str">
+        <f>VLOOKUP(C686,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F686" s="3" t="str">
+        <f>IF(D686 &lt;&gt; "", (D686 * transformatie!$M$2 + E686 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="687" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D687" s="3" t="str">
+        <f>VLOOKUP(C687,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F687" s="3" t="str">
+        <f>IF(D687 &lt;&gt; "", (D687 * transformatie!$M$2 + E687 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="688" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D688" s="3" t="str">
+        <f>VLOOKUP(C688,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F688" s="3" t="str">
+        <f>IF(D688 &lt;&gt; "", (D688 * transformatie!$M$2 + E688 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="689" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D689" s="3" t="str">
+        <f>VLOOKUP(C689,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F689" s="3" t="str">
+        <f>IF(D689 &lt;&gt; "", (D689 * transformatie!$M$2 + E689 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="690" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D690" s="3" t="str">
+        <f>VLOOKUP(C690,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F690" s="3" t="str">
+        <f>IF(D690 &lt;&gt; "", (D690 * transformatie!$M$2 + E690 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="691" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D691" s="3" t="str">
+        <f>VLOOKUP(C691,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F691" s="3" t="str">
+        <f>IF(D691 &lt;&gt; "", (D691 * transformatie!$M$2 + E691 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="692" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D692" s="3" t="str">
+        <f>VLOOKUP(C692,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F692" s="3" t="str">
+        <f>IF(D692 &lt;&gt; "", (D692 * transformatie!$M$2 + E692 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="693" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D693" s="3" t="str">
+        <f>VLOOKUP(C693,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F693" s="3" t="str">
+        <f>IF(D693 &lt;&gt; "", (D693 * transformatie!$M$2 + E693 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="694" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D694" s="3" t="str">
+        <f>VLOOKUP(C694,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F694" s="3" t="str">
+        <f>IF(D694 &lt;&gt; "", (D694 * transformatie!$M$2 + E694 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="695" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D695" s="3" t="str">
+        <f>VLOOKUP(C695,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F695" s="3" t="str">
+        <f>IF(D695 &lt;&gt; "", (D695 * transformatie!$M$2 + E695 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="696" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D696" s="3" t="str">
+        <f>VLOOKUP(C696,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F696" s="3" t="str">
+        <f>IF(D696 &lt;&gt; "", (D696 * transformatie!$M$2 + E696 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="697" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D697" s="3" t="str">
+        <f>VLOOKUP(C697,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F697" s="3" t="str">
+        <f>IF(D697 &lt;&gt; "", (D697 * transformatie!$M$2 + E697 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="698" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D698" s="3" t="str">
+        <f>VLOOKUP(C698,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F698" s="3" t="str">
+        <f>IF(D698 &lt;&gt; "", (D698 * transformatie!$M$2 + E698 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="699" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D699" s="3" t="str">
+        <f>VLOOKUP(C699,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F699" s="3" t="str">
+        <f>IF(D699 &lt;&gt; "", (D699 * transformatie!$M$2 + E699 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="700" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D700" s="3" t="str">
+        <f>VLOOKUP(C700,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F700" s="3" t="str">
+        <f>IF(D700 &lt;&gt; "", (D700 * transformatie!$M$2 + E700 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="701" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D701" s="3" t="str">
+        <f>VLOOKUP(C701,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F701" s="3" t="str">
+        <f>IF(D701 &lt;&gt; "", (D701 * transformatie!$M$2 + E701 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="702" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D702" s="3" t="str">
+        <f>VLOOKUP(C702,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F702" s="3" t="str">
+        <f>IF(D702 &lt;&gt; "", (D702 * transformatie!$M$2 + E702 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="703" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D703" s="3" t="str">
+        <f>VLOOKUP(C703,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F703" s="3" t="str">
+        <f>IF(D703 &lt;&gt; "", (D703 * transformatie!$M$2 + E703 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="704" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D704" s="3" t="str">
+        <f>VLOOKUP(C704,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F704" s="3" t="str">
+        <f>IF(D704 &lt;&gt; "", (D704 * transformatie!$M$2 + E704 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="705" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D705" s="3" t="str">
+        <f>VLOOKUP(C705,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F705" s="3" t="str">
+        <f>IF(D705 &lt;&gt; "", (D705 * transformatie!$M$2 + E705 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="706" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D706" s="3" t="str">
+        <f>VLOOKUP(C706,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F706" s="3" t="str">
+        <f>IF(D706 &lt;&gt; "", (D706 * transformatie!$M$2 + E706 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="707" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D707" s="3" t="str">
+        <f>VLOOKUP(C707,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F707" s="3" t="str">
+        <f>IF(D707 &lt;&gt; "", (D707 * transformatie!$M$2 + E707 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="708" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D708" s="3" t="str">
+        <f>VLOOKUP(C708,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F708" s="3" t="str">
+        <f>IF(D708 &lt;&gt; "", (D708 * transformatie!$M$2 + E708 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="709" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D709" s="3" t="str">
+        <f>VLOOKUP(C709,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F709" s="3" t="str">
+        <f>IF(D709 &lt;&gt; "", (D709 * transformatie!$M$2 + E709 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="710" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D710" s="3" t="str">
+        <f>VLOOKUP(C710,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F710" s="3" t="str">
+        <f>IF(D710 &lt;&gt; "", (D710 * transformatie!$M$2 + E710 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="711" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D711" s="3" t="str">
+        <f>VLOOKUP(C711,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F711" s="3" t="str">
+        <f>IF(D711 &lt;&gt; "", (D711 * transformatie!$M$2 + E711 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="712" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D712" s="3" t="str">
+        <f>VLOOKUP(C712,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F712" s="3" t="str">
+        <f>IF(D712 &lt;&gt; "", (D712 * transformatie!$M$2 + E712 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="713" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D713" s="3" t="str">
+        <f>VLOOKUP(C713,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F713" s="3" t="str">
+        <f>IF(D713 &lt;&gt; "", (D713 * transformatie!$M$2 + E713 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="714" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D714" s="3" t="str">
+        <f>VLOOKUP(C714,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F714" s="3" t="str">
+        <f>IF(D714 &lt;&gt; "", (D714 * transformatie!$M$2 + E714 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="715" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D715" s="3" t="str">
+        <f>VLOOKUP(C715,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F715" s="3" t="str">
+        <f>IF(D715 &lt;&gt; "", (D715 * transformatie!$M$2 + E715 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="716" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D716" s="3" t="str">
+        <f>VLOOKUP(C716,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F716" s="3" t="str">
+        <f>IF(D716 &lt;&gt; "", (D716 * transformatie!$M$2 + E716 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="717" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D717" s="3" t="str">
+        <f>VLOOKUP(C717,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F717" s="3" t="str">
+        <f>IF(D717 &lt;&gt; "", (D717 * transformatie!$M$2 + E717 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="718" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D718" s="3" t="str">
+        <f>VLOOKUP(C718,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F718" s="3" t="str">
+        <f>IF(D718 &lt;&gt; "", (D718 * transformatie!$M$2 + E718 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="719" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D719" s="3" t="str">
+        <f>VLOOKUP(C719,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F719" s="3" t="str">
+        <f>IF(D719 &lt;&gt; "", (D719 * transformatie!$M$2 + E719 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="720" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D720" s="3" t="str">
+        <f>VLOOKUP(C720,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F720" s="3" t="str">
+        <f>IF(D720 &lt;&gt; "", (D720 * transformatie!$M$2 + E720 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="721" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D721" s="3" t="str">
+        <f>VLOOKUP(C721,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F721" s="3" t="str">
+        <f>IF(D721 &lt;&gt; "", (D721 * transformatie!$M$2 + E721 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="722" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D722" s="3" t="str">
+        <f>VLOOKUP(C722,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F722" s="3" t="str">
+        <f>IF(D722 &lt;&gt; "", (D722 * transformatie!$M$2 + E722 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="723" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D723" s="3" t="str">
+        <f>VLOOKUP(C723,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F723" s="3" t="str">
+        <f>IF(D723 &lt;&gt; "", (D723 * transformatie!$M$2 + E723 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="724" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D724" s="3" t="str">
+        <f>VLOOKUP(C724,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F724" s="3" t="str">
+        <f>IF(D724 &lt;&gt; "", (D724 * transformatie!$M$2 + E724 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="725" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D725" s="3" t="str">
+        <f>VLOOKUP(C725,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F725" s="3" t="str">
+        <f>IF(D725 &lt;&gt; "", (D725 * transformatie!$M$2 + E725 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="726" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D726" s="3" t="str">
+        <f>VLOOKUP(C726,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F726" s="3" t="str">
+        <f>IF(D726 &lt;&gt; "", (D726 * transformatie!$M$2 + E726 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="727" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D727" s="3" t="str">
+        <f>VLOOKUP(C727,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F727" s="3" t="str">
+        <f>IF(D727 &lt;&gt; "", (D727 * transformatie!$M$2 + E727 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="728" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D728" s="3" t="str">
+        <f>VLOOKUP(C728,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F728" s="3" t="str">
+        <f>IF(D728 &lt;&gt; "", (D728 * transformatie!$M$2 + E728 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="729" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D729" s="3" t="str">
+        <f>VLOOKUP(C729,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F729" s="3" t="str">
+        <f>IF(D729 &lt;&gt; "", (D729 * transformatie!$M$2 + E729 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="730" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D730" s="3" t="str">
+        <f>VLOOKUP(C730,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F730" s="3" t="str">
+        <f>IF(D730 &lt;&gt; "", (D730 * transformatie!$M$2 + E730 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="731" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D731" s="3" t="str">
+        <f>VLOOKUP(C731,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F731" s="3" t="str">
+        <f>IF(D731 &lt;&gt; "", (D731 * transformatie!$M$2 + E731 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="732" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D732" s="3" t="str">
+        <f>VLOOKUP(C732,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F732" s="3" t="str">
+        <f>IF(D732 &lt;&gt; "", (D732 * transformatie!$M$2 + E732 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="733" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D733" s="3" t="str">
+        <f>VLOOKUP(C733,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F733" s="3" t="str">
+        <f>IF(D733 &lt;&gt; "", (D733 * transformatie!$M$2 + E733 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="734" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D734" s="3" t="str">
+        <f>VLOOKUP(C734,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F734" s="3" t="str">
+        <f>IF(D734 &lt;&gt; "", (D734 * transformatie!$M$2 + E734 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="735" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D735" s="3" t="str">
+        <f>VLOOKUP(C735,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F735" s="3" t="str">
+        <f>IF(D735 &lt;&gt; "", (D735 * transformatie!$M$2 + E735 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="736" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D736" s="3" t="str">
+        <f>VLOOKUP(C736,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F736" s="3" t="str">
+        <f>IF(D736 &lt;&gt; "", (D736 * transformatie!$M$2 + E736 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="737" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D737" s="3" t="str">
+        <f>VLOOKUP(C737,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F737" s="3" t="str">
+        <f>IF(D737 &lt;&gt; "", (D737 * transformatie!$M$2 + E737 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="738" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D738" s="3" t="str">
+        <f>VLOOKUP(C738,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F738" s="3" t="str">
+        <f>IF(D738 &lt;&gt; "", (D738 * transformatie!$M$2 + E738 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="739" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D739" s="3" t="str">
+        <f>VLOOKUP(C739,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F739" s="3" t="str">
+        <f>IF(D739 &lt;&gt; "", (D739 * transformatie!$M$2 + E739 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="740" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D740" s="3" t="str">
+        <f>VLOOKUP(C740,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F740" s="3" t="str">
+        <f>IF(D740 &lt;&gt; "", (D740 * transformatie!$M$2 + E740 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="741" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D741" s="3" t="str">
+        <f>VLOOKUP(C741,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F741" s="3" t="str">
+        <f>IF(D741 &lt;&gt; "", (D741 * transformatie!$M$2 + E741 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="742" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D742" s="3" t="str">
+        <f>VLOOKUP(C742,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F742" s="3" t="str">
+        <f>IF(D742 &lt;&gt; "", (D742 * transformatie!$M$2 + E742 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="743" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D743" s="3" t="str">
+        <f>VLOOKUP(C743,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F743" s="3" t="str">
+        <f>IF(D743 &lt;&gt; "", (D743 * transformatie!$M$2 + E743 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="744" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D744" s="3" t="str">
+        <f>VLOOKUP(C744,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F744" s="3" t="str">
+        <f>IF(D744 &lt;&gt; "", (D744 * transformatie!$M$2 + E744 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="745" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D745" s="3" t="str">
+        <f>VLOOKUP(C745,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F745" s="3" t="str">
+        <f>IF(D745 &lt;&gt; "", (D745 * transformatie!$M$2 + E745 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="746" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D746" s="3" t="str">
+        <f>VLOOKUP(C746,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F746" s="3" t="str">
+        <f>IF(D746 &lt;&gt; "", (D746 * transformatie!$M$2 + E746 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="747" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D747" s="3" t="str">
+        <f>VLOOKUP(C747,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F747" s="3" t="str">
+        <f>IF(D747 &lt;&gt; "", (D747 * transformatie!$M$2 + E747 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="748" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D748" s="3" t="str">
+        <f>VLOOKUP(C748,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F748" s="3" t="str">
+        <f>IF(D748 &lt;&gt; "", (D748 * transformatie!$M$2 + E748 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="749" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D749" s="3" t="str">
+        <f>VLOOKUP(C749,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F749" s="3" t="str">
+        <f>IF(D749 &lt;&gt; "", (D749 * transformatie!$M$2 + E749 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="750" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D750" s="3" t="str">
+        <f>VLOOKUP(C750,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F750" s="3" t="str">
+        <f>IF(D750 &lt;&gt; "", (D750 * transformatie!$M$2 + E750 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="751" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D751" s="3" t="str">
+        <f>VLOOKUP(C751,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F751" s="3" t="str">
+        <f>IF(D751 &lt;&gt; "", (D751 * transformatie!$M$2 + E751 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="752" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D752" s="3" t="str">
+        <f>VLOOKUP(C752,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F752" s="3" t="str">
+        <f>IF(D752 &lt;&gt; "", (D752 * transformatie!$M$2 + E752 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="753" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D753" s="3" t="str">
+        <f>VLOOKUP(C753,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F753" s="3" t="str">
+        <f>IF(D753 &lt;&gt; "", (D753 * transformatie!$M$2 + E753 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="754" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D754" s="3" t="str">
+        <f>VLOOKUP(C754,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F754" s="3" t="str">
+        <f>IF(D754 &lt;&gt; "", (D754 * transformatie!$M$2 + E754 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="755" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D755" s="3" t="str">
+        <f>VLOOKUP(C755,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F755" s="3" t="str">
+        <f>IF(D755 &lt;&gt; "", (D755 * transformatie!$M$2 + E755 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="756" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D756" s="3" t="str">
+        <f>VLOOKUP(C756,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F756" s="3" t="str">
+        <f>IF(D756 &lt;&gt; "", (D756 * transformatie!$M$2 + E756 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="757" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D757" s="3" t="str">
+        <f>VLOOKUP(C757,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F757" s="3" t="str">
+        <f>IF(D757 &lt;&gt; "", (D757 * transformatie!$M$2 + E757 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="758" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D758" s="3" t="str">
+        <f>VLOOKUP(C758,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F758" s="3" t="str">
+        <f>IF(D758 &lt;&gt; "", (D758 * transformatie!$M$2 + E758 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="759" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D759" s="3" t="str">
+        <f>VLOOKUP(C759,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F759" s="3" t="str">
+        <f>IF(D759 &lt;&gt; "", (D759 * transformatie!$M$2 + E759 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="760" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D760" s="3" t="str">
+        <f>VLOOKUP(C760,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F760" s="3" t="str">
+        <f>IF(D760 &lt;&gt; "", (D760 * transformatie!$M$2 + E760 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="761" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D761" s="3" t="str">
+        <f>VLOOKUP(C761,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F761" s="3" t="str">
+        <f>IF(D761 &lt;&gt; "", (D761 * transformatie!$M$2 + E761 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="762" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D762" s="3" t="str">
+        <f>VLOOKUP(C762,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F762" s="3" t="str">
+        <f>IF(D762 &lt;&gt; "", (D762 * transformatie!$M$2 + E762 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="763" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D763" s="3" t="str">
+        <f>VLOOKUP(C763,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F763" s="3" t="str">
+        <f>IF(D763 &lt;&gt; "", (D763 * transformatie!$M$2 + E763 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="764" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D764" s="3" t="str">
+        <f>VLOOKUP(C764,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F764" s="3" t="str">
+        <f>IF(D764 &lt;&gt; "", (D764 * transformatie!$M$2 + E764 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="765" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D765" s="3" t="str">
+        <f>VLOOKUP(C765,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F765" s="3" t="str">
+        <f>IF(D765 &lt;&gt; "", (D765 * transformatie!$M$2 + E765 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="766" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D766" s="3" t="str">
+        <f>VLOOKUP(C766,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F766" s="3" t="str">
+        <f>IF(D766 &lt;&gt; "", (D766 * transformatie!$M$2 + E766 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="767" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D767" s="3" t="str">
+        <f>VLOOKUP(C767,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F767" s="3" t="str">
+        <f>IF(D767 &lt;&gt; "", (D767 * transformatie!$M$2 + E767 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="768" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D768" s="3" t="str">
+        <f>VLOOKUP(C768,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F768" s="3" t="str">
+        <f>IF(D768 &lt;&gt; "", (D768 * transformatie!$M$2 + E768 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="769" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D769" s="3" t="str">
+        <f>VLOOKUP(C769,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F769" s="3" t="str">
+        <f>IF(D769 &lt;&gt; "", (D769 * transformatie!$M$2 + E769 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="770" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D770" s="3" t="str">
+        <f>VLOOKUP(C770,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F770" s="3" t="str">
+        <f>IF(D770 &lt;&gt; "", (D770 * transformatie!$M$2 + E770 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="771" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D771" s="3" t="str">
+        <f>VLOOKUP(C771,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F771" s="3" t="str">
+        <f>IF(D771 &lt;&gt; "", (D771 * transformatie!$M$2 + E771 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="772" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D772" s="3" t="str">
+        <f>VLOOKUP(C772,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F772" s="3" t="str">
+        <f>IF(D772 &lt;&gt; "", (D772 * transformatie!$M$2 + E772 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="773" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D773" s="3" t="str">
+        <f>VLOOKUP(C773,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F773" s="3" t="str">
+        <f>IF(D773 &lt;&gt; "", (D773 * transformatie!$M$2 + E773 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="774" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D774" s="3" t="str">
+        <f>VLOOKUP(C774,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F774" s="3" t="str">
+        <f>IF(D774 &lt;&gt; "", (D774 * transformatie!$M$2 + E774 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="775" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D775" s="3" t="str">
+        <f>VLOOKUP(C775,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F775" s="3" t="str">
+        <f>IF(D775 &lt;&gt; "", (D775 * transformatie!$M$2 + E775 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="776" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D776" s="3" t="str">
+        <f>VLOOKUP(C776,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F776" s="3" t="str">
+        <f>IF(D776 &lt;&gt; "", (D776 * transformatie!$M$2 + E776 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="777" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D777" s="3" t="str">
+        <f>VLOOKUP(C777,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F777" s="3" t="str">
+        <f>IF(D777 &lt;&gt; "", (D777 * transformatie!$M$2 + E777 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="778" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D778" s="3" t="str">
+        <f>VLOOKUP(C778,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F778" s="3" t="str">
+        <f>IF(D778 &lt;&gt; "", (D778 * transformatie!$M$2 + E778 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="779" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D779" s="3" t="str">
+        <f>VLOOKUP(C779,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F779" s="3" t="str">
+        <f>IF(D779 &lt;&gt; "", (D779 * transformatie!$M$2 + E779 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="780" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D780" s="3" t="str">
+        <f>VLOOKUP(C780,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F780" s="3" t="str">
+        <f>IF(D780 &lt;&gt; "", (D780 * transformatie!$M$2 + E780 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="781" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D781" s="3" t="str">
+        <f>VLOOKUP(C781,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F781" s="3" t="str">
+        <f>IF(D781 &lt;&gt; "", (D781 * transformatie!$M$2 + E781 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="782" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D782" s="3" t="str">
+        <f>VLOOKUP(C782,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F782" s="3" t="str">
+        <f>IF(D782 &lt;&gt; "", (D782 * transformatie!$M$2 + E782 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="783" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D783" s="3" t="str">
+        <f>VLOOKUP(C783,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F783" s="3" t="str">
+        <f>IF(D783 &lt;&gt; "", (D783 * transformatie!$M$2 + E783 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="784" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D784" s="3" t="str">
+        <f>VLOOKUP(C784,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F784" s="3" t="str">
+        <f>IF(D784 &lt;&gt; "", (D784 * transformatie!$M$2 + E784 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="785" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D785" s="3" t="str">
+        <f>VLOOKUP(C785,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F785" s="3" t="str">
+        <f>IF(D785 &lt;&gt; "", (D785 * transformatie!$M$2 + E785 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="786" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D786" s="3" t="str">
+        <f>VLOOKUP(C786,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F786" s="3" t="str">
+        <f>IF(D786 &lt;&gt; "", (D786 * transformatie!$M$2 + E786 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="787" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D787" s="3" t="str">
+        <f>VLOOKUP(C787,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F787" s="3" t="str">
+        <f>IF(D787 &lt;&gt; "", (D787 * transformatie!$M$2 + E787 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="788" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D788" s="3" t="str">
+        <f>VLOOKUP(C788,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F788" s="3" t="str">
+        <f>IF(D788 &lt;&gt; "", (D788 * transformatie!$M$2 + E788 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="789" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D789" s="3" t="str">
+        <f>VLOOKUP(C789,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F789" s="3" t="str">
+        <f>IF(D789 &lt;&gt; "", (D789 * transformatie!$M$2 + E789 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="790" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D790" s="3" t="str">
+        <f>VLOOKUP(C790,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F790" s="3" t="str">
+        <f>IF(D790 &lt;&gt; "", (D790 * transformatie!$M$2 + E790 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="791" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D791" s="3" t="str">
+        <f>VLOOKUP(C791,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F791" s="3" t="str">
+        <f>IF(D791 &lt;&gt; "", (D791 * transformatie!$M$2 + E791 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="792" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D792" s="3" t="str">
+        <f>VLOOKUP(C792,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F792" s="3" t="str">
+        <f>IF(D792 &lt;&gt; "", (D792 * transformatie!$M$2 + E792 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="793" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D793" s="3" t="str">
+        <f>VLOOKUP(C793,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F793" s="3" t="str">
+        <f>IF(D793 &lt;&gt; "", (D793 * transformatie!$M$2 + E793 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="794" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D794" s="3" t="str">
+        <f>VLOOKUP(C794,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F794" s="3" t="str">
+        <f>IF(D794 &lt;&gt; "", (D794 * transformatie!$M$2 + E794 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="795" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D795" s="3" t="str">
+        <f>VLOOKUP(C795,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F795" s="3" t="str">
+        <f>IF(D795 &lt;&gt; "", (D795 * transformatie!$M$2 + E795 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="796" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D796" s="3" t="str">
+        <f>VLOOKUP(C796,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F796" s="3" t="str">
+        <f>IF(D796 &lt;&gt; "", (D796 * transformatie!$M$2 + E796 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="797" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D797" s="3" t="str">
+        <f>VLOOKUP(C797,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F797" s="3" t="str">
+        <f>IF(D797 &lt;&gt; "", (D797 * transformatie!$M$2 + E797 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="798" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D798" s="3" t="str">
+        <f>VLOOKUP(C798,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F798" s="3" t="str">
+        <f>IF(D798 &lt;&gt; "", (D798 * transformatie!$M$2 + E798 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="799" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D799" s="3" t="str">
+        <f>VLOOKUP(C799,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F799" s="3" t="str">
+        <f>IF(D799 &lt;&gt; "", (D799 * transformatie!$M$2 + E799 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="800" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D800" s="3" t="str">
+        <f>VLOOKUP(C800,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F800" s="3" t="str">
+        <f>IF(D800 &lt;&gt; "", (D800 * transformatie!$M$2 + E800 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="801" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D801" s="3" t="str">
+        <f>VLOOKUP(C801,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F801" s="3" t="str">
+        <f>IF(D801 &lt;&gt; "", (D801 * transformatie!$M$2 + E801 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="802" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D802" s="3" t="str">
+        <f>VLOOKUP(C802,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F802" s="3" t="str">
+        <f>IF(D802 &lt;&gt; "", (D802 * transformatie!$M$2 + E802 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="803" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D803" s="3" t="str">
+        <f>VLOOKUP(C803,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F803" s="3" t="str">
+        <f>IF(D803 &lt;&gt; "", (D803 * transformatie!$M$2 + E803 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="804" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D804" s="3" t="str">
+        <f>VLOOKUP(C804,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F804" s="3" t="str">
+        <f>IF(D804 &lt;&gt; "", (D804 * transformatie!$M$2 + E804 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="805" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D805" s="3" t="str">
+        <f>VLOOKUP(C805,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F805" s="3" t="str">
+        <f>IF(D805 &lt;&gt; "", (D805 * transformatie!$M$2 + E805 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="806" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D806" s="3" t="str">
+        <f>VLOOKUP(C806,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F806" s="3" t="str">
+        <f>IF(D806 &lt;&gt; "", (D806 * transformatie!$M$2 + E806 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="807" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D807" s="3" t="str">
+        <f>VLOOKUP(C807,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F807" s="3" t="str">
+        <f>IF(D807 &lt;&gt; "", (D807 * transformatie!$M$2 + E807 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="808" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D808" s="3" t="str">
+        <f>VLOOKUP(C808,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F808" s="3" t="str">
+        <f>IF(D808 &lt;&gt; "", (D808 * transformatie!$M$2 + E808 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="809" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D809" s="3" t="str">
+        <f>VLOOKUP(C809,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F809" s="3" t="str">
+        <f>IF(D809 &lt;&gt; "", (D809 * transformatie!$M$2 + E809 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="810" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D810" s="3" t="str">
+        <f>VLOOKUP(C810,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F810" s="3" t="str">
+        <f>IF(D810 &lt;&gt; "", (D810 * transformatie!$M$2 + E810 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="811" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D811" s="3" t="str">
+        <f>VLOOKUP(C811,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F811" s="3" t="str">
+        <f>IF(D811 &lt;&gt; "", (D811 * transformatie!$M$2 + E811 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="812" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D812" s="3" t="str">
+        <f>VLOOKUP(C812,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F812" s="3" t="str">
+        <f>IF(D812 &lt;&gt; "", (D812 * transformatie!$M$2 + E812 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="813" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D813" s="3" t="str">
+        <f>VLOOKUP(C813,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F813" s="3" t="str">
+        <f>IF(D813 &lt;&gt; "", (D813 * transformatie!$M$2 + E813 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="814" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D814" s="3" t="str">
+        <f>VLOOKUP(C814,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F814" s="3" t="str">
+        <f>IF(D814 &lt;&gt; "", (D814 * transformatie!$M$2 + E814 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="815" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D815" s="3" t="str">
+        <f>VLOOKUP(C815,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F815" s="3" t="str">
+        <f>IF(D815 &lt;&gt; "", (D815 * transformatie!$M$2 + E815 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="816" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D816" s="3" t="str">
+        <f>VLOOKUP(C816,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F816" s="3" t="str">
+        <f>IF(D816 &lt;&gt; "", (D816 * transformatie!$M$2 + E816 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="817" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D817" s="3" t="str">
+        <f>VLOOKUP(C817,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F817" s="3" t="str">
+        <f>IF(D817 &lt;&gt; "", (D817 * transformatie!$M$2 + E817 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="818" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D818" s="3" t="str">
+        <f>VLOOKUP(C818,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F818" s="3" t="str">
+        <f>IF(D818 &lt;&gt; "", (D818 * transformatie!$M$2 + E818 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="819" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D819" s="3" t="str">
+        <f>VLOOKUP(C819,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F819" s="3" t="str">
+        <f>IF(D819 &lt;&gt; "", (D819 * transformatie!$M$2 + E819 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="820" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D820" s="3" t="str">
+        <f>VLOOKUP(C820,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F820" s="3" t="str">
+        <f>IF(D820 &lt;&gt; "", (D820 * transformatie!$M$2 + E820 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="821" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D821" s="3" t="str">
+        <f>VLOOKUP(C821,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F821" s="3" t="str">
+        <f>IF(D821 &lt;&gt; "", (D821 * transformatie!$M$2 + E821 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="822" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D822" s="3" t="str">
+        <f>VLOOKUP(C822,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F822" s="3" t="str">
+        <f>IF(D822 &lt;&gt; "", (D822 * transformatie!$M$2 + E822 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="823" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D823" s="3" t="str">
+        <f>VLOOKUP(C823,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F823" s="3" t="str">
+        <f>IF(D823 &lt;&gt; "", (D823 * transformatie!$M$2 + E823 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="824" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D824" s="3" t="str">
+        <f>VLOOKUP(C824,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F824" s="3" t="str">
+        <f>IF(D824 &lt;&gt; "", (D824 * transformatie!$M$2 + E824 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="825" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D825" s="3" t="str">
+        <f>VLOOKUP(C825,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F825" s="3" t="str">
+        <f>IF(D825 &lt;&gt; "", (D825 * transformatie!$M$2 + E825 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="826" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D826" s="3" t="str">
+        <f>VLOOKUP(C826,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F826" s="3" t="str">
+        <f>IF(D826 &lt;&gt; "", (D826 * transformatie!$M$2 + E826 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="827" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D827" s="3" t="str">
+        <f>VLOOKUP(C827,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F827" s="3" t="str">
+        <f>IF(D827 &lt;&gt; "", (D827 * transformatie!$M$2 + E827 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="828" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D828" s="3" t="str">
+        <f>VLOOKUP(C828,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F828" s="3" t="str">
+        <f>IF(D828 &lt;&gt; "", (D828 * transformatie!$M$2 + E828 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="829" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D829" s="3" t="str">
+        <f>VLOOKUP(C829,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F829" s="3" t="str">
+        <f>IF(D829 &lt;&gt; "", (D829 * transformatie!$M$2 + E829 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="830" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D830" s="3" t="str">
+        <f>VLOOKUP(C830,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F830" s="3" t="str">
+        <f>IF(D830 &lt;&gt; "", (D830 * transformatie!$M$2 + E830 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="831" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D831" s="3" t="str">
+        <f>VLOOKUP(C831,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F831" s="3" t="str">
+        <f>IF(D831 &lt;&gt; "", (D831 * transformatie!$M$2 + E831 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="832" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D832" s="3" t="str">
+        <f>VLOOKUP(C832,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F832" s="3" t="str">
+        <f>IF(D832 &lt;&gt; "", (D832 * transformatie!$M$2 + E832 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="833" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D833" s="3" t="str">
+        <f>VLOOKUP(C833,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F833" s="3" t="str">
+        <f>IF(D833 &lt;&gt; "", (D833 * transformatie!$M$2 + E833 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="834" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D834" s="3" t="str">
+        <f>VLOOKUP(C834,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F834" s="3" t="str">
+        <f>IF(D834 &lt;&gt; "", (D834 * transformatie!$M$2 + E834 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="835" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D835" s="3" t="str">
+        <f>VLOOKUP(C835,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F835" s="3" t="str">
+        <f>IF(D835 &lt;&gt; "", (D835 * transformatie!$M$2 + E835 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="836" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D836" s="3" t="str">
+        <f>VLOOKUP(C836,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F836" s="3" t="str">
+        <f>IF(D836 &lt;&gt; "", (D836 * transformatie!$M$2 + E836 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="837" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D837" s="3" t="str">
+        <f>VLOOKUP(C837,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F837" s="3" t="str">
+        <f>IF(D837 &lt;&gt; "", (D837 * transformatie!$M$2 + E837 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="838" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D838" s="3" t="str">
+        <f>VLOOKUP(C838,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F838" s="3" t="str">
+        <f>IF(D838 &lt;&gt; "", (D838 * transformatie!$M$2 + E838 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="839" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D839" s="3" t="str">
+        <f>VLOOKUP(C839,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F839" s="3" t="str">
+        <f>IF(D839 &lt;&gt; "", (D839 * transformatie!$M$2 + E839 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="840" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D840" s="3" t="str">
+        <f>VLOOKUP(C840,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F840" s="3" t="str">
+        <f>IF(D840 &lt;&gt; "", (D840 * transformatie!$M$2 + E840 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="841" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D841" s="3" t="str">
+        <f>VLOOKUP(C841,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F841" s="3" t="str">
+        <f>IF(D841 &lt;&gt; "", (D841 * transformatie!$M$2 + E841 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="842" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D842" s="3" t="str">
+        <f>VLOOKUP(C842,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F842" s="3" t="str">
+        <f>IF(D842 &lt;&gt; "", (D842 * transformatie!$M$2 + E842 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="843" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D843" s="3" t="str">
+        <f>VLOOKUP(C843,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F843" s="3" t="str">
+        <f>IF(D843 &lt;&gt; "", (D843 * transformatie!$M$2 + E843 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="844" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D844" s="3" t="str">
+        <f>VLOOKUP(C844,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F844" s="3" t="str">
+        <f>IF(D844 &lt;&gt; "", (D844 * transformatie!$M$2 + E844 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="845" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D845" s="3" t="str">
+        <f>VLOOKUP(C845,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F845" s="3" t="str">
+        <f>IF(D845 &lt;&gt; "", (D845 * transformatie!$M$2 + E845 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="846" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D846" s="3" t="str">
+        <f>VLOOKUP(C846,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F846" s="3" t="str">
+        <f>IF(D846 &lt;&gt; "", (D846 * transformatie!$M$2 + E846 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="847" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D847" s="3" t="str">
+        <f>VLOOKUP(C847,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F847" s="3" t="str">
+        <f>IF(D847 &lt;&gt; "", (D847 * transformatie!$M$2 + E847 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="848" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D848" s="3" t="str">
+        <f>VLOOKUP(C848,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F848" s="3" t="str">
+        <f>IF(D848 &lt;&gt; "", (D848 * transformatie!$M$2 + E848 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="849" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D849" s="3" t="str">
+        <f>VLOOKUP(C849,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F849" s="3" t="str">
+        <f>IF(D849 &lt;&gt; "", (D849 * transformatie!$M$2 + E849 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="850" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D850" s="3" t="str">
+        <f>VLOOKUP(C850,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F850" s="3" t="str">
+        <f>IF(D850 &lt;&gt; "", (D850 * transformatie!$M$2 + E850 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="851" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D851" s="3" t="str">
+        <f>VLOOKUP(C851,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F851" s="3" t="str">
+        <f>IF(D851 &lt;&gt; "", (D851 * transformatie!$M$2 + E851 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="852" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D852" s="3" t="str">
+        <f>VLOOKUP(C852,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F852" s="3" t="str">
+        <f>IF(D852 &lt;&gt; "", (D852 * transformatie!$M$2 + E852 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="853" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D853" s="3" t="str">
+        <f>VLOOKUP(C853,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F853" s="3" t="str">
+        <f>IF(D853 &lt;&gt; "", (D853 * transformatie!$M$2 + E853 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="854" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D854" s="3" t="str">
+        <f>VLOOKUP(C854,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F854" s="3" t="str">
+        <f>IF(D854 &lt;&gt; "", (D854 * transformatie!$M$2 + E854 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="855" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D855" s="3" t="str">
+        <f>VLOOKUP(C855,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F855" s="3" t="str">
+        <f>IF(D855 &lt;&gt; "", (D855 * transformatie!$M$2 + E855 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="856" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D856" s="3" t="str">
+        <f>VLOOKUP(C856,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F856" s="3" t="str">
+        <f>IF(D856 &lt;&gt; "", (D856 * transformatie!$M$2 + E856 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="857" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D857" s="3" t="str">
+        <f>VLOOKUP(C857,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F857" s="3" t="str">
+        <f>IF(D857 &lt;&gt; "", (D857 * transformatie!$M$2 + E857 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="858" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D858" s="3" t="str">
+        <f>VLOOKUP(C858,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F858" s="3" t="str">
+        <f>IF(D858 &lt;&gt; "", (D858 * transformatie!$M$2 + E858 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="859" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D859" s="3" t="str">
+        <f>VLOOKUP(C859,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F859" s="3" t="str">
+        <f>IF(D859 &lt;&gt; "", (D859 * transformatie!$M$2 + E859 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="860" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D860" s="3" t="str">
+        <f>VLOOKUP(C860,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F860" s="3" t="str">
+        <f>IF(D860 &lt;&gt; "", (D860 * transformatie!$M$2 + E860 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="861" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D861" s="3" t="str">
+        <f>VLOOKUP(C861,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F861" s="3" t="str">
+        <f>IF(D861 &lt;&gt; "", (D861 * transformatie!$M$2 + E861 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="862" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D862" s="3" t="str">
+        <f>VLOOKUP(C862,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F862" s="3" t="str">
+        <f>IF(D862 &lt;&gt; "", (D862 * transformatie!$M$2 + E862 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="863" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D863" s="3" t="str">
+        <f>VLOOKUP(C863,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F863" s="3" t="str">
+        <f>IF(D863 &lt;&gt; "", (D863 * transformatie!$M$2 + E863 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="864" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D864" s="3" t="str">
+        <f>VLOOKUP(C864,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F864" s="3" t="str">
+        <f>IF(D864 &lt;&gt; "", (D864 * transformatie!$M$2 + E864 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="865" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D865" s="3" t="str">
+        <f>VLOOKUP(C865,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F865" s="3" t="str">
+        <f>IF(D865 &lt;&gt; "", (D865 * transformatie!$M$2 + E865 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="866" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D866" s="3" t="str">
+        <f>VLOOKUP(C866,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F866" s="3" t="str">
+        <f>IF(D866 &lt;&gt; "", (D866 * transformatie!$M$2 + E866 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="867" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D867" s="3" t="str">
+        <f>VLOOKUP(C867,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F867" s="3" t="str">
+        <f>IF(D867 &lt;&gt; "", (D867 * transformatie!$M$2 + E867 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="868" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D868" s="3" t="str">
+        <f>VLOOKUP(C868,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F868" s="3" t="str">
+        <f>IF(D868 &lt;&gt; "", (D868 * transformatie!$M$2 + E868 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="869" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D869" s="3" t="str">
+        <f>VLOOKUP(C869,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F869" s="3" t="str">
+        <f>IF(D869 &lt;&gt; "", (D869 * transformatie!$M$2 + E869 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="870" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D870" s="3" t="str">
+        <f>VLOOKUP(C870,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F870" s="3" t="str">
+        <f>IF(D870 &lt;&gt; "", (D870 * transformatie!$M$2 + E870 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="871" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D871" s="3" t="str">
+        <f>VLOOKUP(C871,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F871" s="3" t="str">
+        <f>IF(D871 &lt;&gt; "", (D871 * transformatie!$M$2 + E871 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="872" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D872" s="3" t="str">
+        <f>VLOOKUP(C872,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F872" s="3" t="str">
+        <f>IF(D872 &lt;&gt; "", (D872 * transformatie!$M$2 + E872 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="873" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D873" s="3" t="str">
+        <f>VLOOKUP(C873,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F873" s="3" t="str">
+        <f>IF(D873 &lt;&gt; "", (D873 * transformatie!$M$2 + E873 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="874" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D874" s="3" t="str">
+        <f>VLOOKUP(C874,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F874" s="3" t="str">
+        <f>IF(D874 &lt;&gt; "", (D874 * transformatie!$M$2 + E874 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="875" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D875" s="3" t="str">
+        <f>VLOOKUP(C875,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F875" s="3" t="str">
+        <f>IF(D875 &lt;&gt; "", (D875 * transformatie!$M$2 + E875 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="876" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D876" s="3" t="str">
+        <f>VLOOKUP(C876,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F876" s="3" t="str">
+        <f>IF(D876 &lt;&gt; "", (D876 * transformatie!$M$2 + E876 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="877" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D877" s="3" t="str">
+        <f>VLOOKUP(C877,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F877" s="3" t="str">
+        <f>IF(D877 &lt;&gt; "", (D877 * transformatie!$M$2 + E877 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="878" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D878" s="3" t="str">
+        <f>VLOOKUP(C878,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F878" s="3" t="str">
+        <f>IF(D878 &lt;&gt; "", (D878 * transformatie!$M$2 + E878 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="879" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D879" s="3" t="str">
+        <f>VLOOKUP(C879,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F879" s="3" t="str">
+        <f>IF(D879 &lt;&gt; "", (D879 * transformatie!$M$2 + E879 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="880" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D880" s="3" t="str">
+        <f>VLOOKUP(C880,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F880" s="3" t="str">
+        <f>IF(D880 &lt;&gt; "", (D880 * transformatie!$M$2 + E880 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="881" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D881" s="3" t="str">
+        <f>VLOOKUP(C881,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F881" s="3" t="str">
+        <f>IF(D881 &lt;&gt; "", (D881 * transformatie!$M$2 + E881 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="882" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D882" s="3" t="str">
+        <f>VLOOKUP(C882,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F882" s="3" t="str">
+        <f>IF(D882 &lt;&gt; "", (D882 * transformatie!$M$2 + E882 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="883" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D883" s="3" t="str">
+        <f>VLOOKUP(C883,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F883" s="3" t="str">
+        <f>IF(D883 &lt;&gt; "", (D883 * transformatie!$M$2 + E883 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="884" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D884" s="3" t="str">
+        <f>VLOOKUP(C884,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F884" s="3" t="str">
+        <f>IF(D884 &lt;&gt; "", (D884 * transformatie!$M$2 + E884 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="885" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D885" s="3" t="str">
+        <f>VLOOKUP(C885,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F885" s="3" t="str">
+        <f>IF(D885 &lt;&gt; "", (D885 * transformatie!$M$2 + E885 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="886" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D886" s="3" t="str">
+        <f>VLOOKUP(C886,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F886" s="3" t="str">
+        <f>IF(D886 &lt;&gt; "", (D886 * transformatie!$M$2 + E886 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="887" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D887" s="3" t="str">
+        <f>VLOOKUP(C887,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F887" s="3" t="str">
+        <f>IF(D887 &lt;&gt; "", (D887 * transformatie!$M$2 + E887 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="888" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D888" s="3" t="str">
+        <f>VLOOKUP(C888,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F888" s="3" t="str">
+        <f>IF(D888 &lt;&gt; "", (D888 * transformatie!$M$2 + E888 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="889" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D889" s="3" t="str">
+        <f>VLOOKUP(C889,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F889" s="3" t="str">
+        <f>IF(D889 &lt;&gt; "", (D889 * transformatie!$M$2 + E889 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="890" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D890" s="3" t="str">
+        <f>VLOOKUP(C890,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F890" s="3" t="str">
+        <f>IF(D890 &lt;&gt; "", (D890 * transformatie!$M$2 + E890 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="891" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D891" s="3" t="str">
+        <f>VLOOKUP(C891,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F891" s="3" t="str">
+        <f>IF(D891 &lt;&gt; "", (D891 * transformatie!$M$2 + E891 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="892" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D892" s="3" t="str">
+        <f>VLOOKUP(C892,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F892" s="3" t="str">
+        <f>IF(D892 &lt;&gt; "", (D892 * transformatie!$M$2 + E892 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="893" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D893" s="3" t="str">
+        <f>VLOOKUP(C893,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F893" s="3" t="str">
+        <f>IF(D893 &lt;&gt; "", (D893 * transformatie!$M$2 + E893 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="894" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D894" s="3" t="str">
+        <f>VLOOKUP(C894,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F894" s="3" t="str">
+        <f>IF(D894 &lt;&gt; "", (D894 * transformatie!$M$2 + E894 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="895" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D895" s="3" t="str">
+        <f>VLOOKUP(C895,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F895" s="3" t="str">
+        <f>IF(D895 &lt;&gt; "", (D895 * transformatie!$M$2 + E895 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="896" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D896" s="3" t="str">
+        <f>VLOOKUP(C896,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F896" s="3" t="str">
+        <f>IF(D896 &lt;&gt; "", (D896 * transformatie!$M$2 + E896 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="897" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D897" s="3" t="str">
+        <f>VLOOKUP(C897,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F897" s="3" t="str">
+        <f>IF(D897 &lt;&gt; "", (D897 * transformatie!$M$2 + E897 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="898" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D898" s="3" t="str">
+        <f>VLOOKUP(C898,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F898" s="3" t="str">
+        <f>IF(D898 &lt;&gt; "", (D898 * transformatie!$M$2 + E898 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="899" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D899" s="3" t="str">
+        <f>VLOOKUP(C899,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F899" s="3" t="str">
+        <f>IF(D899 &lt;&gt; "", (D899 * transformatie!$M$2 + E899 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="900" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D900" s="3" t="str">
+        <f>VLOOKUP(C900,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F900" s="3" t="str">
+        <f>IF(D900 &lt;&gt; "", (D900 * transformatie!$M$2 + E900 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="901" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D901" s="3" t="str">
+        <f>VLOOKUP(C901,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F901" s="3" t="str">
+        <f>IF(D901 &lt;&gt; "", (D901 * transformatie!$M$2 + E901 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="902" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D902" s="3" t="str">
+        <f>VLOOKUP(C902,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F902" s="3" t="str">
+        <f>IF(D902 &lt;&gt; "", (D902 * transformatie!$M$2 + E902 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="903" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D903" s="3" t="str">
+        <f>VLOOKUP(C903,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F903" s="3" t="str">
+        <f>IF(D903 &lt;&gt; "", (D903 * transformatie!$M$2 + E903 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="904" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D904" s="3" t="str">
+        <f>VLOOKUP(C904,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F904" s="3" t="str">
+        <f>IF(D904 &lt;&gt; "", (D904 * transformatie!$M$2 + E904 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="905" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D905" s="3" t="str">
+        <f>VLOOKUP(C905,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F905" s="3" t="str">
+        <f>IF(D905 &lt;&gt; "", (D905 * transformatie!$M$2 + E905 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="906" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D906" s="3" t="str">
+        <f>VLOOKUP(C906,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F906" s="3" t="str">
+        <f>IF(D906 &lt;&gt; "", (D906 * transformatie!$M$2 + E906 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="907" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D907" s="3" t="str">
+        <f>VLOOKUP(C907,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F907" s="3" t="str">
+        <f>IF(D907 &lt;&gt; "", (D907 * transformatie!$M$2 + E907 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="908" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D908" s="3" t="str">
+        <f>VLOOKUP(C908,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F908" s="3" t="str">
+        <f>IF(D908 &lt;&gt; "", (D908 * transformatie!$M$2 + E908 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="909" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D909" s="3" t="str">
+        <f>VLOOKUP(C909,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F909" s="3" t="str">
+        <f>IF(D909 &lt;&gt; "", (D909 * transformatie!$M$2 + E909 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="910" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D910" s="3" t="str">
+        <f>VLOOKUP(C910,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F910" s="3" t="str">
+        <f>IF(D910 &lt;&gt; "", (D910 * transformatie!$M$2 + E910 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="911" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D911" s="3" t="str">
+        <f>VLOOKUP(C911,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F911" s="3" t="str">
+        <f>IF(D911 &lt;&gt; "", (D911 * transformatie!$M$2 + E911 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="912" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D912" s="3" t="str">
+        <f>VLOOKUP(C912,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F912" s="3" t="str">
+        <f>IF(D912 &lt;&gt; "", (D912 * transformatie!$M$2 + E912 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="913" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D913" s="3" t="str">
+        <f>VLOOKUP(C913,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F913" s="3" t="str">
+        <f>IF(D913 &lt;&gt; "", (D913 * transformatie!$M$2 + E913 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="914" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D914" s="3" t="str">
+        <f>VLOOKUP(C914,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F914" s="3" t="str">
+        <f>IF(D914 &lt;&gt; "", (D914 * transformatie!$M$2 + E914 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="915" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D915" s="3" t="str">
+        <f>VLOOKUP(C915,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F915" s="3" t="str">
+        <f>IF(D915 &lt;&gt; "", (D915 * transformatie!$M$2 + E915 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="916" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D916" s="3" t="str">
+        <f>VLOOKUP(C916,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F916" s="3" t="str">
+        <f>IF(D916 &lt;&gt; "", (D916 * transformatie!$M$2 + E916 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="917" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D917" s="3" t="str">
+        <f>VLOOKUP(C917,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F917" s="3" t="str">
+        <f>IF(D917 &lt;&gt; "", (D917 * transformatie!$M$2 + E917 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="918" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D918" s="3" t="str">
+        <f>VLOOKUP(C918,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F918" s="3" t="str">
+        <f>IF(D918 &lt;&gt; "", (D918 * transformatie!$M$2 + E918 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="919" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D919" s="3" t="str">
+        <f>VLOOKUP(C919,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F919" s="3" t="str">
+        <f>IF(D919 &lt;&gt; "", (D919 * transformatie!$M$2 + E919 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="920" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D920" s="3" t="str">
+        <f>VLOOKUP(C920,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F920" s="3" t="str">
+        <f>IF(D920 &lt;&gt; "", (D920 * transformatie!$M$2 + E920 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="921" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D921" s="3" t="str">
+        <f>VLOOKUP(C921,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F921" s="3" t="str">
+        <f>IF(D921 &lt;&gt; "", (D921 * transformatie!$M$2 + E921 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="922" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D922" s="3" t="str">
+        <f>VLOOKUP(C922,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F922" s="3" t="str">
+        <f>IF(D922 &lt;&gt; "", (D922 * transformatie!$M$2 + E922 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="923" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D923" s="3" t="str">
+        <f>VLOOKUP(C923,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F923" s="3" t="str">
+        <f>IF(D923 &lt;&gt; "", (D923 * transformatie!$M$2 + E923 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="924" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D924" s="3" t="str">
+        <f>VLOOKUP(C924,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F924" s="3" t="str">
+        <f>IF(D924 &lt;&gt; "", (D924 * transformatie!$M$2 + E924 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="925" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D925" s="3" t="str">
+        <f>VLOOKUP(C925,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F925" s="3" t="str">
+        <f>IF(D925 &lt;&gt; "", (D925 * transformatie!$M$2 + E925 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="926" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D926" s="3" t="str">
+        <f>VLOOKUP(C926,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F926" s="3" t="str">
+        <f>IF(D926 &lt;&gt; "", (D926 * transformatie!$M$2 + E926 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="927" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D927" s="3" t="str">
+        <f>VLOOKUP(C927,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F927" s="3" t="str">
+        <f>IF(D927 &lt;&gt; "", (D927 * transformatie!$M$2 + E927 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="928" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D928" s="3" t="str">
+        <f>VLOOKUP(C928,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F928" s="3" t="str">
+        <f>IF(D928 &lt;&gt; "", (D928 * transformatie!$M$2 + E928 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="929" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D929" s="3" t="str">
+        <f>VLOOKUP(C929,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F929" s="3" t="str">
+        <f>IF(D929 &lt;&gt; "", (D929 * transformatie!$M$2 + E929 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="930" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D930" s="3" t="str">
+        <f>VLOOKUP(C930,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F930" s="3" t="str">
+        <f>IF(D930 &lt;&gt; "", (D930 * transformatie!$M$2 + E930 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="931" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D931" s="3" t="str">
+        <f>VLOOKUP(C931,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F931" s="3" t="str">
+        <f>IF(D931 &lt;&gt; "", (D931 * transformatie!$M$2 + E931 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="932" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D932" s="3" t="str">
+        <f>VLOOKUP(C932,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F932" s="3" t="str">
+        <f>IF(D932 &lt;&gt; "", (D932 * transformatie!$M$2 + E932 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="933" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D933" s="3" t="str">
+        <f>VLOOKUP(C933,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F933" s="3" t="str">
+        <f>IF(D933 &lt;&gt; "", (D933 * transformatie!$M$2 + E933 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="934" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D934" s="3" t="str">
+        <f>VLOOKUP(C934,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F934" s="3" t="str">
+        <f>IF(D934 &lt;&gt; "", (D934 * transformatie!$M$2 + E934 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="935" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D935" s="3" t="str">
+        <f>VLOOKUP(C935,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F935" s="3" t="str">
+        <f>IF(D935 &lt;&gt; "", (D935 * transformatie!$M$2 + E935 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="936" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D936" s="3" t="str">
+        <f>VLOOKUP(C936,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F936" s="3" t="str">
+        <f>IF(D936 &lt;&gt; "", (D936 * transformatie!$M$2 + E936 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="937" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D937" s="3" t="str">
+        <f>VLOOKUP(C937,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F937" s="3" t="str">
+        <f>IF(D937 &lt;&gt; "", (D937 * transformatie!$M$2 + E937 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="938" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D938" s="3" t="str">
+        <f>VLOOKUP(C938,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F938" s="3" t="str">
+        <f>IF(D938 &lt;&gt; "", (D938 * transformatie!$M$2 + E938 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="939" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D939" s="3" t="str">
+        <f>VLOOKUP(C939,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F939" s="3" t="str">
+        <f>IF(D939 &lt;&gt; "", (D939 * transformatie!$M$2 + E939 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="940" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D940" s="3" t="str">
+        <f>VLOOKUP(C940,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F940" s="3" t="str">
+        <f>IF(D940 &lt;&gt; "", (D940 * transformatie!$M$2 + E940 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="941" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D941" s="3" t="str">
+        <f>VLOOKUP(C941,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F941" s="3" t="str">
+        <f>IF(D941 &lt;&gt; "", (D941 * transformatie!$M$2 + E941 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="942" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D942" s="3" t="str">
+        <f>VLOOKUP(C942,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F942" s="3" t="str">
+        <f>IF(D942 &lt;&gt; "", (D942 * transformatie!$M$2 + E942 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="943" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D943" s="3" t="str">
+        <f>VLOOKUP(C943,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F943" s="3" t="str">
+        <f>IF(D943 &lt;&gt; "", (D943 * transformatie!$M$2 + E943 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="944" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D944" s="3" t="str">
+        <f>VLOOKUP(C944,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F944" s="3" t="str">
+        <f>IF(D944 &lt;&gt; "", (D944 * transformatie!$M$2 + E944 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="945" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D945" s="3" t="str">
+        <f>VLOOKUP(C945,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F945" s="3" t="str">
+        <f>IF(D945 &lt;&gt; "", (D945 * transformatie!$M$2 + E945 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="946" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D946" s="3" t="str">
+        <f>VLOOKUP(C946,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F946" s="3" t="str">
+        <f>IF(D946 &lt;&gt; "", (D946 * transformatie!$M$2 + E946 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="947" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D947" s="3" t="str">
+        <f>VLOOKUP(C947,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F947" s="3" t="str">
+        <f>IF(D947 &lt;&gt; "", (D947 * transformatie!$M$2 + E947 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="948" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D948" s="3" t="str">
+        <f>VLOOKUP(C948,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F948" s="3" t="str">
+        <f>IF(D948 &lt;&gt; "", (D948 * transformatie!$M$2 + E948 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="949" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D949" s="3" t="str">
+        <f>VLOOKUP(C949,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F949" s="3" t="str">
+        <f>IF(D949 &lt;&gt; "", (D949 * transformatie!$M$2 + E949 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="950" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D950" s="3" t="str">
+        <f>VLOOKUP(C950,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F950" s="3" t="str">
+        <f>IF(D950 &lt;&gt; "", (D950 * transformatie!$M$2 + E950 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="951" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D951" s="3" t="str">
+        <f>VLOOKUP(C951,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F951" s="3" t="str">
+        <f>IF(D951 &lt;&gt; "", (D951 * transformatie!$M$2 + E951 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="952" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D952" s="3" t="str">
+        <f>VLOOKUP(C952,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F952" s="3" t="str">
+        <f>IF(D952 &lt;&gt; "", (D952 * transformatie!$M$2 + E952 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="953" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D953" s="3" t="str">
+        <f>VLOOKUP(C953,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F953" s="3" t="str">
+        <f>IF(D953 &lt;&gt; "", (D953 * transformatie!$M$2 + E953 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="954" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D954" s="3" t="str">
+        <f>VLOOKUP(C954,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F954" s="3" t="str">
+        <f>IF(D954 &lt;&gt; "", (D954 * transformatie!$M$2 + E954 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="955" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D955" s="3" t="str">
+        <f>VLOOKUP(C955,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F955" s="3" t="str">
+        <f>IF(D955 &lt;&gt; "", (D955 * transformatie!$M$2 + E955 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="956" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D956" s="3" t="str">
+        <f>VLOOKUP(C956,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F956" s="3" t="str">
+        <f>IF(D956 &lt;&gt; "", (D956 * transformatie!$M$2 + E956 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="957" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D957" s="3" t="str">
+        <f>VLOOKUP(C957,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F957" s="3" t="str">
+        <f>IF(D957 &lt;&gt; "", (D957 * transformatie!$M$2 + E957 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="958" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D958" s="3" t="str">
+        <f>VLOOKUP(C958,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F958" s="3" t="str">
+        <f>IF(D958 &lt;&gt; "", (D958 * transformatie!$M$2 + E958 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="959" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D959" s="3" t="str">
+        <f>VLOOKUP(C959,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F959" s="3" t="str">
+        <f>IF(D959 &lt;&gt; "", (D959 * transformatie!$M$2 + E959 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="960" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D960" s="3" t="str">
+        <f>VLOOKUP(C960,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F960" s="3" t="str">
+        <f>IF(D960 &lt;&gt; "", (D960 * transformatie!$M$2 + E960 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="961" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D961" s="3" t="str">
+        <f>VLOOKUP(C961,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F961" s="3" t="str">
+        <f>IF(D961 &lt;&gt; "", (D961 * transformatie!$M$2 + E961 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="962" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D962" s="3" t="str">
+        <f>VLOOKUP(C962,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F962" s="3" t="str">
+        <f>IF(D962 &lt;&gt; "", (D962 * transformatie!$M$2 + E962 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="963" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D963" s="3" t="str">
+        <f>VLOOKUP(C963,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F963" s="3" t="str">
+        <f>IF(D963 &lt;&gt; "", (D963 * transformatie!$M$2 + E963 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="964" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D964" s="3" t="str">
+        <f>VLOOKUP(C964,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F964" s="3" t="str">
+        <f>IF(D964 &lt;&gt; "", (D964 * transformatie!$M$2 + E964 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="965" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D965" s="3" t="str">
+        <f>VLOOKUP(C965,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F965" s="3" t="str">
+        <f>IF(D965 &lt;&gt; "", (D965 * transformatie!$M$2 + E965 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="966" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D966" s="3" t="str">
+        <f>VLOOKUP(C966,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F966" s="3" t="str">
+        <f>IF(D966 &lt;&gt; "", (D966 * transformatie!$M$2 + E966 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="967" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D967" s="3" t="str">
+        <f>VLOOKUP(C967,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F967" s="3" t="str">
+        <f>IF(D967 &lt;&gt; "", (D967 * transformatie!$M$2 + E967 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="968" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D968" s="3" t="str">
+        <f>VLOOKUP(C968,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F968" s="3" t="str">
+        <f>IF(D968 &lt;&gt; "", (D968 * transformatie!$M$2 + E968 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="969" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D969" s="3" t="str">
+        <f>VLOOKUP(C969,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F969" s="3" t="str">
+        <f>IF(D969 &lt;&gt; "", (D969 * transformatie!$M$2 + E969 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="970" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D970" s="3" t="str">
+        <f>VLOOKUP(C970,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F970" s="3" t="str">
+        <f>IF(D970 &lt;&gt; "", (D970 * transformatie!$M$2 + E970 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="971" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D971" s="3" t="str">
+        <f>VLOOKUP(C971,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F971" s="3" t="str">
+        <f>IF(D971 &lt;&gt; "", (D971 * transformatie!$M$2 + E971 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="972" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D972" s="3" t="str">
+        <f>VLOOKUP(C972,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F972" s="3" t="str">
+        <f>IF(D972 &lt;&gt; "", (D972 * transformatie!$M$2 + E972 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="973" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D973" s="3" t="str">
+        <f>VLOOKUP(C973,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F973" s="3" t="str">
+        <f>IF(D973 &lt;&gt; "", (D973 * transformatie!$M$2 + E973 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="974" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D974" s="3" t="str">
+        <f>VLOOKUP(C974,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F974" s="3" t="str">
+        <f>IF(D974 &lt;&gt; "", (D974 * transformatie!$M$2 + E974 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="975" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D975" s="3" t="str">
+        <f>VLOOKUP(C975,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F975" s="3" t="str">
+        <f>IF(D975 &lt;&gt; "", (D975 * transformatie!$M$2 + E975 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="976" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D976" s="3" t="str">
+        <f>VLOOKUP(C976,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F976" s="3" t="str">
+        <f>IF(D976 &lt;&gt; "", (D976 * transformatie!$M$2 + E976 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="977" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D977" s="3" t="str">
+        <f>VLOOKUP(C977,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F977" s="3" t="str">
+        <f>IF(D977 &lt;&gt; "", (D977 * transformatie!$M$2 + E977 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="978" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D978" s="3" t="str">
+        <f>VLOOKUP(C978,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F978" s="3" t="str">
+        <f>IF(D978 &lt;&gt; "", (D978 * transformatie!$M$2 + E978 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="979" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D979" s="3" t="str">
+        <f>VLOOKUP(C979,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F979" s="3" t="str">
+        <f>IF(D979 &lt;&gt; "", (D979 * transformatie!$M$2 + E979 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="980" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D980" s="3" t="str">
+        <f>VLOOKUP(C980,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F980" s="3" t="str">
+        <f>IF(D980 &lt;&gt; "", (D980 * transformatie!$M$2 + E980 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="981" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D981" s="3" t="str">
+        <f>VLOOKUP(C981,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F981" s="3" t="str">
+        <f>IF(D981 &lt;&gt; "", (D981 * transformatie!$M$2 + E981 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="982" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D982" s="3" t="str">
+        <f>VLOOKUP(C982,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F982" s="3" t="str">
+        <f>IF(D982 &lt;&gt; "", (D982 * transformatie!$M$2 + E982 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="983" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D983" s="3" t="str">
+        <f>VLOOKUP(C983,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F983" s="3" t="str">
+        <f>IF(D983 &lt;&gt; "", (D983 * transformatie!$M$2 + E983 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="984" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D984" s="3" t="str">
+        <f>VLOOKUP(C984,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F984" s="3" t="str">
+        <f>IF(D984 &lt;&gt; "", (D984 * transformatie!$M$2 + E984 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="985" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D985" s="3" t="str">
+        <f>VLOOKUP(C985,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F985" s="3" t="str">
+        <f>IF(D985 &lt;&gt; "", (D985 * transformatie!$M$2 + E985 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="986" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D986" s="3" t="str">
+        <f>VLOOKUP(C986,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F986" s="3" t="str">
+        <f>IF(D986 &lt;&gt; "", (D986 * transformatie!$M$2 + E986 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="987" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D987" s="3" t="str">
+        <f>VLOOKUP(C987,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F987" s="3" t="str">
+        <f>IF(D987 &lt;&gt; "", (D987 * transformatie!$M$2 + E987 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="988" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D988" s="3" t="str">
+        <f>VLOOKUP(C988,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F988" s="3" t="str">
+        <f>IF(D988 &lt;&gt; "", (D988 * transformatie!$M$2 + E988 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="989" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D989" s="3" t="str">
+        <f>VLOOKUP(C989,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F989" s="3" t="str">
+        <f>IF(D989 &lt;&gt; "", (D989 * transformatie!$M$2 + E989 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="990" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D990" s="3" t="str">
+        <f>VLOOKUP(C990,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F990" s="3" t="str">
+        <f>IF(D990 &lt;&gt; "", (D990 * transformatie!$M$2 + E990 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="991" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D991" s="3" t="str">
+        <f>VLOOKUP(C991,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F991" s="3" t="str">
+        <f>IF(D991 &lt;&gt; "", (D991 * transformatie!$M$2 + E991 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="992" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D992" s="3" t="str">
+        <f>VLOOKUP(C992,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F992" s="3" t="str">
+        <f>IF(D992 &lt;&gt; "", (D992 * transformatie!$M$2 + E992 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="993" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D993" s="3" t="str">
+        <f>VLOOKUP(C993,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F993" s="3" t="str">
+        <f>IF(D993 &lt;&gt; "", (D993 * transformatie!$M$2 + E993 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="994" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D994" s="3" t="str">
+        <f>VLOOKUP(C994,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F994" s="3" t="str">
+        <f>IF(D994 &lt;&gt; "", (D994 * transformatie!$M$2 + E994 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="995" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D995" s="3" t="str">
+        <f>VLOOKUP(C995,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F995" s="3" t="str">
+        <f>IF(D995 &lt;&gt; "", (D995 * transformatie!$M$2 + E995 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="996" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D996" s="3" t="str">
+        <f>VLOOKUP(C996,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F996" s="3" t="str">
+        <f>IF(D996 &lt;&gt; "", (D996 * transformatie!$M$2 + E996 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="997" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D997" s="3" t="str">
+        <f>VLOOKUP(C997,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F997" s="3" t="str">
+        <f>IF(D997 &lt;&gt; "", (D997 * transformatie!$M$2 + E997 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="998" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D998" s="3" t="str">
+        <f>VLOOKUP(C998,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F998" s="3" t="str">
+        <f>IF(D998 &lt;&gt; "", (D998 * transformatie!$M$2 + E998 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="999" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D999" s="3" t="str">
+        <f>VLOOKUP(C999,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F999" s="3" t="str">
+        <f>IF(D999 &lt;&gt; "", (D999 * transformatie!$M$2 + E999 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1000" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1000" s="3" t="str">
+        <f>VLOOKUP(C1000,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F1000" s="3" t="str">
+        <f>IF(D1000 &lt;&gt; "", (D1000 * transformatie!$M$2 + E1000 * (100 - transformatie!$M$2)) / 100, "")</f>
         <v/>
       </c>
     </row>

--- a/helpfiles/tentamenuitslag_R.xlsx
+++ b/helpfiles/tentamenuitslag_R.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\vu-toetsanalyse\helpfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="90" windowWidth="14220" windowHeight="8835"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="cijfers" sheetId="1" r:id="rId1"/>
     <sheet name="transformatie" sheetId="312" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -107,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-[$€]\ * #,##0.00_-;_-[$€]\ * #,##0.00\-;_-[$€]\ * &quot;-&quot;??_-;_-@_-"/>
@@ -225,7 +230,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -233,14 +238,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,9 +286,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,12 +533,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad2"/>
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A960" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K991" sqref="K991"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11102,6 +11110,76 @@
       </c>
       <c r="F1000" s="3" t="str">
         <f>IF(D1000 &lt;&gt; "", (D1000 * transformatie!$M$2 + E1000 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1001" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1001" s="3" t="str">
+        <f>VLOOKUP(C1001,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F1001" s="3" t="str">
+        <f>IF(D1001 &lt;&gt; "", (D1001 * transformatie!$M$2 + E1001 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1002" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1002" s="3" t="str">
+        <f>VLOOKUP(C1002,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F1002" s="3" t="str">
+        <f>IF(D1002 &lt;&gt; "", (D1002 * transformatie!$M$2 + E1002 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1003" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1003" s="3" t="str">
+        <f>VLOOKUP(C1003,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F1003" s="3" t="str">
+        <f>IF(D1003 &lt;&gt; "", (D1003 * transformatie!$M$2 + E1003 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1004" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1004" s="3" t="str">
+        <f>VLOOKUP(C1004,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F1004" s="3" t="str">
+        <f>IF(D1004 &lt;&gt; "", (D1004 * transformatie!$M$2 + E1004 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1005" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1005" s="3" t="str">
+        <f>VLOOKUP(C1005,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F1005" s="3" t="str">
+        <f>IF(D1005 &lt;&gt; "", (D1005 * transformatie!$M$2 + E1005 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1006" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1006" s="3" t="str">
+        <f>VLOOKUP(C1006,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F1006" s="3" t="str">
+        <f>IF(D1006 &lt;&gt; "", (D1006 * transformatie!$M$2 + E1006 * (100 - transformatie!$M$2)) / 100, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1007" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D1007" s="3" t="str">
+        <f>VLOOKUP(C1007,transformatie!$A$2:$E$102,5)</f>
+        <v/>
+      </c>
+      <c r="F1007" s="3" t="str">
+        <f>IF(D1007 &lt;&gt; "", (D1007 * transformatie!$M$2 + E1007 * (100 - transformatie!$M$2)) / 100, "")</f>
         <v/>
       </c>
     </row>

--- a/helpfiles/tentamenuitslag_R.xlsx
+++ b/helpfiles/tentamenuitslag_R.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\vu-toetsanalyse\helpfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DSZ\OKZ\OTIR\tentamens\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14220" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="cijfers" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad2"/>
-  <dimension ref="A1:G1007"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11110,76 +11110,6 @@
       </c>
       <c r="F1000" s="3" t="str">
         <f>IF(D1000 &lt;&gt; "", (D1000 * transformatie!$M$2 + E1000 * (100 - transformatie!$M$2)) / 100, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1001" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D1001" s="3" t="str">
-        <f>VLOOKUP(C1001,transformatie!$A$2:$E$102,5)</f>
-        <v/>
-      </c>
-      <c r="F1001" s="3" t="str">
-        <f>IF(D1001 &lt;&gt; "", (D1001 * transformatie!$M$2 + E1001 * (100 - transformatie!$M$2)) / 100, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1002" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D1002" s="3" t="str">
-        <f>VLOOKUP(C1002,transformatie!$A$2:$E$102,5)</f>
-        <v/>
-      </c>
-      <c r="F1002" s="3" t="str">
-        <f>IF(D1002 &lt;&gt; "", (D1002 * transformatie!$M$2 + E1002 * (100 - transformatie!$M$2)) / 100, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1003" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D1003" s="3" t="str">
-        <f>VLOOKUP(C1003,transformatie!$A$2:$E$102,5)</f>
-        <v/>
-      </c>
-      <c r="F1003" s="3" t="str">
-        <f>IF(D1003 &lt;&gt; "", (D1003 * transformatie!$M$2 + E1003 * (100 - transformatie!$M$2)) / 100, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1004" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D1004" s="3" t="str">
-        <f>VLOOKUP(C1004,transformatie!$A$2:$E$102,5)</f>
-        <v/>
-      </c>
-      <c r="F1004" s="3" t="str">
-        <f>IF(D1004 &lt;&gt; "", (D1004 * transformatie!$M$2 + E1004 * (100 - transformatie!$M$2)) / 100, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1005" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D1005" s="3" t="str">
-        <f>VLOOKUP(C1005,transformatie!$A$2:$E$102,5)</f>
-        <v/>
-      </c>
-      <c r="F1005" s="3" t="str">
-        <f>IF(D1005 &lt;&gt; "", (D1005 * transformatie!$M$2 + E1005 * (100 - transformatie!$M$2)) / 100, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1006" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D1006" s="3" t="str">
-        <f>VLOOKUP(C1006,transformatie!$A$2:$E$102,5)</f>
-        <v/>
-      </c>
-      <c r="F1006" s="3" t="str">
-        <f>IF(D1006 &lt;&gt; "", (D1006 * transformatie!$M$2 + E1006 * (100 - transformatie!$M$2)) / 100, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="1007" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D1007" s="3" t="str">
-        <f>VLOOKUP(C1007,transformatie!$A$2:$E$102,5)</f>
-        <v/>
-      </c>
-      <c r="F1007" s="3" t="str">
-        <f>IF(D1007 &lt;&gt; "", (D1007 * transformatie!$M$2 + E1007 * (100 - transformatie!$M$2)) / 100, "")</f>
         <v/>
       </c>
     </row>

--- a/helpfiles/tentamenuitslag_R.xlsx
+++ b/helpfiles/tentamenuitslag_R.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DSZ\OKZ\OTIR\tentamens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\vu-toetsanalyse\helpfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -538,7 +538,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/helpfiles/tentamenuitslag_R.xlsx
+++ b/helpfiles/tentamenuitslag_R.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\vu-toetsanalyse\helpfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vu-toetsanalyse-master\helpfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -125,6 +125,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -198,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,7 +220,6 @@
       <alignment textRotation="30"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -227,12 +227,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment textRotation="30"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Euro" xfId="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -246,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -358,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1964,7 +1984,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="15"/>
+      <c r="A141" s="14"/>
       <c r="D141" s="3" t="str">
         <f>VLOOKUP(C141,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -1975,7 +1995,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="15"/>
+      <c r="A142" s="14"/>
       <c r="D142" s="3" t="str">
         <f>VLOOKUP(C142,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -1986,7 +2006,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="15"/>
+      <c r="A143" s="14"/>
       <c r="D143" s="3" t="str">
         <f>VLOOKUP(C143,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -1997,7 +2017,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="15"/>
+      <c r="A144" s="14"/>
       <c r="D144" s="3" t="str">
         <f>VLOOKUP(C144,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2008,7 +2028,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="15"/>
+      <c r="A145" s="14"/>
       <c r="D145" s="3" t="str">
         <f>VLOOKUP(C145,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2019,7 +2039,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="15"/>
+      <c r="A146" s="14"/>
       <c r="D146" s="3" t="str">
         <f>VLOOKUP(C146,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2030,7 +2050,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="15"/>
+      <c r="A147" s="14"/>
       <c r="D147" s="3" t="str">
         <f>VLOOKUP(C147,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2041,7 +2061,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="15"/>
+      <c r="A148" s="14"/>
       <c r="D148" s="3" t="str">
         <f>VLOOKUP(C148,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2052,7 +2072,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="15"/>
+      <c r="A149" s="14"/>
       <c r="D149" s="3" t="str">
         <f>VLOOKUP(C149,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2063,7 +2083,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="15"/>
+      <c r="A150" s="14"/>
       <c r="D150" s="3" t="str">
         <f>VLOOKUP(C150,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2074,7 +2094,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="15"/>
+      <c r="A151" s="14"/>
       <c r="D151" s="3" t="str">
         <f>VLOOKUP(C151,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2085,7 +2105,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="15"/>
+      <c r="A152" s="14"/>
       <c r="D152" s="3" t="str">
         <f>VLOOKUP(C152,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2096,7 +2116,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="15"/>
+      <c r="A153" s="14"/>
       <c r="D153" s="3" t="str">
         <f>VLOOKUP(C153,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2107,7 +2127,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="15"/>
+      <c r="A154" s="14"/>
       <c r="D154" s="3" t="str">
         <f>VLOOKUP(C154,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2118,7 +2138,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
+      <c r="A155" s="14"/>
       <c r="D155" s="3" t="str">
         <f>VLOOKUP(C155,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2129,7 +2149,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="15"/>
+      <c r="A156" s="14"/>
       <c r="D156" s="3" t="str">
         <f>VLOOKUP(C156,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2140,7 +2160,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="15"/>
+      <c r="A157" s="14"/>
       <c r="D157" s="3" t="str">
         <f>VLOOKUP(C157,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2151,7 +2171,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="15"/>
+      <c r="A158" s="14"/>
       <c r="D158" s="3" t="str">
         <f>VLOOKUP(C158,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2162,7 +2182,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="15"/>
+      <c r="A159" s="14"/>
       <c r="D159" s="3" t="str">
         <f>VLOOKUP(C159,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2173,7 +2193,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="15"/>
+      <c r="A160" s="14"/>
       <c r="D160" s="3" t="str">
         <f>VLOOKUP(C160,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2184,7 +2204,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="15"/>
+      <c r="A161" s="14"/>
       <c r="D161" s="3" t="str">
         <f>VLOOKUP(C161,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2195,7 +2215,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="15"/>
+      <c r="A162" s="14"/>
       <c r="D162" s="3" t="str">
         <f>VLOOKUP(C162,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2206,7 +2226,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="15"/>
+      <c r="A163" s="14"/>
       <c r="D163" s="3" t="str">
         <f>VLOOKUP(C163,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2217,7 +2237,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="15"/>
+      <c r="A164" s="14"/>
       <c r="D164" s="3" t="str">
         <f>VLOOKUP(C164,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2228,7 +2248,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="15"/>
+      <c r="A165" s="14"/>
       <c r="D165" s="3" t="str">
         <f>VLOOKUP(C165,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2239,7 +2259,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="15"/>
+      <c r="A166" s="14"/>
       <c r="D166" s="3" t="str">
         <f>VLOOKUP(C166,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2250,7 +2270,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="15"/>
+      <c r="A167" s="14"/>
       <c r="D167" s="3" t="str">
         <f>VLOOKUP(C167,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2261,7 +2281,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="15"/>
+      <c r="A168" s="14"/>
       <c r="D168" s="3" t="str">
         <f>VLOOKUP(C168,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2272,7 +2292,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="15"/>
+      <c r="A169" s="14"/>
       <c r="D169" s="3" t="str">
         <f>VLOOKUP(C169,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2283,7 +2303,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="15"/>
+      <c r="A170" s="14"/>
       <c r="D170" s="3" t="str">
         <f>VLOOKUP(C170,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2294,7 +2314,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="15"/>
+      <c r="A171" s="14"/>
       <c r="D171" s="3" t="str">
         <f>VLOOKUP(C171,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2305,7 +2325,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="15"/>
+      <c r="A172" s="14"/>
       <c r="D172" s="3" t="str">
         <f>VLOOKUP(C172,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2316,7 +2336,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="15"/>
+      <c r="A173" s="14"/>
       <c r="D173" s="3" t="str">
         <f>VLOOKUP(C173,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2327,7 +2347,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="15"/>
+      <c r="A174" s="14"/>
       <c r="D174" s="3" t="str">
         <f>VLOOKUP(C174,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2338,7 +2358,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="15"/>
+      <c r="A175" s="14"/>
       <c r="D175" s="3" t="str">
         <f>VLOOKUP(C175,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2349,7 +2369,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="15"/>
+      <c r="A176" s="14"/>
       <c r="D176" s="3" t="str">
         <f>VLOOKUP(C176,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2360,7 +2380,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="15"/>
+      <c r="A177" s="14"/>
       <c r="D177" s="3" t="str">
         <f>VLOOKUP(C177,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2371,7 +2391,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="15"/>
+      <c r="A178" s="14"/>
       <c r="D178" s="3" t="str">
         <f>VLOOKUP(C178,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2382,7 +2402,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="15"/>
+      <c r="A179" s="14"/>
       <c r="D179" s="3" t="str">
         <f>VLOOKUP(C179,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2393,7 +2413,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="15"/>
+      <c r="A180" s="14"/>
       <c r="D180" s="3" t="str">
         <f>VLOOKUP(C180,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2404,7 +2424,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="15"/>
+      <c r="A181" s="14"/>
       <c r="D181" s="3" t="str">
         <f>VLOOKUP(C181,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2415,7 +2435,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="15"/>
+      <c r="A182" s="14"/>
       <c r="D182" s="3" t="str">
         <f>VLOOKUP(C182,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2426,7 +2446,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="15"/>
+      <c r="A183" s="14"/>
       <c r="D183" s="3" t="str">
         <f>VLOOKUP(C183,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2437,7 +2457,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="15"/>
+      <c r="A184" s="14"/>
       <c r="D184" s="3" t="str">
         <f>VLOOKUP(C184,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2448,7 +2468,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="15"/>
+      <c r="A185" s="14"/>
       <c r="D185" s="3" t="str">
         <f>VLOOKUP(C185,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2459,7 +2479,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="15"/>
+      <c r="A186" s="14"/>
       <c r="D186" s="3" t="str">
         <f>VLOOKUP(C186,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2470,7 +2490,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="15"/>
+      <c r="A187" s="14"/>
       <c r="D187" s="3" t="str">
         <f>VLOOKUP(C187,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2481,7 +2501,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="15"/>
+      <c r="A188" s="14"/>
       <c r="D188" s="3" t="str">
         <f>VLOOKUP(C188,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2492,7 +2512,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="15"/>
+      <c r="A189" s="14"/>
       <c r="D189" s="3" t="str">
         <f>VLOOKUP(C189,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2503,7 +2523,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="15"/>
+      <c r="A190" s="14"/>
       <c r="D190" s="3" t="str">
         <f>VLOOKUP(C190,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2514,7 +2534,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="15"/>
+      <c r="A191" s="14"/>
       <c r="D191" s="3" t="str">
         <f>VLOOKUP(C191,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2525,7 +2545,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="15"/>
+      <c r="A192" s="14"/>
       <c r="D192" s="3" t="str">
         <f>VLOOKUP(C192,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2536,7 +2556,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="15"/>
+      <c r="A193" s="14"/>
       <c r="D193" s="3" t="str">
         <f>VLOOKUP(C193,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2547,7 +2567,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="15"/>
+      <c r="A194" s="14"/>
       <c r="D194" s="3" t="str">
         <f>VLOOKUP(C194,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2558,7 +2578,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="15"/>
+      <c r="A195" s="14"/>
       <c r="D195" s="3" t="str">
         <f>VLOOKUP(C195,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2569,7 +2589,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="15"/>
+      <c r="A196" s="14"/>
       <c r="D196" s="3" t="str">
         <f>VLOOKUP(C196,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2580,7 +2600,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="15"/>
+      <c r="A197" s="14"/>
       <c r="D197" s="3" t="str">
         <f>VLOOKUP(C197,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2591,7 +2611,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="15"/>
+      <c r="A198" s="14"/>
       <c r="D198" s="3" t="str">
         <f>VLOOKUP(C198,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2602,7 +2622,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="15"/>
+      <c r="A199" s="14"/>
       <c r="D199" s="3" t="str">
         <f>VLOOKUP(C199,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2613,7 +2633,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="15"/>
+      <c r="A200" s="14"/>
       <c r="D200" s="3" t="str">
         <f>VLOOKUP(C200,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2624,7 +2644,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="15"/>
+      <c r="A201" s="14"/>
       <c r="D201" s="3" t="str">
         <f>VLOOKUP(C201,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2635,7 +2655,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="15"/>
+      <c r="A202" s="14"/>
       <c r="D202" s="3" t="str">
         <f>VLOOKUP(C202,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2646,7 +2666,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="15"/>
+      <c r="A203" s="14"/>
       <c r="D203" s="3" t="str">
         <f>VLOOKUP(C203,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2657,7 +2677,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="15"/>
+      <c r="A204" s="14"/>
       <c r="D204" s="3" t="str">
         <f>VLOOKUP(C204,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2668,7 +2688,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="15"/>
+      <c r="A205" s="14"/>
       <c r="D205" s="3" t="str">
         <f>VLOOKUP(C205,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2679,7 +2699,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="15"/>
+      <c r="A206" s="14"/>
       <c r="D206" s="3" t="str">
         <f>VLOOKUP(C206,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2690,7 +2710,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="15"/>
+      <c r="A207" s="14"/>
       <c r="D207" s="3" t="str">
         <f>VLOOKUP(C207,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2701,7 +2721,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="15"/>
+      <c r="A208" s="14"/>
       <c r="D208" s="3" t="str">
         <f>VLOOKUP(C208,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2712,7 +2732,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="15"/>
+      <c r="A209" s="14"/>
       <c r="D209" s="3" t="str">
         <f>VLOOKUP(C209,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2723,7 +2743,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="15"/>
+      <c r="A210" s="14"/>
       <c r="D210" s="3" t="str">
         <f>VLOOKUP(C210,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2734,7 +2754,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="15"/>
+      <c r="A211" s="14"/>
       <c r="D211" s="3" t="str">
         <f>VLOOKUP(C211,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2745,7 +2765,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="15"/>
+      <c r="A212" s="14"/>
       <c r="D212" s="3" t="str">
         <f>VLOOKUP(C212,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2756,7 +2776,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="15"/>
+      <c r="A213" s="14"/>
       <c r="D213" s="3" t="str">
         <f>VLOOKUP(C213,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2767,7 +2787,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="15"/>
+      <c r="A214" s="14"/>
       <c r="D214" s="3" t="str">
         <f>VLOOKUP(C214,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2778,7 +2798,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="15"/>
+      <c r="A215" s="14"/>
       <c r="D215" s="3" t="str">
         <f>VLOOKUP(C215,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2789,7 +2809,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="15"/>
+      <c r="A216" s="14"/>
       <c r="D216" s="3" t="str">
         <f>VLOOKUP(C216,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2800,7 +2820,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="15"/>
+      <c r="A217" s="14"/>
       <c r="D217" s="3" t="str">
         <f>VLOOKUP(C217,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2811,7 +2831,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="15"/>
+      <c r="A218" s="14"/>
       <c r="D218" s="3" t="str">
         <f>VLOOKUP(C218,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2822,7 +2842,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="15"/>
+      <c r="A219" s="14"/>
       <c r="D219" s="3" t="str">
         <f>VLOOKUP(C219,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2833,7 +2853,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="15"/>
+      <c r="A220" s="14"/>
       <c r="D220" s="3" t="str">
         <f>VLOOKUP(C220,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2844,7 +2864,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="15"/>
+      <c r="A221" s="14"/>
       <c r="D221" s="3" t="str">
         <f>VLOOKUP(C221,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2855,7 +2875,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="15"/>
+      <c r="A222" s="14"/>
       <c r="D222" s="3" t="str">
         <f>VLOOKUP(C222,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2866,7 +2886,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="15"/>
+      <c r="A223" s="14"/>
       <c r="D223" s="3" t="str">
         <f>VLOOKUP(C223,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2877,7 +2897,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="15"/>
+      <c r="A224" s="14"/>
       <c r="D224" s="3" t="str">
         <f>VLOOKUP(C224,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2888,7 +2908,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="15"/>
+      <c r="A225" s="14"/>
       <c r="D225" s="3" t="str">
         <f>VLOOKUP(C225,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2899,7 +2919,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="15"/>
+      <c r="A226" s="14"/>
       <c r="D226" s="3" t="str">
         <f>VLOOKUP(C226,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2910,7 +2930,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="15"/>
+      <c r="A227" s="14"/>
       <c r="D227" s="3" t="str">
         <f>VLOOKUP(C227,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2921,7 +2941,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="15"/>
+      <c r="A228" s="14"/>
       <c r="D228" s="3" t="str">
         <f>VLOOKUP(C228,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2932,7 +2952,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="15"/>
+      <c r="A229" s="14"/>
       <c r="D229" s="3" t="str">
         <f>VLOOKUP(C229,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2943,7 +2963,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="15"/>
+      <c r="A230" s="14"/>
       <c r="D230" s="3" t="str">
         <f>VLOOKUP(C230,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2954,7 +2974,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="15"/>
+      <c r="A231" s="14"/>
       <c r="D231" s="3" t="str">
         <f>VLOOKUP(C231,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2965,7 +2985,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="15"/>
+      <c r="A232" s="14"/>
       <c r="D232" s="3" t="str">
         <f>VLOOKUP(C232,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2976,7 +2996,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="15"/>
+      <c r="A233" s="14"/>
       <c r="D233" s="3" t="str">
         <f>VLOOKUP(C233,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2987,7 +3007,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="15"/>
+      <c r="A234" s="14"/>
       <c r="D234" s="3" t="str">
         <f>VLOOKUP(C234,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -2998,7 +3018,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="15"/>
+      <c r="A235" s="14"/>
       <c r="D235" s="3" t="str">
         <f>VLOOKUP(C235,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3009,7 +3029,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="15"/>
+      <c r="A236" s="14"/>
       <c r="D236" s="3" t="str">
         <f>VLOOKUP(C236,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3020,7 +3040,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="15"/>
+      <c r="A237" s="14"/>
       <c r="D237" s="3" t="str">
         <f>VLOOKUP(C237,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3031,7 +3051,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="15"/>
+      <c r="A238" s="14"/>
       <c r="D238" s="3" t="str">
         <f>VLOOKUP(C238,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3042,7 +3062,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="15"/>
+      <c r="A239" s="14"/>
       <c r="D239" s="3" t="str">
         <f>VLOOKUP(C239,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3053,7 +3073,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="15"/>
+      <c r="A240" s="14"/>
       <c r="D240" s="3" t="str">
         <f>VLOOKUP(C240,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3064,7 +3084,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="15"/>
+      <c r="A241" s="14"/>
       <c r="D241" s="3" t="str">
         <f>VLOOKUP(C241,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3075,7 +3095,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="15"/>
+      <c r="A242" s="14"/>
       <c r="D242" s="3" t="str">
         <f>VLOOKUP(C242,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3086,7 +3106,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="15"/>
+      <c r="A243" s="14"/>
       <c r="D243" s="3" t="str">
         <f>VLOOKUP(C243,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3097,7 +3117,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="15"/>
+      <c r="A244" s="14"/>
       <c r="D244" s="3" t="str">
         <f>VLOOKUP(C244,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3108,7 +3128,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="15"/>
+      <c r="A245" s="14"/>
       <c r="D245" s="3" t="str">
         <f>VLOOKUP(C245,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3119,7 +3139,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="15"/>
+      <c r="A246" s="14"/>
       <c r="D246" s="3" t="str">
         <f>VLOOKUP(C246,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3130,8 +3150,8 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="15"/>
-      <c r="B247" s="15"/>
+      <c r="A247" s="14"/>
+      <c r="B247" s="14"/>
       <c r="D247" s="3" t="str">
         <f>VLOOKUP(C247,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3142,8 +3162,8 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="15"/>
-      <c r="B248" s="15"/>
+      <c r="A248" s="14"/>
+      <c r="B248" s="14"/>
       <c r="D248" s="3" t="str">
         <f>VLOOKUP(C248,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3154,8 +3174,8 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="15"/>
-      <c r="B249" s="15"/>
+      <c r="A249" s="14"/>
+      <c r="B249" s="14"/>
       <c r="D249" s="3" t="str">
         <f>VLOOKUP(C249,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3166,8 +3186,8 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="15"/>
-      <c r="B250" s="15"/>
+      <c r="A250" s="14"/>
+      <c r="B250" s="14"/>
       <c r="D250" s="3" t="str">
         <f>VLOOKUP(C250,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3178,8 +3198,8 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="15"/>
-      <c r="B251" s="15"/>
+      <c r="A251" s="14"/>
+      <c r="B251" s="14"/>
       <c r="D251" s="3" t="str">
         <f>VLOOKUP(C251,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3190,8 +3210,8 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="15"/>
-      <c r="B252" s="15"/>
+      <c r="A252" s="14"/>
+      <c r="B252" s="14"/>
       <c r="D252" s="3" t="str">
         <f>VLOOKUP(C252,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3202,8 +3222,8 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="15"/>
-      <c r="B253" s="15"/>
+      <c r="A253" s="14"/>
+      <c r="B253" s="14"/>
       <c r="D253" s="3" t="str">
         <f>VLOOKUP(C253,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3214,8 +3234,8 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="15"/>
-      <c r="B254" s="15"/>
+      <c r="A254" s="14"/>
+      <c r="B254" s="14"/>
       <c r="D254" s="3" t="str">
         <f>VLOOKUP(C254,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3226,8 +3246,8 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="15"/>
-      <c r="B255" s="15"/>
+      <c r="A255" s="14"/>
+      <c r="B255" s="14"/>
       <c r="D255" s="3" t="str">
         <f>VLOOKUP(C255,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3238,8 +3258,8 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="15"/>
-      <c r="B256" s="15"/>
+      <c r="A256" s="14"/>
+      <c r="B256" s="14"/>
       <c r="D256" s="3" t="str">
         <f>VLOOKUP(C256,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3250,8 +3270,8 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="15"/>
-      <c r="B257" s="15"/>
+      <c r="A257" s="14"/>
+      <c r="B257" s="14"/>
       <c r="D257" s="3" t="str">
         <f>VLOOKUP(C257,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3262,8 +3282,8 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="15"/>
-      <c r="B258" s="15"/>
+      <c r="A258" s="14"/>
+      <c r="B258" s="14"/>
       <c r="D258" s="3" t="str">
         <f>VLOOKUP(C258,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3274,8 +3294,8 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="15"/>
-      <c r="B259" s="15"/>
+      <c r="A259" s="14"/>
+      <c r="B259" s="14"/>
       <c r="D259" s="3" t="str">
         <f>VLOOKUP(C259,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3286,8 +3306,8 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="15"/>
-      <c r="B260" s="15"/>
+      <c r="A260" s="14"/>
+      <c r="B260" s="14"/>
       <c r="D260" s="3" t="str">
         <f>VLOOKUP(C260,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3298,8 +3318,8 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="15"/>
-      <c r="B261" s="15"/>
+      <c r="A261" s="14"/>
+      <c r="B261" s="14"/>
       <c r="D261" s="3" t="str">
         <f>VLOOKUP(C261,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3310,8 +3330,8 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="15"/>
-      <c r="B262" s="15"/>
+      <c r="A262" s="14"/>
+      <c r="B262" s="14"/>
       <c r="D262" s="3" t="str">
         <f>VLOOKUP(C262,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3322,8 +3342,8 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="15"/>
-      <c r="B263" s="15"/>
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
       <c r="D263" s="3" t="str">
         <f>VLOOKUP(C263,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3334,8 +3354,8 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="15"/>
-      <c r="B264" s="15"/>
+      <c r="A264" s="14"/>
+      <c r="B264" s="14"/>
       <c r="D264" s="3" t="str">
         <f>VLOOKUP(C264,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3346,8 +3366,8 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="15"/>
-      <c r="B265" s="15"/>
+      <c r="A265" s="14"/>
+      <c r="B265" s="14"/>
       <c r="D265" s="3" t="str">
         <f>VLOOKUP(C265,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3358,8 +3378,8 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="15"/>
-      <c r="B266" s="15"/>
+      <c r="A266" s="14"/>
+      <c r="B266" s="14"/>
       <c r="D266" s="3" t="str">
         <f>VLOOKUP(C266,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3370,8 +3390,8 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="15"/>
-      <c r="B267" s="15"/>
+      <c r="A267" s="14"/>
+      <c r="B267" s="14"/>
       <c r="D267" s="3" t="str">
         <f>VLOOKUP(C267,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3382,8 +3402,8 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="15"/>
-      <c r="B268" s="15"/>
+      <c r="A268" s="14"/>
+      <c r="B268" s="14"/>
       <c r="D268" s="3" t="str">
         <f>VLOOKUP(C268,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3394,8 +3414,8 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="15"/>
-      <c r="B269" s="15"/>
+      <c r="A269" s="14"/>
+      <c r="B269" s="14"/>
       <c r="D269" s="3" t="str">
         <f>VLOOKUP(C269,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3406,8 +3426,8 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="15"/>
-      <c r="B270" s="15"/>
+      <c r="A270" s="14"/>
+      <c r="B270" s="14"/>
       <c r="D270" s="3" t="str">
         <f>VLOOKUP(C270,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3418,8 +3438,8 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="15"/>
-      <c r="B271" s="15"/>
+      <c r="A271" s="14"/>
+      <c r="B271" s="14"/>
       <c r="D271" s="3" t="str">
         <f>VLOOKUP(C271,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3430,8 +3450,8 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="15"/>
-      <c r="B272" s="15"/>
+      <c r="A272" s="14"/>
+      <c r="B272" s="14"/>
       <c r="D272" s="3" t="str">
         <f>VLOOKUP(C272,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3442,8 +3462,8 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="15"/>
-      <c r="B273" s="15"/>
+      <c r="A273" s="14"/>
+      <c r="B273" s="14"/>
       <c r="D273" s="3" t="str">
         <f>VLOOKUP(C273,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3454,8 +3474,8 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="15"/>
-      <c r="B274" s="15"/>
+      <c r="A274" s="14"/>
+      <c r="B274" s="14"/>
       <c r="D274" s="3" t="str">
         <f>VLOOKUP(C274,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3466,8 +3486,8 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="15"/>
-      <c r="B275" s="15"/>
+      <c r="A275" s="14"/>
+      <c r="B275" s="14"/>
       <c r="D275" s="3" t="str">
         <f>VLOOKUP(C275,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3478,8 +3498,8 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="15"/>
-      <c r="B276" s="15"/>
+      <c r="A276" s="14"/>
+      <c r="B276" s="14"/>
       <c r="D276" s="3" t="str">
         <f>VLOOKUP(C276,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3490,8 +3510,8 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="15"/>
-      <c r="B277" s="15"/>
+      <c r="A277" s="14"/>
+      <c r="B277" s="14"/>
       <c r="D277" s="3" t="str">
         <f>VLOOKUP(C277,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3502,8 +3522,8 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="15"/>
-      <c r="B278" s="15"/>
+      <c r="A278" s="14"/>
+      <c r="B278" s="14"/>
       <c r="D278" s="3" t="str">
         <f>VLOOKUP(C278,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3514,8 +3534,8 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="15"/>
-      <c r="B279" s="15"/>
+      <c r="A279" s="14"/>
+      <c r="B279" s="14"/>
       <c r="D279" s="3" t="str">
         <f>VLOOKUP(C279,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3526,8 +3546,8 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="15"/>
-      <c r="B280" s="15"/>
+      <c r="A280" s="14"/>
+      <c r="B280" s="14"/>
       <c r="D280" s="3" t="str">
         <f>VLOOKUP(C280,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3538,8 +3558,8 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="15"/>
-      <c r="B281" s="15"/>
+      <c r="A281" s="14"/>
+      <c r="B281" s="14"/>
       <c r="D281" s="3" t="str">
         <f>VLOOKUP(C281,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3550,8 +3570,8 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="15"/>
-      <c r="B282" s="15"/>
+      <c r="A282" s="14"/>
+      <c r="B282" s="14"/>
       <c r="D282" s="3" t="str">
         <f>VLOOKUP(C282,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3562,8 +3582,8 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="15"/>
-      <c r="B283" s="15"/>
+      <c r="A283" s="14"/>
+      <c r="B283" s="14"/>
       <c r="D283" s="3" t="str">
         <f>VLOOKUP(C283,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3574,8 +3594,8 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="15"/>
-      <c r="B284" s="15"/>
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
       <c r="D284" s="3" t="str">
         <f>VLOOKUP(C284,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3586,8 +3606,8 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="15"/>
-      <c r="B285" s="15"/>
+      <c r="A285" s="14"/>
+      <c r="B285" s="14"/>
       <c r="D285" s="3" t="str">
         <f>VLOOKUP(C285,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3598,8 +3618,8 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="15"/>
-      <c r="B286" s="15"/>
+      <c r="A286" s="14"/>
+      <c r="B286" s="14"/>
       <c r="D286" s="3" t="str">
         <f>VLOOKUP(C286,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3610,8 +3630,8 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="15"/>
-      <c r="B287" s="15"/>
+      <c r="A287" s="14"/>
+      <c r="B287" s="14"/>
       <c r="D287" s="3" t="str">
         <f>VLOOKUP(C287,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3622,8 +3642,8 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="15"/>
-      <c r="B288" s="15"/>
+      <c r="A288" s="14"/>
+      <c r="B288" s="14"/>
       <c r="D288" s="3" t="str">
         <f>VLOOKUP(C288,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3634,8 +3654,8 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="15"/>
-      <c r="B289" s="15"/>
+      <c r="A289" s="14"/>
+      <c r="B289" s="14"/>
       <c r="D289" s="3" t="str">
         <f>VLOOKUP(C289,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3646,8 +3666,8 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="15"/>
-      <c r="B290" s="15"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
       <c r="D290" s="3" t="str">
         <f>VLOOKUP(C290,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3658,8 +3678,8 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="15"/>
-      <c r="B291" s="15"/>
+      <c r="A291" s="14"/>
+      <c r="B291" s="14"/>
       <c r="D291" s="3" t="str">
         <f>VLOOKUP(C291,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3670,8 +3690,8 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="15"/>
-      <c r="B292" s="15"/>
+      <c r="A292" s="14"/>
+      <c r="B292" s="14"/>
       <c r="D292" s="3" t="str">
         <f>VLOOKUP(C292,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3682,8 +3702,8 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="15"/>
-      <c r="B293" s="15"/>
+      <c r="A293" s="14"/>
+      <c r="B293" s="14"/>
       <c r="D293" s="3" t="str">
         <f>VLOOKUP(C293,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3694,8 +3714,8 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="15"/>
-      <c r="B294" s="15"/>
+      <c r="A294" s="14"/>
+      <c r="B294" s="14"/>
       <c r="D294" s="3" t="str">
         <f>VLOOKUP(C294,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3706,8 +3726,8 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="15"/>
-      <c r="B295" s="15"/>
+      <c r="A295" s="14"/>
+      <c r="B295" s="14"/>
       <c r="D295" s="3" t="str">
         <f>VLOOKUP(C295,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3718,8 +3738,8 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="15"/>
-      <c r="B296" s="15"/>
+      <c r="A296" s="14"/>
+      <c r="B296" s="14"/>
       <c r="D296" s="3" t="str">
         <f>VLOOKUP(C296,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3730,8 +3750,8 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="15"/>
-      <c r="B297" s="15"/>
+      <c r="A297" s="14"/>
+      <c r="B297" s="14"/>
       <c r="D297" s="3" t="str">
         <f>VLOOKUP(C297,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3742,8 +3762,8 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
+      <c r="A298" s="14"/>
+      <c r="B298" s="14"/>
       <c r="D298" s="3" t="str">
         <f>VLOOKUP(C298,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3754,8 +3774,8 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="15"/>
-      <c r="B299" s="15"/>
+      <c r="A299" s="14"/>
+      <c r="B299" s="14"/>
       <c r="D299" s="3" t="str">
         <f>VLOOKUP(C299,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3766,8 +3786,8 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="15"/>
-      <c r="B300" s="15"/>
+      <c r="A300" s="14"/>
+      <c r="B300" s="14"/>
       <c r="D300" s="3" t="str">
         <f>VLOOKUP(C300,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3778,8 +3798,8 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="15"/>
-      <c r="B301" s="15"/>
+      <c r="A301" s="14"/>
+      <c r="B301" s="14"/>
       <c r="D301" s="3" t="str">
         <f>VLOOKUP(C301,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3790,8 +3810,8 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="15"/>
-      <c r="B302" s="15"/>
+      <c r="A302" s="14"/>
+      <c r="B302" s="14"/>
       <c r="D302" s="3" t="str">
         <f>VLOOKUP(C302,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3802,8 +3822,8 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="15"/>
-      <c r="B303" s="15"/>
+      <c r="A303" s="14"/>
+      <c r="B303" s="14"/>
       <c r="D303" s="3" t="str">
         <f>VLOOKUP(C303,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3814,8 +3834,8 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="15"/>
-      <c r="B304" s="15"/>
+      <c r="A304" s="14"/>
+      <c r="B304" s="14"/>
       <c r="D304" s="3" t="str">
         <f>VLOOKUP(C304,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3826,8 +3846,8 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="15"/>
-      <c r="B305" s="15"/>
+      <c r="A305" s="14"/>
+      <c r="B305" s="14"/>
       <c r="D305" s="3" t="str">
         <f>VLOOKUP(C305,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3838,8 +3858,8 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="15"/>
-      <c r="B306" s="15"/>
+      <c r="A306" s="14"/>
+      <c r="B306" s="14"/>
       <c r="D306" s="3" t="str">
         <f>VLOOKUP(C306,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3850,8 +3870,8 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="15"/>
-      <c r="B307" s="15"/>
+      <c r="A307" s="14"/>
+      <c r="B307" s="14"/>
       <c r="D307" s="3" t="str">
         <f>VLOOKUP(C307,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3862,8 +3882,8 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="15"/>
-      <c r="B308" s="15"/>
+      <c r="A308" s="14"/>
+      <c r="B308" s="14"/>
       <c r="D308" s="3" t="str">
         <f>VLOOKUP(C308,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3874,8 +3894,8 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="15"/>
-      <c r="B309" s="15"/>
+      <c r="A309" s="14"/>
+      <c r="B309" s="14"/>
       <c r="D309" s="3" t="str">
         <f>VLOOKUP(C309,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3886,8 +3906,8 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="15"/>
-      <c r="B310" s="15"/>
+      <c r="A310" s="14"/>
+      <c r="B310" s="14"/>
       <c r="D310" s="3" t="str">
         <f>VLOOKUP(C310,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3898,8 +3918,8 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="15"/>
-      <c r="B311" s="15"/>
+      <c r="A311" s="14"/>
+      <c r="B311" s="14"/>
       <c r="D311" s="3" t="str">
         <f>VLOOKUP(C311,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3910,8 +3930,8 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="15"/>
-      <c r="B312" s="15"/>
+      <c r="A312" s="14"/>
+      <c r="B312" s="14"/>
       <c r="D312" s="3" t="str">
         <f>VLOOKUP(C312,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3922,8 +3942,8 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="15"/>
-      <c r="B313" s="15"/>
+      <c r="A313" s="14"/>
+      <c r="B313" s="14"/>
       <c r="D313" s="3" t="str">
         <f>VLOOKUP(C313,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3934,8 +3954,8 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="15"/>
-      <c r="B314" s="15"/>
+      <c r="A314" s="14"/>
+      <c r="B314" s="14"/>
       <c r="D314" s="3" t="str">
         <f>VLOOKUP(C314,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3946,8 +3966,8 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="15"/>
-      <c r="B315" s="15"/>
+      <c r="A315" s="14"/>
+      <c r="B315" s="14"/>
       <c r="D315" s="3" t="str">
         <f>VLOOKUP(C315,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3958,8 +3978,8 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="15"/>
-      <c r="B316" s="15"/>
+      <c r="A316" s="14"/>
+      <c r="B316" s="14"/>
       <c r="D316" s="3" t="str">
         <f>VLOOKUP(C316,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3970,8 +3990,8 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="15"/>
-      <c r="B317" s="15"/>
+      <c r="A317" s="14"/>
+      <c r="B317" s="14"/>
       <c r="D317" s="3" t="str">
         <f>VLOOKUP(C317,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3982,8 +4002,8 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="15"/>
-      <c r="B318" s="15"/>
+      <c r="A318" s="14"/>
+      <c r="B318" s="14"/>
       <c r="D318" s="3" t="str">
         <f>VLOOKUP(C318,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -3994,8 +4014,8 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="15"/>
-      <c r="B319" s="15"/>
+      <c r="A319" s="14"/>
+      <c r="B319" s="14"/>
       <c r="D319" s="3" t="str">
         <f>VLOOKUP(C319,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4006,8 +4026,8 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="15"/>
-      <c r="B320" s="15"/>
+      <c r="A320" s="14"/>
+      <c r="B320" s="14"/>
       <c r="D320" s="3" t="str">
         <f>VLOOKUP(C320,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4018,8 +4038,8 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="15"/>
-      <c r="B321" s="15"/>
+      <c r="A321" s="14"/>
+      <c r="B321" s="14"/>
       <c r="D321" s="3" t="str">
         <f>VLOOKUP(C321,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4030,8 +4050,8 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="15"/>
-      <c r="B322" s="15"/>
+      <c r="A322" s="14"/>
+      <c r="B322" s="14"/>
       <c r="D322" s="3" t="str">
         <f>VLOOKUP(C322,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4042,8 +4062,8 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="15"/>
-      <c r="B323" s="15"/>
+      <c r="A323" s="14"/>
+      <c r="B323" s="14"/>
       <c r="D323" s="3" t="str">
         <f>VLOOKUP(C323,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4054,8 +4074,8 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="15"/>
-      <c r="B324" s="15"/>
+      <c r="A324" s="14"/>
+      <c r="B324" s="14"/>
       <c r="D324" s="3" t="str">
         <f>VLOOKUP(C324,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4066,8 +4086,8 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="15"/>
-      <c r="B325" s="15"/>
+      <c r="A325" s="14"/>
+      <c r="B325" s="14"/>
       <c r="D325" s="3" t="str">
         <f>VLOOKUP(C325,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4078,8 +4098,8 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="15"/>
-      <c r="B326" s="15"/>
+      <c r="A326" s="14"/>
+      <c r="B326" s="14"/>
       <c r="D326" s="3" t="str">
         <f>VLOOKUP(C326,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4090,8 +4110,8 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="15"/>
-      <c r="B327" s="15"/>
+      <c r="A327" s="14"/>
+      <c r="B327" s="14"/>
       <c r="D327" s="3" t="str">
         <f>VLOOKUP(C327,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4102,8 +4122,8 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="15"/>
-      <c r="B328" s="15"/>
+      <c r="A328" s="14"/>
+      <c r="B328" s="14"/>
       <c r="D328" s="3" t="str">
         <f>VLOOKUP(C328,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4114,8 +4134,8 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="15"/>
-      <c r="B329" s="15"/>
+      <c r="A329" s="14"/>
+      <c r="B329" s="14"/>
       <c r="D329" s="3" t="str">
         <f>VLOOKUP(C329,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4126,8 +4146,8 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="15"/>
-      <c r="B330" s="15"/>
+      <c r="A330" s="14"/>
+      <c r="B330" s="14"/>
       <c r="D330" s="3" t="str">
         <f>VLOOKUP(C330,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4138,8 +4158,8 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="15"/>
-      <c r="B331" s="15"/>
+      <c r="A331" s="14"/>
+      <c r="B331" s="14"/>
       <c r="D331" s="3" t="str">
         <f>VLOOKUP(C331,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4150,8 +4170,8 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="15"/>
-      <c r="B332" s="15"/>
+      <c r="A332" s="14"/>
+      <c r="B332" s="14"/>
       <c r="D332" s="3" t="str">
         <f>VLOOKUP(C332,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4162,8 +4182,8 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="15"/>
-      <c r="B333" s="15"/>
+      <c r="A333" s="14"/>
+      <c r="B333" s="14"/>
       <c r="D333" s="3" t="str">
         <f>VLOOKUP(C333,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4174,8 +4194,8 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="15"/>
-      <c r="B334" s="15"/>
+      <c r="A334" s="14"/>
+      <c r="B334" s="14"/>
       <c r="D334" s="3" t="str">
         <f>VLOOKUP(C334,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4186,8 +4206,8 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="15"/>
-      <c r="B335" s="15"/>
+      <c r="A335" s="14"/>
+      <c r="B335" s="14"/>
       <c r="D335" s="3" t="str">
         <f>VLOOKUP(C335,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4198,8 +4218,8 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="15"/>
-      <c r="B336" s="15"/>
+      <c r="A336" s="14"/>
+      <c r="B336" s="14"/>
       <c r="D336" s="3" t="str">
         <f>VLOOKUP(C336,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4210,8 +4230,8 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="15"/>
-      <c r="B337" s="15"/>
+      <c r="A337" s="14"/>
+      <c r="B337" s="14"/>
       <c r="D337" s="3" t="str">
         <f>VLOOKUP(C337,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4222,8 +4242,8 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="15"/>
-      <c r="B338" s="15"/>
+      <c r="A338" s="14"/>
+      <c r="B338" s="14"/>
       <c r="D338" s="3" t="str">
         <f>VLOOKUP(C338,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4234,8 +4254,8 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="15"/>
-      <c r="B339" s="15"/>
+      <c r="A339" s="14"/>
+      <c r="B339" s="14"/>
       <c r="D339" s="3" t="str">
         <f>VLOOKUP(C339,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4246,8 +4266,8 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="15"/>
-      <c r="B340" s="15"/>
+      <c r="A340" s="14"/>
+      <c r="B340" s="14"/>
       <c r="D340" s="3" t="str">
         <f>VLOOKUP(C340,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4258,8 +4278,8 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="15"/>
-      <c r="B341" s="15"/>
+      <c r="A341" s="14"/>
+      <c r="B341" s="14"/>
       <c r="D341" s="3" t="str">
         <f>VLOOKUP(C341,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4270,8 +4290,8 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="15"/>
-      <c r="B342" s="15"/>
+      <c r="A342" s="14"/>
+      <c r="B342" s="14"/>
       <c r="D342" s="3" t="str">
         <f>VLOOKUP(C342,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4282,8 +4302,8 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="15"/>
-      <c r="B343" s="15"/>
+      <c r="A343" s="14"/>
+      <c r="B343" s="14"/>
       <c r="D343" s="3" t="str">
         <f>VLOOKUP(C343,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4294,8 +4314,8 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="15"/>
-      <c r="B344" s="15"/>
+      <c r="A344" s="14"/>
+      <c r="B344" s="14"/>
       <c r="D344" s="3" t="str">
         <f>VLOOKUP(C344,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4306,8 +4326,8 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="15"/>
-      <c r="B345" s="15"/>
+      <c r="A345" s="14"/>
+      <c r="B345" s="14"/>
       <c r="D345" s="3" t="str">
         <f>VLOOKUP(C345,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4318,8 +4338,8 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="15"/>
-      <c r="B346" s="15"/>
+      <c r="A346" s="14"/>
+      <c r="B346" s="14"/>
       <c r="D346" s="3" t="str">
         <f>VLOOKUP(C346,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4330,8 +4350,8 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="15"/>
-      <c r="B347" s="15"/>
+      <c r="A347" s="14"/>
+      <c r="B347" s="14"/>
       <c r="D347" s="3" t="str">
         <f>VLOOKUP(C347,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4342,8 +4362,8 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="15"/>
-      <c r="B348" s="15"/>
+      <c r="A348" s="14"/>
+      <c r="B348" s="14"/>
       <c r="D348" s="3" t="str">
         <f>VLOOKUP(C348,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4354,8 +4374,8 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="15"/>
-      <c r="B349" s="15"/>
+      <c r="A349" s="14"/>
+      <c r="B349" s="14"/>
       <c r="D349" s="3" t="str">
         <f>VLOOKUP(C349,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4366,8 +4386,8 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="15"/>
-      <c r="B350" s="15"/>
+      <c r="A350" s="14"/>
+      <c r="B350" s="14"/>
       <c r="D350" s="3" t="str">
         <f>VLOOKUP(C350,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4378,8 +4398,8 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="15"/>
-      <c r="B351" s="15"/>
+      <c r="A351" s="14"/>
+      <c r="B351" s="14"/>
       <c r="D351" s="3" t="str">
         <f>VLOOKUP(C351,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4390,8 +4410,8 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="15"/>
-      <c r="B352" s="15"/>
+      <c r="A352" s="14"/>
+      <c r="B352" s="14"/>
       <c r="D352" s="3" t="str">
         <f>VLOOKUP(C352,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4402,8 +4422,8 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353" s="15"/>
-      <c r="B353" s="15"/>
+      <c r="A353" s="14"/>
+      <c r="B353" s="14"/>
       <c r="D353" s="3" t="str">
         <f>VLOOKUP(C353,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4414,8 +4434,8 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" s="15"/>
-      <c r="B354" s="15"/>
+      <c r="A354" s="14"/>
+      <c r="B354" s="14"/>
       <c r="D354" s="3" t="str">
         <f>VLOOKUP(C354,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4426,8 +4446,8 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" s="15"/>
-      <c r="B355" s="15"/>
+      <c r="A355" s="14"/>
+      <c r="B355" s="14"/>
       <c r="D355" s="3" t="str">
         <f>VLOOKUP(C355,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4438,8 +4458,8 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" s="15"/>
-      <c r="B356" s="15"/>
+      <c r="A356" s="14"/>
+      <c r="B356" s="14"/>
       <c r="D356" s="3" t="str">
         <f>VLOOKUP(C356,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4450,8 +4470,8 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357" s="15"/>
-      <c r="B357" s="15"/>
+      <c r="A357" s="14"/>
+      <c r="B357" s="14"/>
       <c r="D357" s="3" t="str">
         <f>VLOOKUP(C357,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4462,8 +4482,8 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358" s="15"/>
-      <c r="B358" s="15"/>
+      <c r="A358" s="14"/>
+      <c r="B358" s="14"/>
       <c r="D358" s="3" t="str">
         <f>VLOOKUP(C358,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4474,8 +4494,8 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" s="15"/>
-      <c r="B359" s="15"/>
+      <c r="A359" s="14"/>
+      <c r="B359" s="14"/>
       <c r="D359" s="3" t="str">
         <f>VLOOKUP(C359,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4486,8 +4506,8 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" s="15"/>
-      <c r="B360" s="15"/>
+      <c r="A360" s="14"/>
+      <c r="B360" s="14"/>
       <c r="D360" s="3" t="str">
         <f>VLOOKUP(C360,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4498,8 +4518,8 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" s="15"/>
-      <c r="B361" s="15"/>
+      <c r="A361" s="14"/>
+      <c r="B361" s="14"/>
       <c r="D361" s="3" t="str">
         <f>VLOOKUP(C361,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4510,8 +4530,8 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" s="15"/>
-      <c r="B362" s="15"/>
+      <c r="A362" s="14"/>
+      <c r="B362" s="14"/>
       <c r="D362" s="3" t="str">
         <f>VLOOKUP(C362,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4522,8 +4542,8 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A363" s="15"/>
-      <c r="B363" s="15"/>
+      <c r="A363" s="14"/>
+      <c r="B363" s="14"/>
       <c r="D363" s="3" t="str">
         <f>VLOOKUP(C363,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4534,8 +4554,8 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A364" s="15"/>
-      <c r="B364" s="15"/>
+      <c r="A364" s="14"/>
+      <c r="B364" s="14"/>
       <c r="D364" s="3" t="str">
         <f>VLOOKUP(C364,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4546,8 +4566,8 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365" s="15"/>
-      <c r="B365" s="15"/>
+      <c r="A365" s="14"/>
+      <c r="B365" s="14"/>
       <c r="D365" s="3" t="str">
         <f>VLOOKUP(C365,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4558,8 +4578,8 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A366" s="15"/>
-      <c r="B366" s="15"/>
+      <c r="A366" s="14"/>
+      <c r="B366" s="14"/>
       <c r="D366" s="3" t="str">
         <f>VLOOKUP(C366,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4570,8 +4590,8 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A367" s="15"/>
-      <c r="B367" s="15"/>
+      <c r="A367" s="14"/>
+      <c r="B367" s="14"/>
       <c r="D367" s="3" t="str">
         <f>VLOOKUP(C367,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4582,8 +4602,8 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A368" s="15"/>
-      <c r="B368" s="15"/>
+      <c r="A368" s="14"/>
+      <c r="B368" s="14"/>
       <c r="D368" s="3" t="str">
         <f>VLOOKUP(C368,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4594,8 +4614,8 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A369" s="15"/>
-      <c r="B369" s="15"/>
+      <c r="A369" s="14"/>
+      <c r="B369" s="14"/>
       <c r="D369" s="3" t="str">
         <f>VLOOKUP(C369,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4606,8 +4626,8 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A370" s="15"/>
-      <c r="B370" s="15"/>
+      <c r="A370" s="14"/>
+      <c r="B370" s="14"/>
       <c r="D370" s="3" t="str">
         <f>VLOOKUP(C370,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4618,8 +4638,8 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A371" s="15"/>
-      <c r="B371" s="15"/>
+      <c r="A371" s="14"/>
+      <c r="B371" s="14"/>
       <c r="D371" s="3" t="str">
         <f>VLOOKUP(C371,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4630,8 +4650,8 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A372" s="15"/>
-      <c r="B372" s="15"/>
+      <c r="A372" s="14"/>
+      <c r="B372" s="14"/>
       <c r="D372" s="3" t="str">
         <f>VLOOKUP(C372,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4642,8 +4662,8 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A373" s="15"/>
-      <c r="B373" s="15"/>
+      <c r="A373" s="14"/>
+      <c r="B373" s="14"/>
       <c r="D373" s="3" t="str">
         <f>VLOOKUP(C373,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4654,8 +4674,8 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A374" s="15"/>
-      <c r="B374" s="15"/>
+      <c r="A374" s="14"/>
+      <c r="B374" s="14"/>
       <c r="D374" s="3" t="str">
         <f>VLOOKUP(C374,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4666,8 +4686,8 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A375" s="15"/>
-      <c r="B375" s="15"/>
+      <c r="A375" s="14"/>
+      <c r="B375" s="14"/>
       <c r="D375" s="3" t="str">
         <f>VLOOKUP(C375,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4678,8 +4698,8 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A376" s="15"/>
-      <c r="B376" s="15"/>
+      <c r="A376" s="14"/>
+      <c r="B376" s="14"/>
       <c r="D376" s="3" t="str">
         <f>VLOOKUP(C376,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4690,8 +4710,8 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A377" s="15"/>
-      <c r="B377" s="15"/>
+      <c r="A377" s="14"/>
+      <c r="B377" s="14"/>
       <c r="D377" s="3" t="str">
         <f>VLOOKUP(C377,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4702,8 +4722,8 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A378" s="15"/>
-      <c r="B378" s="15"/>
+      <c r="A378" s="14"/>
+      <c r="B378" s="14"/>
       <c r="D378" s="3" t="str">
         <f>VLOOKUP(C378,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4714,8 +4734,8 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A379" s="15"/>
-      <c r="B379" s="15"/>
+      <c r="A379" s="14"/>
+      <c r="B379" s="14"/>
       <c r="D379" s="3" t="str">
         <f>VLOOKUP(C379,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4726,8 +4746,8 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="15"/>
-      <c r="B380" s="15"/>
+      <c r="A380" s="14"/>
+      <c r="B380" s="14"/>
       <c r="D380" s="3" t="str">
         <f>VLOOKUP(C380,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4738,8 +4758,8 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A381" s="15"/>
-      <c r="B381" s="15"/>
+      <c r="A381" s="14"/>
+      <c r="B381" s="14"/>
       <c r="D381" s="3" t="str">
         <f>VLOOKUP(C381,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4750,8 +4770,8 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A382" s="15"/>
-      <c r="B382" s="15"/>
+      <c r="A382" s="14"/>
+      <c r="B382" s="14"/>
       <c r="D382" s="3" t="str">
         <f>VLOOKUP(C382,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4762,8 +4782,8 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A383" s="15"/>
-      <c r="B383" s="15"/>
+      <c r="A383" s="14"/>
+      <c r="B383" s="14"/>
       <c r="D383" s="3" t="str">
         <f>VLOOKUP(C383,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4774,8 +4794,8 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A384" s="15"/>
-      <c r="B384" s="15"/>
+      <c r="A384" s="14"/>
+      <c r="B384" s="14"/>
       <c r="D384" s="3" t="str">
         <f>VLOOKUP(C384,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4786,8 +4806,8 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385" s="15"/>
-      <c r="B385" s="15"/>
+      <c r="A385" s="14"/>
+      <c r="B385" s="14"/>
       <c r="D385" s="3" t="str">
         <f>VLOOKUP(C385,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4798,8 +4818,8 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A386" s="15"/>
-      <c r="B386" s="15"/>
+      <c r="A386" s="14"/>
+      <c r="B386" s="14"/>
       <c r="D386" s="3" t="str">
         <f>VLOOKUP(C386,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4810,8 +4830,8 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="15"/>
-      <c r="B387" s="15"/>
+      <c r="A387" s="14"/>
+      <c r="B387" s="14"/>
       <c r="D387" s="3" t="str">
         <f>VLOOKUP(C387,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4822,8 +4842,8 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A388" s="15"/>
-      <c r="B388" s="15"/>
+      <c r="A388" s="14"/>
+      <c r="B388" s="14"/>
       <c r="D388" s="3" t="str">
         <f>VLOOKUP(C388,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4834,8 +4854,8 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="15"/>
-      <c r="B389" s="15"/>
+      <c r="A389" s="14"/>
+      <c r="B389" s="14"/>
       <c r="D389" s="3" t="str">
         <f>VLOOKUP(C389,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4846,8 +4866,8 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A390" s="15"/>
-      <c r="B390" s="15"/>
+      <c r="A390" s="14"/>
+      <c r="B390" s="14"/>
       <c r="D390" s="3" t="str">
         <f>VLOOKUP(C390,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4858,8 +4878,8 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A391" s="15"/>
-      <c r="B391" s="15"/>
+      <c r="A391" s="14"/>
+      <c r="B391" s="14"/>
       <c r="D391" s="3" t="str">
         <f>VLOOKUP(C391,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4870,8 +4890,8 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A392" s="15"/>
-      <c r="B392" s="15"/>
+      <c r="A392" s="14"/>
+      <c r="B392" s="14"/>
       <c r="D392" s="3" t="str">
         <f>VLOOKUP(C392,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4882,8 +4902,8 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A393" s="15"/>
-      <c r="B393" s="15"/>
+      <c r="A393" s="14"/>
+      <c r="B393" s="14"/>
       <c r="D393" s="3" t="str">
         <f>VLOOKUP(C393,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4894,8 +4914,8 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A394" s="15"/>
-      <c r="B394" s="15"/>
+      <c r="A394" s="14"/>
+      <c r="B394" s="14"/>
       <c r="D394" s="3" t="str">
         <f>VLOOKUP(C394,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4906,8 +4926,8 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A395" s="15"/>
-      <c r="B395" s="15"/>
+      <c r="A395" s="14"/>
+      <c r="B395" s="14"/>
       <c r="D395" s="3" t="str">
         <f>VLOOKUP(C395,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4918,8 +4938,8 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A396" s="15"/>
-      <c r="B396" s="15"/>
+      <c r="A396" s="14"/>
+      <c r="B396" s="14"/>
       <c r="D396" s="3" t="str">
         <f>VLOOKUP(C396,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4930,8 +4950,8 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A397" s="15"/>
-      <c r="B397" s="15"/>
+      <c r="A397" s="14"/>
+      <c r="B397" s="14"/>
       <c r="D397" s="3" t="str">
         <f>VLOOKUP(C397,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4942,8 +4962,8 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A398" s="15"/>
-      <c r="B398" s="15"/>
+      <c r="A398" s="14"/>
+      <c r="B398" s="14"/>
       <c r="D398" s="3" t="str">
         <f>VLOOKUP(C398,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4954,8 +4974,8 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A399" s="15"/>
-      <c r="B399" s="15"/>
+      <c r="A399" s="14"/>
+      <c r="B399" s="14"/>
       <c r="D399" s="3" t="str">
         <f>VLOOKUP(C399,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4966,8 +4986,8 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A400" s="15"/>
-      <c r="B400" s="15"/>
+      <c r="A400" s="14"/>
+      <c r="B400" s="14"/>
       <c r="D400" s="3" t="str">
         <f>VLOOKUP(C400,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4978,8 +4998,8 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A401" s="15"/>
-      <c r="B401" s="15"/>
+      <c r="A401" s="14"/>
+      <c r="B401" s="14"/>
       <c r="D401" s="3" t="str">
         <f>VLOOKUP(C401,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -4990,8 +5010,8 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A402" s="15"/>
-      <c r="B402" s="15"/>
+      <c r="A402" s="14"/>
+      <c r="B402" s="14"/>
       <c r="D402" s="3" t="str">
         <f>VLOOKUP(C402,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5002,8 +5022,8 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A403" s="15"/>
-      <c r="B403" s="15"/>
+      <c r="A403" s="14"/>
+      <c r="B403" s="14"/>
       <c r="D403" s="3" t="str">
         <f>VLOOKUP(C403,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5014,8 +5034,8 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A404" s="15"/>
-      <c r="B404" s="15"/>
+      <c r="A404" s="14"/>
+      <c r="B404" s="14"/>
       <c r="D404" s="3" t="str">
         <f>VLOOKUP(C404,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5026,8 +5046,8 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A405" s="15"/>
-      <c r="B405" s="15"/>
+      <c r="A405" s="14"/>
+      <c r="B405" s="14"/>
       <c r="D405" s="3" t="str">
         <f>VLOOKUP(C405,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5038,8 +5058,8 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A406" s="15"/>
-      <c r="B406" s="15"/>
+      <c r="A406" s="14"/>
+      <c r="B406" s="14"/>
       <c r="D406" s="3" t="str">
         <f>VLOOKUP(C406,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5050,8 +5070,8 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A407" s="15"/>
-      <c r="B407" s="15"/>
+      <c r="A407" s="14"/>
+      <c r="B407" s="14"/>
       <c r="D407" s="3" t="str">
         <f>VLOOKUP(C407,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5062,8 +5082,8 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A408" s="15"/>
-      <c r="B408" s="15"/>
+      <c r="A408" s="14"/>
+      <c r="B408" s="14"/>
       <c r="D408" s="3" t="str">
         <f>VLOOKUP(C408,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5074,8 +5094,8 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A409" s="15"/>
-      <c r="B409" s="15"/>
+      <c r="A409" s="14"/>
+      <c r="B409" s="14"/>
       <c r="D409" s="3" t="str">
         <f>VLOOKUP(C409,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5086,8 +5106,8 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A410" s="15"/>
-      <c r="B410" s="15"/>
+      <c r="A410" s="14"/>
+      <c r="B410" s="14"/>
       <c r="D410" s="3" t="str">
         <f>VLOOKUP(C410,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5098,8 +5118,8 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A411" s="15"/>
-      <c r="B411" s="15"/>
+      <c r="A411" s="14"/>
+      <c r="B411" s="14"/>
       <c r="D411" s="3" t="str">
         <f>VLOOKUP(C411,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5110,8 +5130,8 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A412" s="15"/>
-      <c r="B412" s="15"/>
+      <c r="A412" s="14"/>
+      <c r="B412" s="14"/>
       <c r="D412" s="3" t="str">
         <f>VLOOKUP(C412,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5122,8 +5142,8 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A413" s="15"/>
-      <c r="B413" s="15"/>
+      <c r="A413" s="14"/>
+      <c r="B413" s="14"/>
       <c r="D413" s="3" t="str">
         <f>VLOOKUP(C413,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5134,8 +5154,8 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414" s="15"/>
-      <c r="B414" s="15"/>
+      <c r="A414" s="14"/>
+      <c r="B414" s="14"/>
       <c r="D414" s="3" t="str">
         <f>VLOOKUP(C414,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5146,8 +5166,8 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A415" s="15"/>
-      <c r="B415" s="15"/>
+      <c r="A415" s="14"/>
+      <c r="B415" s="14"/>
       <c r="D415" s="3" t="str">
         <f>VLOOKUP(C415,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5158,8 +5178,8 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A416" s="15"/>
-      <c r="B416" s="15"/>
+      <c r="A416" s="14"/>
+      <c r="B416" s="14"/>
       <c r="D416" s="3" t="str">
         <f>VLOOKUP(C416,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5170,8 +5190,8 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A417" s="15"/>
-      <c r="B417" s="15"/>
+      <c r="A417" s="14"/>
+      <c r="B417" s="14"/>
       <c r="D417" s="3" t="str">
         <f>VLOOKUP(C417,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5182,8 +5202,8 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A418" s="15"/>
-      <c r="B418" s="15"/>
+      <c r="A418" s="14"/>
+      <c r="B418" s="14"/>
       <c r="D418" s="3" t="str">
         <f>VLOOKUP(C418,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5194,8 +5214,8 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A419" s="15"/>
-      <c r="B419" s="15"/>
+      <c r="A419" s="14"/>
+      <c r="B419" s="14"/>
       <c r="D419" s="3" t="str">
         <f>VLOOKUP(C419,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5206,8 +5226,8 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420" s="15"/>
-      <c r="B420" s="15"/>
+      <c r="A420" s="14"/>
+      <c r="B420" s="14"/>
       <c r="D420" s="3" t="str">
         <f>VLOOKUP(C420,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5218,8 +5238,8 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421" s="15"/>
-      <c r="B421" s="15"/>
+      <c r="A421" s="14"/>
+      <c r="B421" s="14"/>
       <c r="D421" s="3" t="str">
         <f>VLOOKUP(C421,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5230,8 +5250,8 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422" s="15"/>
-      <c r="B422" s="15"/>
+      <c r="A422" s="14"/>
+      <c r="B422" s="14"/>
       <c r="D422" s="3" t="str">
         <f>VLOOKUP(C422,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5242,8 +5262,8 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423" s="15"/>
-      <c r="B423" s="15"/>
+      <c r="A423" s="14"/>
+      <c r="B423" s="14"/>
       <c r="D423" s="3" t="str">
         <f>VLOOKUP(C423,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5254,8 +5274,8 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A424" s="15"/>
-      <c r="B424" s="15"/>
+      <c r="A424" s="14"/>
+      <c r="B424" s="14"/>
       <c r="D424" s="3" t="str">
         <f>VLOOKUP(C424,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5266,8 +5286,8 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A425" s="15"/>
-      <c r="B425" s="15"/>
+      <c r="A425" s="14"/>
+      <c r="B425" s="14"/>
       <c r="D425" s="3" t="str">
         <f>VLOOKUP(C425,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5278,8 +5298,8 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A426" s="15"/>
-      <c r="B426" s="15"/>
+      <c r="A426" s="14"/>
+      <c r="B426" s="14"/>
       <c r="D426" s="3" t="str">
         <f>VLOOKUP(C426,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5290,8 +5310,8 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A427" s="15"/>
-      <c r="B427" s="15"/>
+      <c r="A427" s="14"/>
+      <c r="B427" s="14"/>
       <c r="D427" s="3" t="str">
         <f>VLOOKUP(C427,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5302,8 +5322,8 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A428" s="15"/>
-      <c r="B428" s="15"/>
+      <c r="A428" s="14"/>
+      <c r="B428" s="14"/>
       <c r="D428" s="3" t="str">
         <f>VLOOKUP(C428,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5314,8 +5334,8 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A429" s="15"/>
-      <c r="B429" s="15"/>
+      <c r="A429" s="14"/>
+      <c r="B429" s="14"/>
       <c r="D429" s="3" t="str">
         <f>VLOOKUP(C429,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5326,8 +5346,8 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A430" s="15"/>
-      <c r="B430" s="15"/>
+      <c r="A430" s="14"/>
+      <c r="B430" s="14"/>
       <c r="D430" s="3" t="str">
         <f>VLOOKUP(C430,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5338,8 +5358,8 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A431" s="15"/>
-      <c r="B431" s="15"/>
+      <c r="A431" s="14"/>
+      <c r="B431" s="14"/>
       <c r="D431" s="3" t="str">
         <f>VLOOKUP(C431,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5350,8 +5370,8 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A432" s="15"/>
-      <c r="B432" s="15"/>
+      <c r="A432" s="14"/>
+      <c r="B432" s="14"/>
       <c r="D432" s="3" t="str">
         <f>VLOOKUP(C432,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5362,8 +5382,8 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A433" s="15"/>
-      <c r="B433" s="15"/>
+      <c r="A433" s="14"/>
+      <c r="B433" s="14"/>
       <c r="D433" s="3" t="str">
         <f>VLOOKUP(C433,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5374,8 +5394,8 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A434" s="15"/>
-      <c r="B434" s="15"/>
+      <c r="A434" s="14"/>
+      <c r="B434" s="14"/>
       <c r="D434" s="3" t="str">
         <f>VLOOKUP(C434,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5386,8 +5406,8 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A435" s="15"/>
-      <c r="B435" s="15"/>
+      <c r="A435" s="14"/>
+      <c r="B435" s="14"/>
       <c r="D435" s="3" t="str">
         <f>VLOOKUP(C435,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5398,8 +5418,8 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A436" s="15"/>
-      <c r="B436" s="15"/>
+      <c r="A436" s="14"/>
+      <c r="B436" s="14"/>
       <c r="D436" s="3" t="str">
         <f>VLOOKUP(C436,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5410,8 +5430,8 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A437" s="15"/>
-      <c r="B437" s="15"/>
+      <c r="A437" s="14"/>
+      <c r="B437" s="14"/>
       <c r="D437" s="3" t="str">
         <f>VLOOKUP(C437,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5422,8 +5442,8 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A438" s="15"/>
-      <c r="B438" s="15"/>
+      <c r="A438" s="14"/>
+      <c r="B438" s="14"/>
       <c r="D438" s="3" t="str">
         <f>VLOOKUP(C438,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5434,8 +5454,8 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A439" s="15"/>
-      <c r="B439" s="15"/>
+      <c r="A439" s="14"/>
+      <c r="B439" s="14"/>
       <c r="D439" s="3" t="str">
         <f>VLOOKUP(C439,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5446,8 +5466,8 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A440" s="15"/>
-      <c r="B440" s="15"/>
+      <c r="A440" s="14"/>
+      <c r="B440" s="14"/>
       <c r="D440" s="3" t="str">
         <f>VLOOKUP(C440,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5458,8 +5478,8 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A441" s="15"/>
-      <c r="B441" s="15"/>
+      <c r="A441" s="14"/>
+      <c r="B441" s="14"/>
       <c r="D441" s="3" t="str">
         <f>VLOOKUP(C441,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5470,8 +5490,8 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A442" s="15"/>
-      <c r="B442" s="15"/>
+      <c r="A442" s="14"/>
+      <c r="B442" s="14"/>
       <c r="D442" s="3" t="str">
         <f>VLOOKUP(C442,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5482,8 +5502,8 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A443" s="15"/>
-      <c r="B443" s="15"/>
+      <c r="A443" s="14"/>
+      <c r="B443" s="14"/>
       <c r="D443" s="3" t="str">
         <f>VLOOKUP(C443,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5494,8 +5514,8 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A444" s="15"/>
-      <c r="B444" s="15"/>
+      <c r="A444" s="14"/>
+      <c r="B444" s="14"/>
       <c r="D444" s="3" t="str">
         <f>VLOOKUP(C444,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5506,8 +5526,8 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A445" s="15"/>
-      <c r="B445" s="15"/>
+      <c r="A445" s="14"/>
+      <c r="B445" s="14"/>
       <c r="D445" s="3" t="str">
         <f>VLOOKUP(C445,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5518,8 +5538,8 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A446" s="15"/>
-      <c r="B446" s="15"/>
+      <c r="A446" s="14"/>
+      <c r="B446" s="14"/>
       <c r="D446" s="3" t="str">
         <f>VLOOKUP(C446,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5530,8 +5550,8 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A447" s="15"/>
-      <c r="B447" s="15"/>
+      <c r="A447" s="14"/>
+      <c r="B447" s="14"/>
       <c r="D447" s="3" t="str">
         <f>VLOOKUP(C447,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5542,8 +5562,8 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A448" s="15"/>
-      <c r="B448" s="15"/>
+      <c r="A448" s="14"/>
+      <c r="B448" s="14"/>
       <c r="D448" s="3" t="str">
         <f>VLOOKUP(C448,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5554,8 +5574,8 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A449" s="15"/>
-      <c r="B449" s="15"/>
+      <c r="A449" s="14"/>
+      <c r="B449" s="14"/>
       <c r="D449" s="3" t="str">
         <f>VLOOKUP(C449,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5566,8 +5586,8 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A450" s="15"/>
-      <c r="B450" s="15"/>
+      <c r="A450" s="14"/>
+      <c r="B450" s="14"/>
       <c r="D450" s="3" t="str">
         <f>VLOOKUP(C450,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5578,8 +5598,8 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A451" s="15"/>
-      <c r="B451" s="15"/>
+      <c r="A451" s="14"/>
+      <c r="B451" s="14"/>
       <c r="D451" s="3" t="str">
         <f>VLOOKUP(C451,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5590,8 +5610,8 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A452" s="15"/>
-      <c r="B452" s="15"/>
+      <c r="A452" s="14"/>
+      <c r="B452" s="14"/>
       <c r="D452" s="3" t="str">
         <f>VLOOKUP(C452,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5602,7 +5622,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B453" s="15"/>
+      <c r="B453" s="14"/>
       <c r="D453" s="3" t="str">
         <f>VLOOKUP(C453,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5613,7 +5633,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B454" s="15"/>
+      <c r="B454" s="14"/>
       <c r="D454" s="3" t="str">
         <f>VLOOKUP(C454,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5624,7 +5644,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B455" s="15"/>
+      <c r="B455" s="14"/>
       <c r="D455" s="3" t="str">
         <f>VLOOKUP(C455,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5635,7 +5655,7 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B456" s="15"/>
+      <c r="B456" s="14"/>
       <c r="D456" s="3" t="str">
         <f>VLOOKUP(C456,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5646,7 +5666,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B457" s="15"/>
+      <c r="B457" s="14"/>
       <c r="D457" s="3" t="str">
         <f>VLOOKUP(C457,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5657,7 +5677,7 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B458" s="15"/>
+      <c r="B458" s="14"/>
       <c r="D458" s="3" t="str">
         <f>VLOOKUP(C458,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5668,7 +5688,7 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B459" s="15"/>
+      <c r="B459" s="14"/>
       <c r="D459" s="3" t="str">
         <f>VLOOKUP(C459,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5679,7 +5699,7 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B460" s="15"/>
+      <c r="B460" s="14"/>
       <c r="D460" s="3" t="str">
         <f>VLOOKUP(C460,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5690,7 +5710,7 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B461" s="15"/>
+      <c r="B461" s="14"/>
       <c r="D461" s="3" t="str">
         <f>VLOOKUP(C461,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5701,7 +5721,7 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B462" s="15"/>
+      <c r="B462" s="14"/>
       <c r="D462" s="3" t="str">
         <f>VLOOKUP(C462,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5712,7 +5732,7 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B463" s="15"/>
+      <c r="B463" s="14"/>
       <c r="D463" s="3" t="str">
         <f>VLOOKUP(C463,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5723,7 +5743,7 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B464" s="15"/>
+      <c r="B464" s="14"/>
       <c r="D464" s="3" t="str">
         <f>VLOOKUP(C464,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5734,7 +5754,7 @@
       </c>
     </row>
     <row r="465" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B465" s="15"/>
+      <c r="B465" s="14"/>
       <c r="D465" s="3" t="str">
         <f>VLOOKUP(C465,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5745,7 +5765,7 @@
       </c>
     </row>
     <row r="466" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B466" s="15"/>
+      <c r="B466" s="14"/>
       <c r="D466" s="3" t="str">
         <f>VLOOKUP(C466,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5756,7 +5776,7 @@
       </c>
     </row>
     <row r="467" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B467" s="15"/>
+      <c r="B467" s="14"/>
       <c r="D467" s="3" t="str">
         <f>VLOOKUP(C467,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5767,7 +5787,7 @@
       </c>
     </row>
     <row r="468" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B468" s="15"/>
+      <c r="B468" s="14"/>
       <c r="D468" s="3" t="str">
         <f>VLOOKUP(C468,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5778,7 +5798,7 @@
       </c>
     </row>
     <row r="469" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B469" s="15"/>
+      <c r="B469" s="14"/>
       <c r="D469" s="3" t="str">
         <f>VLOOKUP(C469,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5789,7 +5809,7 @@
       </c>
     </row>
     <row r="470" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B470" s="15"/>
+      <c r="B470" s="14"/>
       <c r="D470" s="3" t="str">
         <f>VLOOKUP(C470,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5800,7 +5820,7 @@
       </c>
     </row>
     <row r="471" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B471" s="15"/>
+      <c r="B471" s="14"/>
       <c r="D471" s="3" t="str">
         <f>VLOOKUP(C471,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5811,7 +5831,7 @@
       </c>
     </row>
     <row r="472" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B472" s="15"/>
+      <c r="B472" s="14"/>
       <c r="D472" s="3" t="str">
         <f>VLOOKUP(C472,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5822,7 +5842,7 @@
       </c>
     </row>
     <row r="473" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B473" s="15"/>
+      <c r="B473" s="14"/>
       <c r="D473" s="3" t="str">
         <f>VLOOKUP(C473,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5833,7 +5853,7 @@
       </c>
     </row>
     <row r="474" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B474" s="15"/>
+      <c r="B474" s="14"/>
       <c r="D474" s="3" t="str">
         <f>VLOOKUP(C474,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5844,7 +5864,7 @@
       </c>
     </row>
     <row r="475" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B475" s="15"/>
+      <c r="B475" s="14"/>
       <c r="D475" s="3" t="str">
         <f>VLOOKUP(C475,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5855,7 +5875,7 @@
       </c>
     </row>
     <row r="476" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B476" s="15"/>
+      <c r="B476" s="14"/>
       <c r="D476" s="3" t="str">
         <f>VLOOKUP(C476,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5866,7 +5886,7 @@
       </c>
     </row>
     <row r="477" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B477" s="15"/>
+      <c r="B477" s="14"/>
       <c r="D477" s="3" t="str">
         <f>VLOOKUP(C477,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5877,7 +5897,7 @@
       </c>
     </row>
     <row r="478" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B478" s="15"/>
+      <c r="B478" s="14"/>
       <c r="D478" s="3" t="str">
         <f>VLOOKUP(C478,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5888,7 +5908,7 @@
       </c>
     </row>
     <row r="479" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B479" s="15"/>
+      <c r="B479" s="14"/>
       <c r="D479" s="3" t="str">
         <f>VLOOKUP(C479,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5899,7 +5919,7 @@
       </c>
     </row>
     <row r="480" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B480" s="15"/>
+      <c r="B480" s="14"/>
       <c r="D480" s="3" t="str">
         <f>VLOOKUP(C480,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5910,7 +5930,7 @@
       </c>
     </row>
     <row r="481" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B481" s="15"/>
+      <c r="B481" s="14"/>
       <c r="D481" s="3" t="str">
         <f>VLOOKUP(C481,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5921,7 +5941,7 @@
       </c>
     </row>
     <row r="482" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B482" s="15"/>
+      <c r="B482" s="14"/>
       <c r="D482" s="3" t="str">
         <f>VLOOKUP(C482,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5932,7 +5952,7 @@
       </c>
     </row>
     <row r="483" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B483" s="15"/>
+      <c r="B483" s="14"/>
       <c r="D483" s="3" t="str">
         <f>VLOOKUP(C483,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -5943,7 +5963,7 @@
       </c>
     </row>
     <row r="484" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B484" s="15"/>
+      <c r="B484" s="14"/>
       <c r="D484" s="3" t="str">
         <f>VLOOKUP(C484,transformatie!$A$2:$E$102,5)</f>
         <v/>
@@ -11127,7 +11147,7 @@
   <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11135,6 +11155,7 @@
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="11"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="19" max="20" width="9.140625" style="4"/>
   </cols>
@@ -11155,7 +11176,7 @@
       <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -11196,11 +11217,12 @@
         <f>IF(OR(B2 &lt; 5, B2 &gt; 6), ROUND(B2 * 2,0)/2, ROUND(B2,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E2" s="12" t="str">
+      <c r="D2"/>
+      <c r="E2" t="str">
         <f>IF(D2 &lt;&gt; "", D2, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C2, IF($L$2 = "hele punten", ROUND(B2,0), IF($L$2 = "halve punten", ROUND(B2 * 2,0)/2, ROUND(B2 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F2" s="16" t="str">
+      <c r="F2" s="18" t="str">
         <f>IF($L$4 &gt; 0, G2 / $L$4 * 100, "")</f>
         <v/>
       </c>
@@ -11212,15 +11234,15 @@
         <f t="shared" ref="H2:H65" si="0">REPT("*",G2)</f>
         <v/>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="14">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13">
         <v>5.5</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="12">
         <v>100</v>
       </c>
       <c r="N2" t="s">
@@ -11247,13 +11269,14 @@
         <f t="shared" ref="C3:C33" si="2">IF(OR(B3 &lt; 5, B3 &gt; 6), ROUND(B3 * 2,0)/2, ROUND(B3,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E3" s="12" t="str">
+      <c r="D3"/>
+      <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="3">IF(D3 &lt;&gt; "", D3, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C3, IF($L$2 = "hele punten", ROUND(B3,0), IF($L$2 = "halve punten", ROUND(B3 * 2,0)/2, ROUND(B3 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F3" s="16" t="str">
-        <f t="shared" ref="F3:F66" si="4">IF($L$4 &gt; 0, G3 / $L$4 * 100, "")</f>
-        <v/>
+      <c r="F3" s="18" t="e">
+        <f>IF($L$4 &gt; 0, G3 / $L$4 * 100, "")+F2</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G3">
         <f>COUNTIF(cijfers!C:C, A3)</f>
@@ -11267,11 +11290,11 @@
         <v>12</v>
       </c>
       <c r="S3" s="4" t="e">
-        <f t="shared" ref="S3:S66" si="5">IF(($I$2-A3)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),0)</f>
+        <f t="shared" ref="S3:S66" si="4">IF(($I$2-A3)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T3" s="4" t="e">
-        <f t="shared" ref="T3:T66" si="6">IF(($I$2-A3)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),1)</f>
+        <f t="shared" ref="T3:T66" si="5">IF(($I$2-A3)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A3)/($I$2-$J$2)*(10-$K$2),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11287,13 +11310,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E4" s="12" t="str">
+      <c r="D4"/>
+      <c r="E4" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F4" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F4" s="18" t="e">
+        <f t="shared" ref="F4:F67" si="6">IF($L$4 &gt; 0, G4 / $L$4 * 100, "")+F3</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G4">
         <f>COUNTIF(cijfers!C:C, A4)</f>
@@ -11314,11 +11338,11 @@
         <v>13</v>
       </c>
       <c r="S4" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11334,13 +11358,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E5" s="12" t="str">
+      <c r="D5"/>
+      <c r="E5" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F5" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F5" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G5">
         <f>COUNTIF(cijfers!C:C, A5)</f>
@@ -11361,11 +11386,11 @@
         <v>14</v>
       </c>
       <c r="S5" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11381,13 +11406,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E6" s="12" t="str">
+      <c r="D6"/>
+      <c r="E6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F6" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F6" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G6">
         <f>COUNTIF(cijfers!C:C, A6)</f>
@@ -11400,7 +11426,7 @@
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="16" t="str">
+      <c r="L6" s="15" t="str">
         <f>IF(L4 &gt; 0, ROUND(L5 / L4 * 100, 0), "")</f>
         <v/>
       </c>
@@ -11408,11 +11434,11 @@
         <v>15</v>
       </c>
       <c r="S6" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11428,13 +11454,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="12" t="str">
+      <c r="D7"/>
+      <c r="E7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F7" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F7" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G7">
         <f>COUNTIF(cijfers!C:C, A7)</f>
@@ -11448,11 +11475,11 @@
         <v>22</v>
       </c>
       <c r="S7" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T7" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11468,13 +11495,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="12" t="str">
+      <c r="D8"/>
+      <c r="E8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F8" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F8" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G8">
         <f>COUNTIF(cijfers!C:C, A8)</f>
@@ -11491,11 +11519,11 @@
         <v>1</v>
       </c>
       <c r="S8" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T8" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11511,13 +11539,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E9" s="12" t="str">
+      <c r="D9"/>
+      <c r="E9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F9" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F9" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G9">
         <f>COUNTIF(cijfers!C:C, A9)</f>
@@ -11528,11 +11557,11 @@
         <v/>
       </c>
       <c r="S9" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T9" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11548,13 +11577,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E10" s="12" t="str">
+      <c r="D10"/>
+      <c r="E10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F10" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F10" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G10">
         <f>COUNTIF(cijfers!C:C, A10)</f>
@@ -11565,11 +11595,11 @@
         <v/>
       </c>
       <c r="S10" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T10" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11585,13 +11615,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E11" s="12" t="str">
+      <c r="D11"/>
+      <c r="E11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F11" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F11" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G11">
         <f>COUNTIF(cijfers!C:C, A11)</f>
@@ -11602,11 +11633,11 @@
         <v/>
       </c>
       <c r="S11" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T11" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11622,13 +11653,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="12" t="str">
+      <c r="D12"/>
+      <c r="E12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F12" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G12">
         <f>COUNTIF(cijfers!C:C, A12)</f>
@@ -11639,11 +11671,11 @@
         <v/>
       </c>
       <c r="S12" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11659,13 +11691,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E13" s="12" t="str">
+      <c r="D13"/>
+      <c r="E13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F13" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G13">
         <f>COUNTIF(cijfers!C:C, A13)</f>
@@ -11676,11 +11709,11 @@
         <v/>
       </c>
       <c r="S13" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T13" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11696,13 +11729,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E14" s="12" t="str">
+      <c r="D14"/>
+      <c r="E14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F14" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F14" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G14">
         <f>COUNTIF(cijfers!C:C, A14)</f>
@@ -11713,11 +11747,11 @@
         <v/>
       </c>
       <c r="S14" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11733,13 +11767,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="12" t="str">
+      <c r="D15"/>
+      <c r="E15" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F15" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F15" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G15">
         <f>COUNTIF(cijfers!C:C, A15)</f>
@@ -11750,11 +11785,11 @@
         <v/>
       </c>
       <c r="S15" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11770,13 +11805,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E16" s="12" t="str">
+      <c r="D16"/>
+      <c r="E16" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F16" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F16" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G16">
         <f>COUNTIF(cijfers!C:C, A16)</f>
@@ -11787,11 +11823,11 @@
         <v/>
       </c>
       <c r="S16" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11807,13 +11843,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="12" t="str">
+      <c r="D17"/>
+      <c r="E17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F17" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F17" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G17">
         <f>COUNTIF(cijfers!C:C, A17)</f>
@@ -11824,11 +11861,11 @@
         <v/>
       </c>
       <c r="S17" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11844,13 +11881,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="12" t="str">
+      <c r="D18"/>
+      <c r="E18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F18" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F18" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G18">
         <f>COUNTIF(cijfers!C:C, A18)</f>
@@ -11861,11 +11899,11 @@
         <v/>
       </c>
       <c r="S18" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11881,13 +11919,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="12" t="str">
+      <c r="D19"/>
+      <c r="E19" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F19" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F19" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G19">
         <f>COUNTIF(cijfers!C:C, A19)</f>
@@ -11898,11 +11937,11 @@
         <v/>
       </c>
       <c r="S19" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11918,13 +11957,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="12" t="str">
+      <c r="D20"/>
+      <c r="E20" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F20" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F20" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G20">
         <f>COUNTIF(cijfers!C:C, A20)</f>
@@ -11935,11 +11975,11 @@
         <v/>
       </c>
       <c r="S20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11955,13 +11995,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="12" t="str">
+      <c r="D21"/>
+      <c r="E21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F21" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F21" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G21">
         <f>COUNTIF(cijfers!C:C, A21)</f>
@@ -11972,11 +12013,11 @@
         <v/>
       </c>
       <c r="S21" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11992,13 +12033,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="12" t="str">
+      <c r="D22"/>
+      <c r="E22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F22" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F22" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G22">
         <f>COUNTIF(cijfers!C:C, A22)</f>
@@ -12009,11 +12051,11 @@
         <v/>
       </c>
       <c r="S22" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12029,13 +12071,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="12" t="str">
+      <c r="D23"/>
+      <c r="E23" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F23" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F23" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G23">
         <f>COUNTIF(cijfers!C:C, A23)</f>
@@ -12046,11 +12089,11 @@
         <v/>
       </c>
       <c r="S23" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12066,13 +12109,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="12" t="str">
+      <c r="D24"/>
+      <c r="E24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F24" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F24" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G24">
         <f>COUNTIF(cijfers!C:C, A24)</f>
@@ -12083,11 +12127,11 @@
         <v/>
       </c>
       <c r="S24" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12103,13 +12147,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E25" s="12" t="str">
+      <c r="D25"/>
+      <c r="E25" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F25" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F25" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G25">
         <f>COUNTIF(cijfers!C:C, A25)</f>
@@ -12120,11 +12165,11 @@
         <v/>
       </c>
       <c r="S25" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12140,13 +12185,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="12" t="str">
+      <c r="D26"/>
+      <c r="E26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F26" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F26" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G26">
         <f>COUNTIF(cijfers!C:C, A26)</f>
@@ -12157,11 +12203,11 @@
         <v/>
       </c>
       <c r="S26" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12177,13 +12223,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="D27"/>
+      <c r="E27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F27" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F27" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G27">
         <f>COUNTIF(cijfers!C:C, A27)</f>
@@ -12194,11 +12241,11 @@
         <v/>
       </c>
       <c r="S27" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12214,13 +12261,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="12" t="str">
+      <c r="D28"/>
+      <c r="E28" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F28" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F28" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G28">
         <f>COUNTIF(cijfers!C:C, A28)</f>
@@ -12231,11 +12279,11 @@
         <v/>
       </c>
       <c r="S28" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12251,13 +12299,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="12" t="str">
+      <c r="D29"/>
+      <c r="E29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F29" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F29" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G29">
         <f>COUNTIF(cijfers!C:C, A29)</f>
@@ -12268,11 +12317,11 @@
         <v/>
       </c>
       <c r="S29" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12288,13 +12337,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="12" t="str">
+      <c r="D30"/>
+      <c r="E30" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F30" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F30" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G30">
         <f>COUNTIF(cijfers!C:C, A30)</f>
@@ -12305,11 +12355,11 @@
         <v/>
       </c>
       <c r="S30" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12325,13 +12375,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="12" t="str">
+      <c r="D31"/>
+      <c r="E31" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F31" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F31" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G31">
         <f>COUNTIF(cijfers!C:C, A31)</f>
@@ -12342,11 +12393,11 @@
         <v/>
       </c>
       <c r="S31" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12362,13 +12413,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="12" t="str">
+      <c r="D32"/>
+      <c r="E32" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F32" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F32" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G32">
         <f>COUNTIF(cijfers!C:C, A32)</f>
@@ -12379,11 +12431,11 @@
         <v/>
       </c>
       <c r="S32" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12399,13 +12451,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="12" t="str">
+      <c r="D33"/>
+      <c r="E33" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F33" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F33" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G33">
         <f>COUNTIF(cijfers!C:C, A33)</f>
@@ -12416,11 +12469,11 @@
         <v/>
       </c>
       <c r="S33" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12436,13 +12489,14 @@
         <f t="shared" ref="C34:C65" si="7">IF(OR(B34 &lt; 5, B34 &gt; 6), ROUND(B34 * 2,0)/2, ROUND(B34,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="12" t="str">
+      <c r="D34"/>
+      <c r="E34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F34" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F34" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G34">
         <f>COUNTIF(cijfers!C:C, A34)</f>
@@ -12453,11 +12507,11 @@
         <v/>
       </c>
       <c r="S34" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12473,13 +12527,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="12" t="str">
+      <c r="D35"/>
+      <c r="E35" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F35" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F35" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G35">
         <f>COUNTIF(cijfers!C:C, A35)</f>
@@ -12490,11 +12545,11 @@
         <v/>
       </c>
       <c r="S35" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12510,13 +12565,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="12" t="str">
+      <c r="D36"/>
+      <c r="E36" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F36" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F36" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G36">
         <f>COUNTIF(cijfers!C:C, A36)</f>
@@ -12527,11 +12583,11 @@
         <v/>
       </c>
       <c r="S36" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12547,13 +12603,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="12" t="str">
+      <c r="D37"/>
+      <c r="E37" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F37" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F37" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G37">
         <f>COUNTIF(cijfers!C:C, A37)</f>
@@ -12564,11 +12621,11 @@
         <v/>
       </c>
       <c r="S37" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T37" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12584,13 +12641,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="12" t="str">
+      <c r="D38"/>
+      <c r="E38" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F38" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F38" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G38">
         <f>COUNTIF(cijfers!C:C, A38)</f>
@@ -12601,11 +12659,11 @@
         <v/>
       </c>
       <c r="S38" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12621,13 +12679,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="12" t="str">
+      <c r="D39"/>
+      <c r="E39" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F39" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F39" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G39">
         <f>COUNTIF(cijfers!C:C, A39)</f>
@@ -12638,11 +12697,11 @@
         <v/>
       </c>
       <c r="S39" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12658,13 +12717,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="12" t="str">
+      <c r="D40"/>
+      <c r="E40" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F40" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F40" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G40">
         <f>COUNTIF(cijfers!C:C, A40)</f>
@@ -12675,11 +12735,11 @@
         <v/>
       </c>
       <c r="S40" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T40" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12695,13 +12755,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="12" t="str">
+      <c r="D41"/>
+      <c r="E41" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F41" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F41" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G41">
         <f>COUNTIF(cijfers!C:C, A41)</f>
@@ -12712,11 +12773,11 @@
         <v/>
       </c>
       <c r="S41" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T41" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12732,13 +12793,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="12" t="str">
+      <c r="D42"/>
+      <c r="E42" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F42" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F42" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G42">
         <f>COUNTIF(cijfers!C:C, A42)</f>
@@ -12749,11 +12811,11 @@
         <v/>
       </c>
       <c r="S42" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T42" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12769,13 +12831,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="12" t="str">
+      <c r="D43"/>
+      <c r="E43" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F43" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F43" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G43">
         <f>COUNTIF(cijfers!C:C, A43)</f>
@@ -12786,11 +12849,11 @@
         <v/>
       </c>
       <c r="S43" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T43" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12806,13 +12869,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="12" t="str">
+      <c r="D44"/>
+      <c r="E44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F44" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F44" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G44">
         <f>COUNTIF(cijfers!C:C, A44)</f>
@@ -12823,11 +12887,11 @@
         <v/>
       </c>
       <c r="S44" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T44" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12843,13 +12907,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E45" s="12" t="str">
+      <c r="D45"/>
+      <c r="E45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F45" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F45" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G45">
         <f>COUNTIF(cijfers!C:C, A45)</f>
@@ -12860,11 +12925,11 @@
         <v/>
       </c>
       <c r="S45" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T45" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12880,13 +12945,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E46" s="12" t="str">
+      <c r="D46"/>
+      <c r="E46" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F46" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F46" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G46">
         <f>COUNTIF(cijfers!C:C, A46)</f>
@@ -12897,11 +12963,11 @@
         <v/>
       </c>
       <c r="S46" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12917,13 +12983,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E47" s="12" t="str">
+      <c r="D47"/>
+      <c r="E47" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F47" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F47" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G47">
         <f>COUNTIF(cijfers!C:C, A47)</f>
@@ -12934,11 +13001,11 @@
         <v/>
       </c>
       <c r="S47" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T47" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12954,13 +13021,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E48" s="12" t="str">
+      <c r="D48"/>
+      <c r="E48" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F48" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F48" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G48">
         <f>COUNTIF(cijfers!C:C, A48)</f>
@@ -12971,11 +13039,11 @@
         <v/>
       </c>
       <c r="S48" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T48" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -12991,13 +13059,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="12" t="str">
+      <c r="D49"/>
+      <c r="E49" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F49" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F49" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G49">
         <f>COUNTIF(cijfers!C:C, A49)</f>
@@ -13008,11 +13077,11 @@
         <v/>
       </c>
       <c r="S49" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T49" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13028,13 +13097,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="12" t="str">
+      <c r="D50"/>
+      <c r="E50" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F50" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F50" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G50">
         <f>COUNTIF(cijfers!C:C, A50)</f>
@@ -13045,11 +13115,11 @@
         <v/>
       </c>
       <c r="S50" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T50" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13065,13 +13135,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="12" t="str">
+      <c r="D51"/>
+      <c r="E51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F51" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F51" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G51">
         <f>COUNTIF(cijfers!C:C, A51)</f>
@@ -13082,11 +13153,11 @@
         <v/>
       </c>
       <c r="S51" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T51" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T51" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13102,13 +13173,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E52" s="12" t="str">
+      <c r="D52"/>
+      <c r="E52" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F52" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F52" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G52">
         <f>COUNTIF(cijfers!C:C, A52)</f>
@@ -13119,11 +13191,11 @@
         <v/>
       </c>
       <c r="S52" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T52" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13139,13 +13211,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E53" s="12" t="str">
+      <c r="D53"/>
+      <c r="E53" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F53" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F53" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G53">
         <f>COUNTIF(cijfers!C:C, A53)</f>
@@ -13156,11 +13229,11 @@
         <v/>
       </c>
       <c r="S53" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T53" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T53" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13176,13 +13249,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E54" s="12" t="str">
+      <c r="D54"/>
+      <c r="E54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F54" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F54" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G54">
         <f>COUNTIF(cijfers!C:C, A54)</f>
@@ -13193,11 +13267,11 @@
         <v/>
       </c>
       <c r="S54" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T54" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T54" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13213,13 +13287,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E55" s="12" t="str">
+      <c r="D55"/>
+      <c r="E55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F55" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F55" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G55">
         <f>COUNTIF(cijfers!C:C, A55)</f>
@@ -13230,11 +13305,11 @@
         <v/>
       </c>
       <c r="S55" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T55" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T55" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13250,13 +13325,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E56" s="12" t="str">
+      <c r="D56"/>
+      <c r="E56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F56" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F56" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G56">
         <f>COUNTIF(cijfers!C:C, A56)</f>
@@ -13267,11 +13343,11 @@
         <v/>
       </c>
       <c r="S56" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T56" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13287,13 +13363,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E57" s="12" t="str">
+      <c r="D57"/>
+      <c r="E57" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F57" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F57" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G57">
         <f>COUNTIF(cijfers!C:C, A57)</f>
@@ -13304,11 +13381,11 @@
         <v/>
       </c>
       <c r="S57" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T57" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13324,13 +13401,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E58" s="12" t="str">
+      <c r="D58"/>
+      <c r="E58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F58" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F58" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G58">
         <f>COUNTIF(cijfers!C:C, A58)</f>
@@ -13341,11 +13419,11 @@
         <v/>
       </c>
       <c r="S58" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T58" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T58" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13361,13 +13439,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E59" s="12" t="str">
+      <c r="D59"/>
+      <c r="E59" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F59" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F59" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G59">
         <f>COUNTIF(cijfers!C:C, A59)</f>
@@ -13378,11 +13457,11 @@
         <v/>
       </c>
       <c r="S59" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T59" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T59" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13398,13 +13477,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E60" s="12" t="str">
+      <c r="D60"/>
+      <c r="E60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F60" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F60" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G60">
         <f>COUNTIF(cijfers!C:C, A60)</f>
@@ -13415,11 +13495,11 @@
         <v/>
       </c>
       <c r="S60" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T60" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T60" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13435,13 +13515,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E61" s="12" t="str">
+      <c r="D61"/>
+      <c r="E61" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F61" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F61" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G61">
         <f>COUNTIF(cijfers!C:C, A61)</f>
@@ -13452,11 +13533,11 @@
         <v/>
       </c>
       <c r="S61" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T61" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T61" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13472,13 +13553,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E62" s="12" t="str">
+      <c r="D62"/>
+      <c r="E62" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F62" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F62" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G62">
         <f>COUNTIF(cijfers!C:C, A62)</f>
@@ -13489,11 +13571,11 @@
         <v/>
       </c>
       <c r="S62" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T62" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T62" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13509,13 +13591,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E63" s="12" t="str">
+      <c r="D63"/>
+      <c r="E63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F63" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F63" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G63">
         <f>COUNTIF(cijfers!C:C, A63)</f>
@@ -13526,11 +13609,11 @@
         <v/>
       </c>
       <c r="S63" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T63" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T63" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13546,13 +13629,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E64" s="12" t="str">
+      <c r="D64"/>
+      <c r="E64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F64" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F64" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G64">
         <f>COUNTIF(cijfers!C:C, A64)</f>
@@ -13563,11 +13647,11 @@
         <v/>
       </c>
       <c r="S64" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T64" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T64" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13583,13 +13667,14 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E65" s="12" t="str">
+      <c r="D65"/>
+      <c r="E65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F65" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F65" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G65">
         <f>COUNTIF(cijfers!C:C, A65)</f>
@@ -13600,11 +13685,11 @@
         <v/>
       </c>
       <c r="S65" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T65" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T65" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13620,13 +13705,14 @@
         <f t="shared" ref="C66:C97" si="8">IF(OR(B66 &lt; 5, B66 &gt; 6), ROUND(B66 * 2,0)/2, ROUND(B66,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E66" s="12" t="str">
+      <c r="D66"/>
+      <c r="E66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F66" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="F66" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G66">
         <f>COUNTIF(cijfers!C:C, A66)</f>
@@ -13637,11 +13723,11 @@
         <v/>
       </c>
       <c r="S66" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T66" s="4" t="e">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T66" s="4" t="e">
-        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13657,13 +13743,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E67" s="12" t="str">
+      <c r="D67"/>
+      <c r="E67" t="str">
         <f t="shared" ref="E67:E102" si="11">IF(D67 &lt;&gt; "", D67, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C67, IF($L$2 = "hele punten", ROUND(B67,0), IF($L$2 = "halve punten", ROUND(B67 * 2,0)/2, ROUND(B67 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F67" s="16" t="str">
-        <f t="shared" ref="F67:F102" si="12">IF($L$4 &gt; 0, G67 / $L$4 * 100, "")</f>
-        <v/>
+      <c r="F67" s="18" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G67">
         <f>COUNTIF(cijfers!C:C, A67)</f>
@@ -13674,11 +13761,11 @@
         <v/>
       </c>
       <c r="S67" s="4" t="e">
-        <f t="shared" ref="S67:S102" si="13">IF(($I$2-A67)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),0)</f>
+        <f t="shared" ref="S67:S102" si="12">IF(($I$2-A67)/($I$2-$J$2) &lt;= 10/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),0)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T67" s="4" t="e">
-        <f t="shared" ref="T67:T102" si="14">IF(($I$2-A67)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),1)</f>
+        <f t="shared" ref="T67:T102" si="13">IF(($I$2-A67)/($I$2-$J$2) &lt;= 9/(10-$K$2),10-($I$2-A67)/($I$2-$J$2)*(10-$K$2),1)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13694,13 +13781,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E68" s="12" t="str">
+      <c r="D68"/>
+      <c r="E68" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F68" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F68" s="18" t="e">
+        <f t="shared" ref="F68:F130" si="14">IF($L$4 &gt; 0, G68 / $L$4 * 100, "")+F67</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G68">
         <f>COUNTIF(cijfers!C:C, A68)</f>
@@ -13711,11 +13799,11 @@
         <v/>
       </c>
       <c r="S68" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T68" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T68" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13731,13 +13819,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E69" s="12" t="str">
+      <c r="D69"/>
+      <c r="E69" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F69" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F69" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G69">
         <f>COUNTIF(cijfers!C:C, A69)</f>
@@ -13748,11 +13837,11 @@
         <v/>
       </c>
       <c r="S69" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T69" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T69" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13768,13 +13857,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E70" s="12" t="str">
+      <c r="D70"/>
+      <c r="E70" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F70" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F70" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G70">
         <f>COUNTIF(cijfers!C:C, A70)</f>
@@ -13785,11 +13875,11 @@
         <v/>
       </c>
       <c r="S70" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T70" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T70" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13805,13 +13895,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E71" s="12" t="str">
+      <c r="D71"/>
+      <c r="E71" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F71" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F71" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G71">
         <f>COUNTIF(cijfers!C:C, A71)</f>
@@ -13822,11 +13913,11 @@
         <v/>
       </c>
       <c r="S71" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T71" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T71" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13842,13 +13933,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="12" t="str">
+      <c r="D72"/>
+      <c r="E72" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F72" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F72" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G72">
         <f>COUNTIF(cijfers!C:C, A72)</f>
@@ -13859,11 +13951,11 @@
         <v/>
       </c>
       <c r="S72" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T72" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T72" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13879,13 +13971,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E73" s="12" t="str">
+      <c r="D73"/>
+      <c r="E73" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F73" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F73" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G73">
         <f>COUNTIF(cijfers!C:C, A73)</f>
@@ -13896,11 +13989,11 @@
         <v/>
       </c>
       <c r="S73" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T73" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T73" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13916,13 +14009,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E74" s="12" t="str">
+      <c r="D74"/>
+      <c r="E74" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F74" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F74" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G74">
         <f>COUNTIF(cijfers!C:C, A74)</f>
@@ -13933,11 +14027,11 @@
         <v/>
       </c>
       <c r="S74" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T74" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T74" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13953,13 +14047,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="12" t="str">
+      <c r="D75"/>
+      <c r="E75" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F75" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F75" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G75">
         <f>COUNTIF(cijfers!C:C, A75)</f>
@@ -13970,11 +14065,11 @@
         <v/>
       </c>
       <c r="S75" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T75" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T75" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13990,13 +14085,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E76" s="12" t="str">
+      <c r="D76"/>
+      <c r="E76" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F76" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F76" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G76">
         <f>COUNTIF(cijfers!C:C, A76)</f>
@@ -14007,11 +14103,11 @@
         <v/>
       </c>
       <c r="S76" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T76" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T76" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14027,13 +14123,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="12" t="str">
+      <c r="D77"/>
+      <c r="E77" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F77" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F77" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G77">
         <f>COUNTIF(cijfers!C:C, A77)</f>
@@ -14044,11 +14141,11 @@
         <v/>
       </c>
       <c r="S77" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T77" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T77" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14064,13 +14161,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E78" s="12" t="str">
+      <c r="D78"/>
+      <c r="E78" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F78" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F78" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G78">
         <f>COUNTIF(cijfers!C:C, A78)</f>
@@ -14081,11 +14179,11 @@
         <v/>
       </c>
       <c r="S78" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T78" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T78" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14101,13 +14199,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E79" s="12" t="str">
+      <c r="D79"/>
+      <c r="E79" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F79" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F79" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G79">
         <f>COUNTIF(cijfers!C:C, A79)</f>
@@ -14118,11 +14217,11 @@
         <v/>
       </c>
       <c r="S79" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T79" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T79" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14138,13 +14237,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E80" s="12" t="str">
+      <c r="D80"/>
+      <c r="E80" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F80" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F80" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G80">
         <f>COUNTIF(cijfers!C:C, A80)</f>
@@ -14155,11 +14255,11 @@
         <v/>
       </c>
       <c r="S80" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T80" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T80" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14175,13 +14275,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E81" s="12" t="str">
+      <c r="D81"/>
+      <c r="E81" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F81" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F81" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G81">
         <f>COUNTIF(cijfers!C:C, A81)</f>
@@ -14192,11 +14293,11 @@
         <v/>
       </c>
       <c r="S81" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T81" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T81" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14212,13 +14313,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E82" s="12" t="str">
+      <c r="D82"/>
+      <c r="E82" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F82" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F82" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G82">
         <f>COUNTIF(cijfers!C:C, A82)</f>
@@ -14229,11 +14331,11 @@
         <v/>
       </c>
       <c r="S82" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T82" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T82" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14249,13 +14351,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E83" s="12" t="str">
+      <c r="D83"/>
+      <c r="E83" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F83" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F83" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G83">
         <f>COUNTIF(cijfers!C:C, A83)</f>
@@ -14266,11 +14369,11 @@
         <v/>
       </c>
       <c r="S83" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T83" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T83" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14286,13 +14389,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E84" s="12" t="str">
+      <c r="D84"/>
+      <c r="E84" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F84" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F84" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G84">
         <f>COUNTIF(cijfers!C:C, A84)</f>
@@ -14303,11 +14407,11 @@
         <v/>
       </c>
       <c r="S84" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T84" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T84" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14323,13 +14427,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E85" s="12" t="str">
+      <c r="D85"/>
+      <c r="E85" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F85" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F85" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G85">
         <f>COUNTIF(cijfers!C:C, A85)</f>
@@ -14340,11 +14445,11 @@
         <v/>
       </c>
       <c r="S85" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T85" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T85" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14360,13 +14465,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E86" s="12" t="str">
+      <c r="D86"/>
+      <c r="E86" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F86" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F86" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G86">
         <f>COUNTIF(cijfers!C:C, A86)</f>
@@ -14377,11 +14483,11 @@
         <v/>
       </c>
       <c r="S86" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T86" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T86" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14397,13 +14503,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E87" s="12" t="str">
+      <c r="D87"/>
+      <c r="E87" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F87" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F87" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G87">
         <f>COUNTIF(cijfers!C:C, A87)</f>
@@ -14414,11 +14521,11 @@
         <v/>
       </c>
       <c r="S87" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T87" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T87" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14434,13 +14541,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E88" s="12" t="str">
+      <c r="D88"/>
+      <c r="E88" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F88" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F88" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G88">
         <f>COUNTIF(cijfers!C:C, A88)</f>
@@ -14451,11 +14559,11 @@
         <v/>
       </c>
       <c r="S88" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T88" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T88" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14471,13 +14579,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E89" s="12" t="str">
+      <c r="D89"/>
+      <c r="E89" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F89" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F89" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G89">
         <f>COUNTIF(cijfers!C:C, A89)</f>
@@ -14488,11 +14597,11 @@
         <v/>
       </c>
       <c r="S89" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T89" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T89" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14508,13 +14617,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E90" s="12" t="str">
+      <c r="D90"/>
+      <c r="E90" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F90" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F90" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G90">
         <f>COUNTIF(cijfers!C:C, A90)</f>
@@ -14525,11 +14635,11 @@
         <v/>
       </c>
       <c r="S90" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T90" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T90" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14545,13 +14655,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E91" s="12" t="str">
+      <c r="D91"/>
+      <c r="E91" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F91" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F91" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G91">
         <f>COUNTIF(cijfers!C:C, A91)</f>
@@ -14562,11 +14673,11 @@
         <v/>
       </c>
       <c r="S91" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T91" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T91" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14582,13 +14693,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E92" s="12" t="str">
+      <c r="D92"/>
+      <c r="E92" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F92" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F92" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G92">
         <f>COUNTIF(cijfers!C:C, A92)</f>
@@ -14599,11 +14711,11 @@
         <v/>
       </c>
       <c r="S92" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T92" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T92" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14619,13 +14731,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E93" s="12" t="str">
+      <c r="D93"/>
+      <c r="E93" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F93" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F93" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G93">
         <f>COUNTIF(cijfers!C:C, A93)</f>
@@ -14636,11 +14749,11 @@
         <v/>
       </c>
       <c r="S93" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T93" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T93" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14656,13 +14769,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E94" s="12" t="str">
+      <c r="D94"/>
+      <c r="E94" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F94" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F94" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G94">
         <f>COUNTIF(cijfers!C:C, A94)</f>
@@ -14673,11 +14787,11 @@
         <v/>
       </c>
       <c r="S94" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T94" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T94" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14693,13 +14807,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E95" s="12" t="str">
+      <c r="D95"/>
+      <c r="E95" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F95" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F95" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G95">
         <f>COUNTIF(cijfers!C:C, A95)</f>
@@ -14710,11 +14825,11 @@
         <v/>
       </c>
       <c r="S95" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T95" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T95" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14730,13 +14845,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E96" s="12" t="str">
+      <c r="D96"/>
+      <c r="E96" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F96" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F96" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G96">
         <f>COUNTIF(cijfers!C:C, A96)</f>
@@ -14747,11 +14863,11 @@
         <v/>
       </c>
       <c r="S96" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T96" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T96" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14767,13 +14883,14 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E97" s="12" t="str">
+      <c r="D97"/>
+      <c r="E97" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F97" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F97" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G97">
         <f>COUNTIF(cijfers!C:C, A97)</f>
@@ -14784,11 +14901,11 @@
         <v/>
       </c>
       <c r="S97" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T97" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T97" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14804,13 +14921,14 @@
         <f>IF(OR(B98 &lt; 5, B98 &gt; 6), ROUND(B98 * 2,0)/2, ROUND(B98,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E98" s="12" t="str">
+      <c r="D98"/>
+      <c r="E98" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F98" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F98" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G98">
         <f>COUNTIF(cijfers!C:C, A98)</f>
@@ -14821,11 +14939,11 @@
         <v/>
       </c>
       <c r="S98" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T98" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T98" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14841,13 +14959,14 @@
         <f>IF(OR(B99 &lt; 5, B99 &gt; 6), ROUND(B99 * 2,0)/2, ROUND(B99,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E99" s="12" t="str">
+      <c r="D99"/>
+      <c r="E99" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F99" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F99" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G99">
         <f>COUNTIF(cijfers!C:C, A99)</f>
@@ -14858,11 +14977,11 @@
         <v/>
       </c>
       <c r="S99" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T99" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T99" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14878,13 +14997,14 @@
         <f>IF(OR(B100 &lt; 5, B100 &gt; 6), ROUND(B100 * 2,0)/2, ROUND(B100,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E100" s="12" t="str">
+      <c r="D100"/>
+      <c r="E100" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F100" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F100" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G100">
         <f>COUNTIF(cijfers!C:C, A100)</f>
@@ -14895,11 +15015,11 @@
         <v/>
       </c>
       <c r="S100" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T100" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T100" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14915,13 +15035,14 @@
         <f>IF(OR(B101 &lt; 5, B101 &gt; 6), ROUND(B101 * 2,0)/2, ROUND(B101,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E101" s="12" t="str">
+      <c r="D101"/>
+      <c r="E101" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F101" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F101" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G101">
         <f>COUNTIF(cijfers!C:C, A101)</f>
@@ -14932,11 +15053,11 @@
         <v/>
       </c>
       <c r="S101" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T101" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T101" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14952,13 +15073,14 @@
         <f>IF(OR(B102 &lt; 5, B102 &gt; 6), ROUND(B102 * 2,0)/2, ROUND(B102,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E102" s="12" t="str">
+      <c r="D102"/>
+      <c r="E102" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F102" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="F102" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G102">
         <f>COUNTIF(cijfers!C:C, A102)</f>
@@ -14969,11 +15091,11 @@
         <v/>
       </c>
       <c r="S102" s="4" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T102" s="4" t="e">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T102" s="4" t="e">
-        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14989,13 +15111,14 @@
         <f t="shared" ref="C103:C130" si="16">IF(OR(B103 &lt; 5, B103 &gt; 6), ROUND(B103 * 2,0)/2, ROUND(B103,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E103" s="12" t="str">
+      <c r="D103"/>
+      <c r="E103" t="str">
         <f t="shared" ref="E103:E130" si="17">IF(D103 &lt;&gt; "", D103, IF($J$2 = "", "", IF($L$2 = "VU-afronding", C103, IF($L$2 = "hele punten", ROUND(B103,0), IF($L$2 = "halve punten", ROUND(B103 * 2,0)/2, ROUND(B103 * 10,0)/10)))))</f>
         <v/>
       </c>
-      <c r="F103" s="16" t="str">
-        <f t="shared" ref="F103:F130" si="18">IF($L$4 &gt; 0, G103 / $L$4 * 100, "")</f>
-        <v/>
+      <c r="F103" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G103">
         <f>COUNTIF(cijfers!C:C, A103)</f>
@@ -15014,13 +15137,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E104" s="12" t="str">
+      <c r="D104"/>
+      <c r="E104" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F104" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F104" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G104">
         <f>COUNTIF(cijfers!C:C, A104)</f>
@@ -15039,13 +15163,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E105" s="12" t="str">
+      <c r="D105"/>
+      <c r="E105" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F105" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F105" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G105">
         <f>COUNTIF(cijfers!C:C, A105)</f>
@@ -15064,13 +15189,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E106" s="12" t="str">
+      <c r="D106"/>
+      <c r="E106" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F106" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F106" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G106">
         <f>COUNTIF(cijfers!C:C, A106)</f>
@@ -15089,13 +15215,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E107" s="12" t="str">
+      <c r="D107"/>
+      <c r="E107" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F107" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F107" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G107">
         <f>COUNTIF(cijfers!C:C, A107)</f>
@@ -15114,13 +15241,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E108" s="12" t="str">
+      <c r="D108"/>
+      <c r="E108" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F108" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F108" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G108">
         <f>COUNTIF(cijfers!C:C, A108)</f>
@@ -15139,13 +15267,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E109" s="12" t="str">
+      <c r="D109"/>
+      <c r="E109" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F109" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F109" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G109">
         <f>COUNTIF(cijfers!C:C, A109)</f>
@@ -15164,13 +15293,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E110" s="12" t="str">
+      <c r="D110"/>
+      <c r="E110" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F110" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F110" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G110">
         <f>COUNTIF(cijfers!C:C, A110)</f>
@@ -15189,13 +15319,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E111" s="12" t="str">
+      <c r="D111"/>
+      <c r="E111" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F111" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F111" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G111">
         <f>COUNTIF(cijfers!C:C, A111)</f>
@@ -15214,13 +15345,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E112" s="12" t="str">
+      <c r="D112"/>
+      <c r="E112" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F112" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F112" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G112">
         <f>COUNTIF(cijfers!C:C, A112)</f>
@@ -15239,13 +15371,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E113" s="12" t="str">
+      <c r="D113"/>
+      <c r="E113" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F113" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F113" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G113">
         <f>COUNTIF(cijfers!C:C, A113)</f>
@@ -15264,13 +15397,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E114" s="12" t="str">
+      <c r="D114"/>
+      <c r="E114" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F114" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F114" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G114">
         <f>COUNTIF(cijfers!C:C, A114)</f>
@@ -15289,13 +15423,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E115" s="12" t="str">
+      <c r="D115"/>
+      <c r="E115" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F115" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F115" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G115">
         <f>COUNTIF(cijfers!C:C, A115)</f>
@@ -15314,13 +15449,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E116" s="12" t="str">
+      <c r="D116"/>
+      <c r="E116" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F116" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F116" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G116">
         <f>COUNTIF(cijfers!C:C, A116)</f>
@@ -15339,13 +15475,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E117" s="12" t="str">
+      <c r="D117"/>
+      <c r="E117" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F117" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F117" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G117">
         <f>COUNTIF(cijfers!C:C, A117)</f>
@@ -15364,13 +15501,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E118" s="12" t="str">
+      <c r="D118"/>
+      <c r="E118" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F118" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F118" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G118">
         <f>COUNTIF(cijfers!C:C, A118)</f>
@@ -15389,13 +15527,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E119" s="12" t="str">
+      <c r="D119"/>
+      <c r="E119" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F119" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F119" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G119">
         <f>COUNTIF(cijfers!C:C, A119)</f>
@@ -15414,13 +15553,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E120" s="12" t="str">
+      <c r="D120"/>
+      <c r="E120" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F120" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F120" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G120">
         <f>COUNTIF(cijfers!C:C, A120)</f>
@@ -15439,13 +15579,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E121" s="12" t="str">
+      <c r="D121"/>
+      <c r="E121" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F121" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F121" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G121">
         <f>COUNTIF(cijfers!C:C, A121)</f>
@@ -15464,13 +15605,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E122" s="12" t="str">
+      <c r="D122"/>
+      <c r="E122" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F122" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F122" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G122">
         <f>COUNTIF(cijfers!C:C, A122)</f>
@@ -15489,13 +15631,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E123" s="12" t="str">
+      <c r="D123"/>
+      <c r="E123" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F123" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F123" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G123">
         <f>COUNTIF(cijfers!C:C, A123)</f>
@@ -15514,13 +15657,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E124" s="12" t="str">
+      <c r="D124"/>
+      <c r="E124" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F124" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F124" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G124">
         <f>COUNTIF(cijfers!C:C, A124)</f>
@@ -15539,13 +15683,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E125" s="12" t="str">
+      <c r="D125"/>
+      <c r="E125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F125" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F125" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G125">
         <f>COUNTIF(cijfers!C:C, A125)</f>
@@ -15564,13 +15709,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E126" s="12" t="str">
+      <c r="D126"/>
+      <c r="E126" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F126" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F126" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G126">
         <f>COUNTIF(cijfers!C:C, A126)</f>
@@ -15589,13 +15735,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E127" s="12" t="str">
+      <c r="D127"/>
+      <c r="E127" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F127" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F127" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G127">
         <f>COUNTIF(cijfers!C:C, A127)</f>
@@ -15614,13 +15761,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E128" s="12" t="str">
+      <c r="D128"/>
+      <c r="E128" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F128" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F128" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G128">
         <f>COUNTIF(cijfers!C:C, A128)</f>
@@ -15639,13 +15787,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E129" s="12" t="str">
+      <c r="D129"/>
+      <c r="E129" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F129" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F129" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G129">
         <f>COUNTIF(cijfers!C:C, A129)</f>
@@ -15664,13 +15813,14 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E130" s="12" t="str">
+      <c r="D130"/>
+      <c r="E130" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="F130" s="16" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+      <c r="F130" s="18" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G130">
         <f>COUNTIF(cijfers!C:C, A130)</f>
@@ -15679,6 +15829,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="A2:A130">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$A2&gt;$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:G130">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A2&gt;$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C130">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A2&gt;$I$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2">
       <formula1>$N$2:$N$10</formula1>
